--- a/cluster algorithm/Results_clusters=3/Heat_results.xlsx
+++ b/cluster algorithm/Results_clusters=3/Heat_results.xlsx
@@ -379,7058 +379,7058 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1760099581168831</v>
+        <v>0.182543224337617</v>
       </c>
       <c r="B2">
-        <v>0.3194254795454545</v>
+        <v>0.4636018395876</v>
       </c>
       <c r="C2">
-        <v>0.004539204183014353</v>
+        <v>0.00618131127657544</v>
       </c>
       <c r="D2">
-        <v>0.05749658631818181</v>
+        <v>0.0534217863341389</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.1759039594692264</v>
+        <v>0.171163145306252</v>
       </c>
       <c r="B3">
-        <v>0.3192331116293367</v>
+        <v>0.434700051571433</v>
       </c>
       <c r="C3">
-        <v>0.004536470533680049</v>
+        <v>0.0057959570071954</v>
       </c>
       <c r="D3">
-        <v>0.05746196009328061</v>
+        <v>0.0500913743033159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.1783521920073405</v>
+        <v>0.168306912072046</v>
       </c>
       <c r="B4">
-        <v>0.3236762003096179</v>
+        <v>0.427446125897259</v>
       </c>
       <c r="C4">
-        <v>0.004599609162294569</v>
+        <v>0.00569923872711028</v>
       </c>
       <c r="D4">
-        <v>0.05826171605573121</v>
+        <v>0.0492554896403168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.4957750107357964</v>
+        <v>0.165317286704357</v>
       </c>
       <c r="B5">
-        <v>0.8997398342982971</v>
+        <v>0.419853426550747</v>
       </c>
       <c r="C5">
-        <v>0.01278577659266001</v>
+        <v>0.00559800349876867</v>
       </c>
       <c r="D5">
-        <v>0.1619531701736935</v>
+        <v>0.0483805673955097</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.496326769973515</v>
+        <v>0.177328659667783</v>
       </c>
       <c r="B6">
-        <v>0.9007411751371198</v>
+        <v>0.450358500743576</v>
       </c>
       <c r="C6">
-        <v>0.01280000617300118</v>
+        <v>0.00600473475606618</v>
       </c>
       <c r="D6">
-        <v>0.1621334115246816</v>
+        <v>0.0518957293652853</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.4964115334997714</v>
+        <v>0.250856861693857</v>
       </c>
       <c r="B7">
-        <v>0.9008950052403258</v>
+        <v>0.637096791603447</v>
       </c>
       <c r="C7">
-        <v>0.01280219217973095</v>
+        <v>0.00849455986997718</v>
       </c>
       <c r="D7">
-        <v>0.1621611009432586</v>
+        <v>0.0734139638131737</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.270672662998306</v>
+        <v>0.396182133265539</v>
       </c>
       <c r="B8">
-        <v>0.4912207587747034</v>
+        <v>1.00617684638867</v>
       </c>
       <c r="C8">
-        <v>0.006980505519429997</v>
+        <v>0.0134155901804531</v>
       </c>
       <c r="D8">
-        <v>0.08841973657944661</v>
+        <v>0.11594381193558</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.2669264128458499</v>
+        <v>0.968352783639418</v>
       </c>
       <c r="B9">
-        <v>0.4844220084980238</v>
+        <v>2.45930865686201</v>
       </c>
       <c r="C9">
-        <v>0.00688389169970876</v>
+        <v>0.0327905349701882</v>
       </c>
       <c r="D9">
-        <v>0.08719596152964429</v>
+        <v>0.28339115675954</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.2710751101863354</v>
+        <v>1.63569628207658</v>
       </c>
       <c r="B10">
-        <v>0.4919511258937198</v>
+        <v>4.15414928781354</v>
       </c>
       <c r="C10">
-        <v>0.006990884420594966</v>
+        <v>0.0553882397450835</v>
       </c>
       <c r="D10">
-        <v>0.08855120266086956</v>
+        <v>0.478691102371602</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.178388468673066</v>
+        <v>1.76301900844435</v>
       </c>
       <c r="B11">
-        <v>0.3237420357400087</v>
+        <v>4.47750859287453</v>
       </c>
       <c r="C11">
-        <v>0.00460054471841065</v>
+        <v>0.0596996646534426</v>
       </c>
       <c r="D11">
-        <v>0.05827356643320156</v>
+        <v>0.515952455172726</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.1772845962789385</v>
+        <v>1.7494212618149</v>
       </c>
       <c r="B12">
-        <v>0.3217387117654809</v>
+        <v>4.44297463318071</v>
       </c>
       <c r="C12">
-        <v>0.004572076430351571</v>
+        <v>0.0592392153276372</v>
       </c>
       <c r="D12">
-        <v>0.05791296811778656</v>
+        <v>0.511973036502437</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.1759912004263128</v>
+        <v>1.72275756848045</v>
       </c>
       <c r="B13">
-        <v>0.3193914378107159</v>
+        <v>4.37525731677573</v>
       </c>
       <c r="C13">
-        <v>0.004538720432047015</v>
+        <v>0.0583363245800815</v>
       </c>
       <c r="D13">
-        <v>0.05749045880592886</v>
+        <v>0.504169831900562</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.1766071959062676</v>
+        <v>1.53618631551296</v>
       </c>
       <c r="B14">
-        <v>0.3205093555335968</v>
+        <v>3.90142556320752</v>
       </c>
       <c r="C14">
-        <v>0.004554606631266903</v>
+        <v>0.0520186154783744</v>
       </c>
       <c r="D14">
-        <v>0.05769168399604743</v>
+        <v>0.449569231695936</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.1761977119819311</v>
+        <v>1.23651985722591</v>
       </c>
       <c r="B15">
-        <v>0.3197662180412823</v>
+        <v>3.1403678913674</v>
       </c>
       <c r="C15">
-        <v>0.004544046256376117</v>
+        <v>0.0418712563280001</v>
       </c>
       <c r="D15">
-        <v>0.05755791924743081</v>
+        <v>0.3618710026096</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.4968134081722728</v>
+        <v>1.23186383736043</v>
       </c>
       <c r="B16">
-        <v>0.9016243333496802</v>
+        <v>3.12854307901061</v>
       </c>
       <c r="C16">
-        <v>0.01281255631602177</v>
+        <v>0.041713593351448</v>
       </c>
       <c r="D16">
-        <v>0.1622923800029424</v>
+        <v>0.360508405343533</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.4971236179040629</v>
+        <v>1.25840656599944</v>
       </c>
       <c r="B17">
-        <v>0.9021873065666326</v>
+        <v>3.19595318349064</v>
       </c>
       <c r="C17">
-        <v>0.01282055646173636</v>
+        <v>0.0426123879708744</v>
       </c>
       <c r="D17">
-        <v>0.1623937151819939</v>
+        <v>0.36827620928818</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.4957390879887606</v>
+        <v>1.06233624257197</v>
       </c>
       <c r="B18">
-        <v>0.8996746411647878</v>
+        <v>2.69799680653199</v>
       </c>
       <c r="C18">
-        <v>0.01278485016392067</v>
+        <v>0.0359730196481015</v>
       </c>
       <c r="D18">
-        <v>0.1619414354096618</v>
+        <v>0.310895679484263</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.2664189559006211</v>
+        <v>0.80743825595456</v>
       </c>
       <c r="B19">
-        <v>0.483501068115942</v>
+        <v>2.05063684051952</v>
       </c>
       <c r="C19">
-        <v>0.006870804652173913</v>
+        <v>0.027341618483956</v>
       </c>
       <c r="D19">
-        <v>0.08703019226086955</v>
+        <v>0.236299069133542</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.2730727313664596</v>
+        <v>0.646846134334892</v>
       </c>
       <c r="B20">
-        <v>0.4955764384057971</v>
+        <v>1.64278383323147</v>
       </c>
       <c r="C20">
-        <v>0.007042402019450801</v>
+        <v>0.0219036193695059</v>
       </c>
       <c r="D20">
-        <v>0.08920375891304347</v>
+        <v>0.189301334546337</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.2738914285714286</v>
+        <v>0.526066707893143</v>
       </c>
       <c r="B21">
-        <v>0.4970622222222221</v>
+        <v>1.33604243274449</v>
       </c>
       <c r="C21">
-        <v>0.007063515789473684</v>
+        <v>0.0178137648522991</v>
       </c>
       <c r="D21">
-        <v>0.08947119999999999</v>
+        <v>0.153954896811692</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.2693023939243366</v>
+        <v>0.422480581072295</v>
       </c>
       <c r="B22">
-        <v>0.4887339741589812</v>
+        <v>1.07296655510424</v>
       </c>
       <c r="C22">
-        <v>0.006945167001206575</v>
+        <v>0.0143061129186933</v>
       </c>
       <c r="D22">
-        <v>0.08797211534861661</v>
+        <v>0.123640126409863</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.1788386532467533</v>
+        <v>0.359821294395859</v>
       </c>
       <c r="B23">
-        <v>0.3245590373737374</v>
+        <v>0.913831858783134</v>
       </c>
       <c r="C23">
-        <v>0.004612154741626795</v>
+        <v>0.0121843329582447</v>
       </c>
       <c r="D23">
-        <v>0.05842062672727273</v>
+        <v>0.105302710508372</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.1776693058949746</v>
+        <v>0.286819917743053</v>
       </c>
       <c r="B24">
-        <v>0.3224368884760651</v>
+        <v>0.728431537125213</v>
       </c>
       <c r="C24">
-        <v>0.004581997888870398</v>
+        <v>0.00971234729924851</v>
       </c>
       <c r="D24">
-        <v>0.05803863992569171</v>
+        <v>0.0839386529828438</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.1764578422190853</v>
+        <v>0.221493161846208</v>
       </c>
       <c r="B25">
-        <v>0.320238306249451</v>
+        <v>0.562522315799893</v>
       </c>
       <c r="C25">
-        <v>0.004550754878281673</v>
+        <v>0.0075002410194755</v>
       </c>
       <c r="D25">
-        <v>0.05764289512490119</v>
+        <v>0.0648205947361619</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.1508320055505364</v>
+        <v>0.181698000920199</v>
       </c>
       <c r="B26">
-        <v>0.2737321582213438</v>
+        <v>0.461455240432251</v>
       </c>
       <c r="C26">
-        <v>0.003889878037882254</v>
+        <v>0.00615269017020312</v>
       </c>
       <c r="D26">
-        <v>0.04927178847984189</v>
+        <v>0.0531744293315782</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.1516594674477696</v>
+        <v>0.171020173141353</v>
       </c>
       <c r="B27">
-        <v>0.2752338483311375</v>
+        <v>0.43433694766058</v>
       </c>
       <c r="C27">
-        <v>0.003911217844705638</v>
+        <v>0.00579111565820352</v>
       </c>
       <c r="D27">
-        <v>0.04954209269960474</v>
+        <v>0.050049533098458</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.1487964422049689</v>
+        <v>0.168457664857244</v>
       </c>
       <c r="B28">
-        <v>0.2700379877053139</v>
+        <v>0.427828990113634</v>
       </c>
       <c r="C28">
-        <v>0.003837381930549198</v>
+        <v>0.00570434354485687</v>
       </c>
       <c r="D28">
-        <v>0.04860683778695651</v>
+        <v>0.0492996078655171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.4679955788385631</v>
+        <v>0.165575891375868</v>
       </c>
       <c r="B29">
-        <v>0.8493253097440588</v>
+        <v>0.420510200319664</v>
       </c>
       <c r="C29">
-        <v>0.012069359664784</v>
+        <v>0.00560676041635894</v>
       </c>
       <c r="D29">
-        <v>0.1528785557539306</v>
+        <v>0.0484562487775856</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.4698198527261969</v>
+        <v>0.17788028578465</v>
       </c>
       <c r="B30">
-        <v>0.8526360290216166</v>
+        <v>0.451759455961017</v>
       </c>
       <c r="C30">
-        <v>0.01211640672820192</v>
+        <v>0.00602341401819173</v>
       </c>
       <c r="D30">
-        <v>0.153474485223891</v>
+        <v>0.0520571642947851</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.4717053545472023</v>
+        <v>0.253994924814642</v>
       </c>
       <c r="B31">
-        <v>0.8560578656597374</v>
+        <v>0.645066475719725</v>
       </c>
       <c r="C31">
-        <v>0.01216503282779627</v>
+        <v>0.00860082152403471</v>
       </c>
       <c r="D31">
-        <v>0.1540904158187527</v>
+        <v>0.0743323267825465</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.2351901908131</v>
+        <v>0.402445708865828</v>
       </c>
       <c r="B32">
-        <v>0.4268266425867369</v>
+        <v>1.02208433997671</v>
       </c>
       <c r="C32">
-        <v>0.006065431236758893</v>
+        <v>0.0136276884965108</v>
       </c>
       <c r="D32">
-        <v>0.07682879566561265</v>
+        <v>0.117776864893971</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.2327752370412197</v>
+        <v>1.00066302796309</v>
       </c>
       <c r="B33">
-        <v>0.4224439487044357</v>
+        <v>2.54136642022372</v>
       </c>
       <c r="C33">
-        <v>0.006003150850010403</v>
+        <v>0.0338846302361808</v>
       </c>
       <c r="D33">
-        <v>0.07603991076679843</v>
+        <v>0.292846840337642</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.2328626549576511</v>
+        <v>1.70172010541657</v>
       </c>
       <c r="B34">
-        <v>0.4226025960342556</v>
+        <v>4.32182883915321</v>
       </c>
       <c r="C34">
-        <v>0.006005405312065738</v>
+        <v>0.0576239502471578</v>
       </c>
       <c r="D34">
-        <v>0.07606846728616601</v>
+        <v>0.498013159359642</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.1532457310163749</v>
+        <v>1.83330313735242</v>
       </c>
       <c r="B35">
-        <v>0.2781126229556433</v>
+        <v>4.65600796787917</v>
       </c>
       <c r="C35">
-        <v>0.003952126747264405</v>
+        <v>0.0620796383838302</v>
       </c>
       <c r="D35">
-        <v>0.0500602721320158</v>
+        <v>0.536521302528374</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.1496690287351778</v>
+        <v>1.8168047091201</v>
       </c>
       <c r="B36">
-        <v>0.2716215706675449</v>
+        <v>4.61410719776533</v>
       </c>
       <c r="C36">
-        <v>0.003859885477907218</v>
+        <v>0.0615209656593383</v>
       </c>
       <c r="D36">
-        <v>0.04889188272015808</v>
+        <v>0.53169299125539</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.1505301129079616</v>
+        <v>1.78838435163484</v>
       </c>
       <c r="B37">
-        <v>0.2731842789811155</v>
+        <v>4.54192851208849</v>
       </c>
       <c r="C37">
-        <v>0.003882092385521115</v>
+        <v>0.0605585904364541</v>
       </c>
       <c r="D37">
-        <v>0.0491731702166008</v>
+        <v>0.523375693965247</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.1502979422473179</v>
+        <v>1.59316105920333</v>
       </c>
       <c r="B38">
-        <v>0.272762932226614</v>
+        <v>4.04612332496084</v>
       </c>
       <c r="C38">
-        <v>0.003876104826378199</v>
+        <v>0.0539479044286009</v>
       </c>
       <c r="D38">
-        <v>0.04909732780079052</v>
+        <v>0.466243050156817</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.149872531981931</v>
+        <v>1.27881525602184</v>
       </c>
       <c r="B39">
-        <v>0.2719908913746155</v>
+        <v>3.24778477719832</v>
       </c>
       <c r="C39">
-        <v>0.003865133719534011</v>
+        <v>0.0433034706787281</v>
       </c>
       <c r="D39">
-        <v>0.0489583604474308</v>
+        <v>0.374248869635845</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.4715232633811944</v>
+        <v>1.27595066308677</v>
       </c>
       <c r="B40">
-        <v>0.8557274039140195</v>
+        <v>3.24050962053784</v>
       </c>
       <c r="C40">
-        <v>0.01216033679246238</v>
+        <v>0.0432064693209589</v>
       </c>
       <c r="D40">
-        <v>0.1540309327045235</v>
+        <v>0.373410538482955</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.4707945447984728</v>
+        <v>1.30566505705194</v>
       </c>
       <c r="B41">
-        <v>0.8544049146342653</v>
+        <v>3.31597474806841</v>
       </c>
       <c r="C41">
-        <v>0.01214154352375009</v>
+        <v>0.0442126634383246</v>
       </c>
       <c r="D41">
-        <v>0.1537928846341678</v>
+        <v>0.382106539176574</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.4717265896686026</v>
+        <v>1.09728451732857</v>
       </c>
       <c r="B42">
-        <v>0.8560964034726491</v>
+        <v>2.78675432972335</v>
       </c>
       <c r="C42">
-        <v>0.01216558047040081</v>
+        <v>0.0371564443719372</v>
       </c>
       <c r="D42">
-        <v>0.1540973526250768</v>
+        <v>0.321123390063872</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.2319381360643704</v>
+        <v>0.824499542200885</v>
       </c>
       <c r="B43">
-        <v>0.4209247654501537</v>
+        <v>2.09396709130384</v>
       </c>
       <c r="C43">
-        <v>0.005981562456396921</v>
+        <v>0.027919350807081</v>
       </c>
       <c r="D43">
-        <v>0.07576645778102767</v>
+        <v>0.24129210238221</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.2303050719536985</v>
+        <v>0.654021571505516</v>
       </c>
       <c r="B44">
-        <v>0.4179610565085639</v>
+        <v>1.66100716572829</v>
       </c>
       <c r="C44">
-        <v>0.005939446592490118</v>
+        <v>0.0221465953049759</v>
       </c>
       <c r="D44">
-        <v>0.07523299017154149</v>
+        <v>0.19140124634955</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.2307489276284585</v>
+        <v>0.529126701800344</v>
       </c>
       <c r="B45">
-        <v>0.4187665723627579</v>
+        <v>1.34381384584214</v>
       </c>
       <c r="C45">
-        <v>0.005950893396733929</v>
+        <v>0.0179173829126981</v>
       </c>
       <c r="D45">
-        <v>0.07537798302529643</v>
+        <v>0.154850412606854</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.2298704181648786</v>
+        <v>0.424768160606113</v>
       </c>
       <c r="B46">
-        <v>0.4171722403732981</v>
+        <v>1.07877628090441</v>
       </c>
       <c r="C46">
-        <v>0.005928237100041605</v>
+        <v>0.0143835753455775</v>
       </c>
       <c r="D46">
-        <v>0.07509100326719366</v>
+        <v>0.124309592973311</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.1506040819141728</v>
+        <v>0.361115898764705</v>
       </c>
       <c r="B47">
-        <v>0.2733185190294247</v>
+        <v>0.91711974289449</v>
       </c>
       <c r="C47">
-        <v>0.003884000007260246</v>
+        <v>0.0122281710826829</v>
       </c>
       <c r="D47">
-        <v>0.04919733342529645</v>
+        <v>0.105681580106138</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.1533494291925466</v>
+        <v>0.28576240164296</v>
       </c>
       <c r="B48">
-        <v>0.2783008159420289</v>
+        <v>0.725745781950375</v>
       </c>
       <c r="C48">
-        <v>0.003954801068649885</v>
+        <v>0.00967653750012623</v>
       </c>
       <c r="D48">
-        <v>0.05009414686956521</v>
+        <v>0.0836291679315686</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.1519884348701298</v>
+        <v>0.221076968405364</v>
       </c>
       <c r="B49">
-        <v>0.2758308632828281</v>
+        <v>0.561465316585052</v>
       </c>
       <c r="C49">
-        <v>0.003919701741387558</v>
+        <v>0.00748614780282252</v>
       </c>
       <c r="D49">
-        <v>0.04964955539090906</v>
+        <v>0.064698794558965</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.1876882131309994</v>
+        <v>0.181806206501368</v>
       </c>
       <c r="B50">
-        <v>0.3406193497562582</v>
+        <v>0.461730048257442</v>
       </c>
       <c r="C50">
-        <v>0.004840380233378406</v>
+        <v>0.00615635424692519</v>
       </c>
       <c r="D50">
-        <v>0.06131148295612648</v>
+        <v>0.0532060959982448</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.1905756587634106</v>
+        <v>0.171118615812943</v>
       </c>
       <c r="B51">
-        <v>0.3458595288669303</v>
+        <v>0.434586960794776</v>
       </c>
       <c r="C51">
-        <v>0.004914845936530063</v>
+        <v>0.00579444914153713</v>
       </c>
       <c r="D51">
-        <v>0.06225471519604746</v>
+        <v>0.0500783426222676</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>0.1899877998193111</v>
+        <v>0.168556921104631</v>
       </c>
       <c r="B52">
-        <v>0.3447926737461571</v>
+        <v>0.42808106947208</v>
       </c>
       <c r="C52">
-        <v>0.00489968536376118</v>
+        <v>0.00570770457763952</v>
       </c>
       <c r="D52">
-        <v>0.06206268127430828</v>
+        <v>0.0493286554845647</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>0.507176501334328</v>
+        <v>0.165675961199054</v>
       </c>
       <c r="B53">
-        <v>0.9204314283474841</v>
+        <v>0.420764345902359</v>
       </c>
       <c r="C53">
-        <v>0.01307981503441162</v>
+        <v>0.00561014899859063</v>
       </c>
       <c r="D53">
-        <v>0.1656776571025471</v>
+        <v>0.0484855344918714</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>0.506910000560754</v>
+        <v>0.178004762881784</v>
       </c>
       <c r="B54">
-        <v>0.9199477787954424</v>
+        <v>0.452075588271198</v>
       </c>
       <c r="C54">
-        <v>0.01307294211972471</v>
+        <v>0.00602762908389456</v>
       </c>
       <c r="D54">
-        <v>0.1655906001831796</v>
+        <v>0.0520935928662137</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>0.508738167553978</v>
+        <v>0.254195064461014</v>
       </c>
       <c r="B55">
-        <v>0.9232655633387009</v>
+        <v>0.645574766885114</v>
       </c>
       <c r="C55">
-        <v>0.0131200895842868</v>
+        <v>0.00860759868849808</v>
       </c>
       <c r="D55">
-        <v>0.1661878014009662</v>
+        <v>0.0743908982111179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.2864295394522868</v>
+        <v>0.402725985728329</v>
       </c>
       <c r="B56">
-        <v>0.5198165715985945</v>
+        <v>1.02279615423068</v>
       </c>
       <c r="C56">
-        <v>0.007386867070085292</v>
+        <v>0.0136371792817045</v>
       </c>
       <c r="D56">
-        <v>0.09356698288774702</v>
+        <v>0.117858888703495</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>0.2866390176792772</v>
+        <v>1.00096079670525</v>
       </c>
       <c r="B57">
-        <v>0.5201967357883178</v>
+        <v>2.54212265829905</v>
       </c>
       <c r="C57">
-        <v>0.007392269403307675</v>
+        <v>0.0338947133345288</v>
       </c>
       <c r="D57">
-        <v>0.09363541244189721</v>
+        <v>0.292933983194785</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>0.2877002116431395</v>
+        <v>1.70202560312882</v>
       </c>
       <c r="B58">
-        <v>0.5221226063153271</v>
+        <v>4.32260470635891</v>
       </c>
       <c r="C58">
-        <v>0.007419637037112544</v>
+        <v>0.0576342950652716</v>
       </c>
       <c r="D58">
-        <v>0.09398206913675888</v>
+        <v>0.498102564121547</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>0.1889529415697346</v>
+        <v>1.83360294003408</v>
       </c>
       <c r="B59">
-        <v>0.3429145976635924</v>
+        <v>4.65676937151513</v>
       </c>
       <c r="C59">
-        <v>0.00487299691416684</v>
+        <v>0.0620897903558007</v>
       </c>
       <c r="D59">
-        <v>0.06172462757944664</v>
+        <v>0.536609040623612</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>0.1870837200084698</v>
+        <v>1.81711630865083</v>
       </c>
       <c r="B60">
-        <v>0.3395223066820377</v>
+        <v>4.61489856165291</v>
       </c>
       <c r="C60">
-        <v>0.004824790673902642</v>
+        <v>0.0615315170983199</v>
       </c>
       <c r="D60">
-        <v>0.06111401520276679</v>
+        <v>0.53178418173158</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>0.1930214138706945</v>
+        <v>1.78872279916692</v>
       </c>
       <c r="B61">
-        <v>0.3502981214690382</v>
+        <v>4.54278806137631</v>
       </c>
       <c r="C61">
-        <v>0.004977920673507385</v>
+        <v>0.060570051007254</v>
       </c>
       <c r="D61">
-        <v>0.06305366186442686</v>
+        <v>0.523474741584295</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>0.1885549600028233</v>
+        <v>1.59348689631053</v>
       </c>
       <c r="B62">
-        <v>0.3421923348199385</v>
+        <v>4.04695084777279</v>
       </c>
       <c r="C62">
-        <v>0.00486273317902018</v>
+        <v>0.0539589379829406</v>
       </c>
       <c r="D62">
-        <v>0.06159462026758894</v>
+        <v>0.466338407299674</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>0.1915568983314512</v>
+        <v>1.27910082112703</v>
       </c>
       <c r="B63">
-        <v>0.3476402969718929</v>
+        <v>3.24851002190991</v>
       </c>
       <c r="C63">
-        <v>0.004940151588547952</v>
+        <v>0.0433131405353405</v>
       </c>
       <c r="D63">
-        <v>0.06257525345494072</v>
+        <v>0.374332441064417</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>0.5099292809051921</v>
+        <v>1.27620490552373</v>
       </c>
       <c r="B64">
-        <v>0.9254272134946078</v>
+        <v>3.24115531561582</v>
       </c>
       <c r="C64">
-        <v>0.01315080777071285</v>
+        <v>0.0432150785237833</v>
       </c>
       <c r="D64">
-        <v>0.1665768984290294</v>
+        <v>0.373484943244859</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>0.5109473280169933</v>
+        <v>1.30591319767041</v>
       </c>
       <c r="B65">
-        <v>0.9272747804752841</v>
+        <v>3.31660494646453</v>
       </c>
       <c r="C65">
-        <v>0.01317706266991193</v>
+        <v>0.0442210660202812</v>
       </c>
       <c r="D65">
-        <v>0.1669094604855511</v>
+        <v>0.382179158224193</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>0.5077491417747573</v>
+        <v>1.09757048922166</v>
       </c>
       <c r="B66">
-        <v>0.9214706647023372</v>
+        <v>2.78748060754707</v>
       </c>
       <c r="C66">
-        <v>0.01309458312998058</v>
+        <v>0.0371661280032741</v>
       </c>
       <c r="D66">
-        <v>0.1658647196464207</v>
+        <v>0.321207080540063</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>0.2905176126030493</v>
+        <v>0.824859142703716</v>
       </c>
       <c r="B67">
-        <v>0.527235667316645</v>
+        <v>2.09488036242214</v>
       </c>
       <c r="C67">
-        <v>0.007492296325026007</v>
+        <v>0.0279315276635558</v>
       </c>
       <c r="D67">
-        <v>0.09490242011699608</v>
+        <v>0.241397340477448</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>0.2862160015697346</v>
+        <v>0.654436495162629</v>
       </c>
       <c r="B68">
-        <v>0.5194290398858147</v>
+        <v>1.66206094009557</v>
       </c>
       <c r="C68">
-        <v>0.00738136004048263</v>
+        <v>0.0221606455239853</v>
       </c>
       <c r="D68">
-        <v>0.09349722717944664</v>
+        <v>0.191522674920979</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>0.2929171396837943</v>
+        <v>0.529518031759308</v>
       </c>
       <c r="B69">
-        <v>0.5315903646113304</v>
+        <v>1.34480769970618</v>
       </c>
       <c r="C69">
-        <v>0.007554178865529433</v>
+        <v>0.0179306341976854</v>
       </c>
       <c r="D69">
-        <v>0.09568626563003947</v>
+        <v>0.154964936416378</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>0.2873250994692265</v>
+        <v>0.425108235289786</v>
       </c>
       <c r="B70">
-        <v>0.5214418471848925</v>
+        <v>1.07963996264073</v>
       </c>
       <c r="C70">
-        <v>0.007409963091574788</v>
+        <v>0.0143950910152754</v>
       </c>
       <c r="D70">
-        <v>0.09385953249328065</v>
+        <v>0.124409116782835</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>0.1851171708074534</v>
+        <v>0.361399836718298</v>
       </c>
       <c r="B71">
-        <v>0.3359533840579709</v>
+        <v>0.917840855157583</v>
       </c>
       <c r="C71">
-        <v>0.004774074405034324</v>
+        <v>0.0122377858403972</v>
       </c>
       <c r="D71">
-        <v>0.06047160913043477</v>
+        <v>0.105764675344233</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>0.187284037987013</v>
+        <v>0.285973524562609</v>
       </c>
       <c r="B72">
-        <v>0.3398858467171717</v>
+        <v>0.726281967143133</v>
       </c>
       <c r="C72">
-        <v>0.004829956769138756</v>
+        <v>0.00968368658215162</v>
       </c>
       <c r="D72">
-        <v>0.06117945240909091</v>
+        <v>0.0836909536458543</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>0.1929672643111237</v>
+        <v>0.220398446189614</v>
       </c>
       <c r="B73">
-        <v>0.3501998500461134</v>
+        <v>0.559742085560925</v>
       </c>
       <c r="C73">
-        <v>0.004976524184865822</v>
+        <v>0.00746317156232473</v>
       </c>
       <c r="D73">
-        <v>0.06303597300830041</v>
+        <v>0.0645002231303935</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>0.1564616131931112</v>
+        <v>0.182269984585904</v>
       </c>
       <c r="B74">
-        <v>0.2839488535726833</v>
+        <v>0.462907897361027</v>
       </c>
       <c r="C74">
-        <v>0.004035062656032869</v>
+        <v>0.0061720587832846</v>
       </c>
       <c r="D74">
-        <v>0.05111079364308299</v>
+        <v>0.0533418219548147</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>0.1529188871061547</v>
+        <v>0.171961085606089</v>
       </c>
       <c r="B75">
-        <v>0.2775194617852437</v>
+        <v>0.436726566618638</v>
       </c>
       <c r="C75">
-        <v>0.003943697614842937</v>
+        <v>0.00582297700419235</v>
       </c>
       <c r="D75">
-        <v>0.04995350312134387</v>
+        <v>0.0503248937689656</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>0.1531466337831733</v>
+        <v>0.169498415327755</v>
       </c>
       <c r="B76">
-        <v>0.2779327798287219</v>
+        <v>0.430472165911759</v>
       </c>
       <c r="C76">
-        <v>0.003949571081776575</v>
+        <v>0.00573958562323484</v>
       </c>
       <c r="D76">
-        <v>0.05002790036916994</v>
+        <v>0.0496041864082955</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>0.4721610248605846</v>
+        <v>0.166413146695471</v>
       </c>
       <c r="B77">
-        <v>0.856884822895135</v>
+        <v>0.422636563036116</v>
       </c>
       <c r="C77">
-        <v>0.01217678432535192</v>
+        <v>0.00563511170557941</v>
       </c>
       <c r="D77">
-        <v>0.1542392681211243</v>
+        <v>0.0487012738939833</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>0.4744423847363609</v>
+        <v>0.178651844472525</v>
       </c>
       <c r="B78">
-        <v>0.8610250685956178</v>
+        <v>0.453718970088953</v>
       </c>
       <c r="C78">
-        <v>0.01223561939583246</v>
+        <v>0.00604954067633095</v>
       </c>
       <c r="D78">
-        <v>0.1549845123472112</v>
+        <v>0.0522829631077373</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>0.4725974066053616</v>
+        <v>0.254928396514004</v>
       </c>
       <c r="B79">
-        <v>0.857676774950471</v>
+        <v>0.647437197495883</v>
       </c>
       <c r="C79">
-        <v>0.01218803838087511</v>
+        <v>0.00863243090949709</v>
       </c>
       <c r="D79">
-        <v>0.1543818194910848</v>
+        <v>0.0746055098922087</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>0.232660484110672</v>
+        <v>0.404971063229745</v>
       </c>
       <c r="B80">
-        <v>0.4222356933860343</v>
+        <v>1.02849793836126</v>
       </c>
       <c r="C80">
-        <v>0.006000191432327856</v>
+        <v>0.0137132024971738</v>
       </c>
       <c r="D80">
-        <v>0.07600242480948617</v>
+        <v>0.118515916928012</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>0.2363588303274985</v>
+        <v>1.00910773983662</v>
       </c>
       <c r="B81">
-        <v>0.4289475068906454</v>
+        <v>2.56281330752158</v>
       </c>
       <c r="C81">
-        <v>0.006095569834761804</v>
+        <v>0.0341705865784154</v>
       </c>
       <c r="D81">
-        <v>0.07721055124031619</v>
+        <v>0.295318208940877</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>0.2343390163636364</v>
+        <v>1.71650573240251</v>
       </c>
       <c r="B82">
-        <v>0.4252819185858586</v>
+        <v>4.35937963784763</v>
       </c>
       <c r="C82">
-        <v>0.00604347989569378</v>
+        <v>0.058124623789827</v>
       </c>
       <c r="D82">
-        <v>0.07655074534545454</v>
+        <v>0.502340214546296</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>0.154628668297572</v>
+        <v>1.847701986605</v>
       </c>
       <c r="B83">
-        <v>0.2806223980215196</v>
+        <v>4.69257647391746</v>
       </c>
       <c r="C83">
-        <v>0.003987791971884752</v>
+        <v>0.062567214789789</v>
       </c>
       <c r="D83">
-        <v>0.05051203164387352</v>
+        <v>0.540735166127091</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>0.1556842307905138</v>
+        <v>1.82915855878137</v>
       </c>
       <c r="B84">
-        <v>0.2825380484716732</v>
+        <v>4.64548205404791</v>
       </c>
       <c r="C84">
-        <v>0.004015014373018514</v>
+        <v>0.0619392939237666</v>
       </c>
       <c r="D84">
-        <v>0.05085684872490118</v>
+        <v>0.535308379990869</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>0.1547256420186336</v>
+        <v>1.79873877895259</v>
       </c>
       <c r="B85">
-        <v>0.2807983873671498</v>
+        <v>4.56822547035579</v>
       </c>
       <c r="C85">
-        <v>0.003990292873112129</v>
+        <v>0.0609092139042597</v>
       </c>
       <c r="D85">
-        <v>0.05054370972608697</v>
+        <v>0.526405946146824</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>0.1524094211518916</v>
+        <v>1.60054992758335</v>
       </c>
       <c r="B86">
-        <v>0.2765948754238032</v>
+        <v>4.06488870497359</v>
       </c>
       <c r="C86">
-        <v>0.003930558756022467</v>
+        <v>0.0541981076098161</v>
       </c>
       <c r="D86">
-        <v>0.04978707757628457</v>
+        <v>0.468405423201781</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>0.1558659680378317</v>
+        <v>1.28454889366229</v>
       </c>
       <c r="B87">
-        <v>0.2828678679205094</v>
+        <v>3.26234639660263</v>
       </c>
       <c r="C87">
-        <v>0.004019701280975661</v>
+        <v>0.0434976241409084</v>
       </c>
       <c r="D87">
-        <v>0.0509162162256917</v>
+        <v>0.37592683476469</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>0.4755457262524536</v>
+        <v>1.28166921132036</v>
       </c>
       <c r="B88">
-        <v>0.8630274291248231</v>
+        <v>3.25503291763902</v>
       </c>
       <c r="C88">
-        <v>0.01226407399282643</v>
+        <v>0.0434001118229482</v>
       </c>
       <c r="D88">
-        <v>0.1553449372424681</v>
+        <v>0.375084087654582</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>0.473145095778145</v>
+        <v>1.31266207616604</v>
       </c>
       <c r="B89">
-        <v>0.858670729375152</v>
+        <v>3.33374495534233</v>
       </c>
       <c r="C89">
-        <v>0.01220216299638374</v>
+        <v>0.0444495977496877</v>
       </c>
       <c r="D89">
-        <v>0.1545607312875274</v>
+        <v>0.38415423643538</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>0.4739690184884786</v>
+        <v>1.10427416487031</v>
       </c>
       <c r="B90">
-        <v>0.8601659965161277</v>
+        <v>2.80450581554364</v>
       </c>
       <c r="C90">
-        <v>0.01222341152943971</v>
+        <v>0.0373931290657998</v>
       </c>
       <c r="D90">
-        <v>0.154829879372903</v>
+        <v>0.323168930011359</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>0.2360164660417843</v>
+        <v>0.83167592804695</v>
       </c>
       <c r="B91">
-        <v>0.4283261791128678</v>
+        <v>2.11219283313511</v>
       </c>
       <c r="C91">
-        <v>0.006086740440024964</v>
+        <v>0.0281623588667682</v>
       </c>
       <c r="D91">
-        <v>0.07709871224031621</v>
+        <v>0.24339229181795</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>0.2328025720553359</v>
+        <v>0.660920067139434</v>
       </c>
       <c r="B92">
-        <v>0.422493556693017</v>
+        <v>1.67852715463983</v>
       </c>
       <c r="C92">
-        <v>0.006003855805637611</v>
+        <v>0.0223801933966502</v>
       </c>
       <c r="D92">
-        <v>0.07604884020474306</v>
+        <v>0.193420110435683</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>0.2319078239695088</v>
+        <v>0.532528615010449</v>
       </c>
       <c r="B93">
-        <v>0.4208697546113307</v>
+        <v>1.35245362542336</v>
       </c>
       <c r="C93">
-        <v>0.005980780723424175</v>
+        <v>0.0180325791056209</v>
       </c>
       <c r="D93">
-        <v>0.07575655583003954</v>
+        <v>0.15584599204453</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>0.2396246879051383</v>
+        <v>0.425687082502919</v>
       </c>
       <c r="B94">
-        <v>0.4348744336056214</v>
+        <v>1.08111005080106</v>
       </c>
       <c r="C94">
-        <v>0.006179794582816725</v>
+        <v>0.0144146920430262</v>
       </c>
       <c r="D94">
-        <v>0.07827739804901185</v>
+        <v>0.124578518042467</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>0.1506433668887634</v>
+        <v>0.361395928103908</v>
       </c>
       <c r="B95">
-        <v>0.2733898139833114</v>
+        <v>0.917830928517863</v>
       </c>
       <c r="C95">
-        <v>0.003885013146078635</v>
+        <v>0.0122376534861984</v>
       </c>
       <c r="D95">
-        <v>0.04921016651699604</v>
+        <v>0.105763531477275</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>0.1532089234726143</v>
+        <v>0.287371689728893</v>
       </c>
       <c r="B96">
-        <v>0.2780458240799297</v>
+        <v>0.729832862803539</v>
       </c>
       <c r="C96">
-        <v>0.003951177500083212</v>
+        <v>0.0097310315008153</v>
       </c>
       <c r="D96">
-        <v>0.05004824833438735</v>
+        <v>0.0841001306013076</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>0.1541494623913044</v>
+        <v>0.232427452592786</v>
       </c>
       <c r="B97">
-        <v>0.2797527280434783</v>
+        <v>0.59029194309279</v>
       </c>
       <c r="C97">
-        <v>0.003975433503775744</v>
+        <v>0.00787049992630937</v>
       </c>
       <c r="D97">
-        <v>0.05035549104782609</v>
+        <v>0.0680205455757432</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>0.1809602188339921</v>
+        <v>0.199502421035154</v>
       </c>
       <c r="B98">
-        <v>0.3284092860320597</v>
+        <v>0.506672815327376</v>
       </c>
       <c r="C98">
-        <v>0.004666868801508217</v>
+        <v>0.00675558662515952</v>
       </c>
       <c r="D98">
-        <v>0.05911367148577074</v>
+        <v>0.0583849427901617</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>0.1840209076651609</v>
+        <v>0.176274577928151</v>
       </c>
       <c r="B99">
-        <v>0.3339638694664031</v>
+        <v>0.447681467754035</v>
       </c>
       <c r="C99">
-        <v>0.004745802355575202</v>
+        <v>0.00596904125187143</v>
       </c>
       <c r="D99">
-        <v>0.06011349650395256</v>
+        <v>0.0515872493892267</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>0.1813150223207227</v>
+        <v>0.16887039972467</v>
       </c>
       <c r="B100">
-        <v>0.3290531886561264</v>
+        <v>0.428877205649957</v>
       </c>
       <c r="C100">
-        <v>0.004676018996692323</v>
+        <v>0.00571831964667888</v>
       </c>
       <c r="D100">
-        <v>0.05922957395810276</v>
+        <v>0.049420395881508</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>0.4989845223761125</v>
+        <v>0.162972857571475</v>
       </c>
       <c r="B101">
-        <v>0.9055645035714633</v>
+        <v>0.413899320816444</v>
       </c>
       <c r="C101">
-        <v>0.01286854820864711</v>
+        <v>0.00551861602060398</v>
       </c>
       <c r="D101">
-        <v>0.1630016106428634</v>
+        <v>0.0476944636375268</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>0.499326053911968</v>
+        <v>0.164533468284245</v>
       </c>
       <c r="B102">
-        <v>0.9061843200624603</v>
+        <v>0.417862776594907</v>
       </c>
       <c r="C102">
-        <v>0.01287735612720338</v>
+        <v>0.00557146169938604</v>
       </c>
       <c r="D102">
-        <v>0.1631131776112429</v>
+        <v>0.0481511807375499</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>0.5012320830169933</v>
+        <v>0.19353532593002</v>
       </c>
       <c r="B103">
-        <v>0.9096434099197286</v>
+        <v>0.491518288076242</v>
       </c>
       <c r="C103">
-        <v>0.01292651161464877</v>
+        <v>0.00655352778459941</v>
       </c>
       <c r="D103">
-        <v>0.1637358137855511</v>
+        <v>0.0566386556798147</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>0.2748037684980237</v>
+        <v>0.252026822552377</v>
       </c>
       <c r="B104">
-        <v>0.4987179502371542</v>
+        <v>0.640068120767941</v>
       </c>
       <c r="C104">
-        <v>0.007087044556001665</v>
+        <v>0.00853417729359924</v>
       </c>
       <c r="D104">
-        <v>0.08976923104268775</v>
+        <v>0.073756356138224</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>0.2810794547092039</v>
+        <v>0.334634357503487</v>
       </c>
       <c r="B105">
-        <v>0.5101071585463329</v>
+        <v>0.849865034929491</v>
       </c>
       <c r="C105">
-        <v>0.007248891200395258</v>
+        <v>0.0113314484011753</v>
       </c>
       <c r="D105">
-        <v>0.09181928853833994</v>
+        <v>0.0979316828191317</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>0.2719860968944099</v>
+        <v>0.424387888233077</v>
       </c>
       <c r="B106">
-        <v>0.4936043980676328</v>
+        <v>1.07781050979829</v>
       </c>
       <c r="C106">
-        <v>0.007014378288329519</v>
+        <v>0.0143706984945404</v>
       </c>
       <c r="D106">
-        <v>0.08884879165217391</v>
+        <v>0.124198305197307</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>0.182270956702428</v>
+        <v>0.478382824563924</v>
       </c>
       <c r="B107">
-        <v>0.330788032534036</v>
+        <v>1.21494050682901</v>
       </c>
       <c r="C107">
-        <v>0.004700672041273143</v>
+        <v>0.016199084675572</v>
       </c>
       <c r="D107">
-        <v>0.05954184585612648</v>
+        <v>0.140000074680994</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>0.1788713907255787</v>
+        <v>0.511196518170254</v>
       </c>
       <c r="B108">
-        <v>0.3246184498353095</v>
+        <v>1.2982768715435</v>
       </c>
       <c r="C108">
-        <v>0.004612999023975451</v>
+        <v>0.0173102278311227</v>
       </c>
       <c r="D108">
-        <v>0.05843132097035571</v>
+        <v>0.149603094103008</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>0.1807151301411632</v>
+        <v>0.519829837371555</v>
       </c>
       <c r="B109">
-        <v>0.3279644954413702</v>
+        <v>1.32020276157855</v>
       </c>
       <c r="C109">
-        <v>0.004660548093114208</v>
+        <v>0.0176025708283877</v>
       </c>
       <c r="D109">
-        <v>0.05903360917944663</v>
+        <v>0.152129659169446</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>0.179195934164314</v>
+        <v>0.50205192228102</v>
       </c>
       <c r="B110">
-        <v>0.3252074360759772</v>
+        <v>1.27505250103116</v>
       </c>
       <c r="C110">
-        <v>0.004621368828448096</v>
+        <v>0.0170005718913037</v>
       </c>
       <c r="D110">
-        <v>0.05853733849367589</v>
+        <v>0.146926902480562</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>0.1805820567137211</v>
+        <v>0.446880749087202</v>
       </c>
       <c r="B111">
-        <v>0.3277229918137901</v>
+        <v>1.13493523577702</v>
       </c>
       <c r="C111">
-        <v>0.004657116199459123</v>
+        <v>0.0151323557674661</v>
       </c>
       <c r="D111">
-        <v>0.05899013852648222</v>
+        <v>0.130780903981528</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>0.4975509747222447</v>
+        <v>0.405764159337252</v>
       </c>
       <c r="B112">
-        <v>0.9029628800514811</v>
+        <v>1.03051215069778</v>
       </c>
       <c r="C112">
-        <v>0.01283157776915263</v>
+        <v>0.0137400584592646</v>
       </c>
       <c r="D112">
-        <v>0.1625333184092666</v>
+        <v>0.118748018727196</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>0.4988604738752654</v>
+        <v>0.400142421570533</v>
       </c>
       <c r="B113">
-        <v>0.9053393785143705</v>
+        <v>1.01623472144897</v>
       </c>
       <c r="C113">
-        <v>0.01286534906309895</v>
+        <v>0.0135496941706011</v>
       </c>
       <c r="D113">
-        <v>0.1629610881325867</v>
+        <v>0.117102801410093</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>0.5032377402332554</v>
+        <v>0.447278243206438</v>
       </c>
       <c r="B114">
-        <v>0.9132833063492412</v>
+        <v>1.13594474465127</v>
       </c>
       <c r="C114">
-        <v>0.01297823645864711</v>
+        <v>0.0151458157843499</v>
       </c>
       <c r="D114">
-        <v>0.1643909951428634</v>
+        <v>0.130897231749836</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>0.2747693967476003</v>
+        <v>0.521298160920995</v>
       </c>
       <c r="B115">
-        <v>0.4986555718752745</v>
+        <v>1.32393183725967</v>
       </c>
       <c r="C115">
-        <v>0.007086158126648639</v>
+        <v>0.0176522914627566</v>
       </c>
       <c r="D115">
-        <v>0.08975800293754942</v>
+        <v>0.152559368172408</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>0.2761031289215133</v>
+        <v>0.535462930102566</v>
       </c>
       <c r="B116">
-        <v>0.5010760487834871</v>
+        <v>1.35990585422874</v>
       </c>
       <c r="C116">
-        <v>0.007120554377449554</v>
+        <v>0.0181319414075291</v>
       </c>
       <c r="D116">
-        <v>0.09019368878102768</v>
+        <v>0.156704727582137</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>0.2781048097571993</v>
+        <v>0.48172718032678</v>
       </c>
       <c r="B117">
-        <v>0.5047087288186209</v>
+        <v>1.22343410876642</v>
       </c>
       <c r="C117">
-        <v>0.007172176672685666</v>
+        <v>0.0163123318479326</v>
       </c>
       <c r="D117">
-        <v>0.09084757118735176</v>
+        <v>0.140978809770378</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>0.2752760417617166</v>
+        <v>0.389814236350695</v>
       </c>
       <c r="B118">
-        <v>0.4995750387527448</v>
+        <v>0.990004409779543</v>
       </c>
       <c r="C118">
-        <v>0.007099224234907426</v>
+        <v>0.0131999593174034</v>
       </c>
       <c r="D118">
-        <v>0.08992350697549406</v>
+        <v>0.114080229052035</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>0.1783353808695652</v>
+        <v>0.344361129882912</v>
       </c>
       <c r="B119">
-        <v>0.3236456912077295</v>
+        <v>0.874567948908982</v>
       </c>
       <c r="C119">
-        <v>0.004599175611899314</v>
+        <v>0.0116608181053196</v>
       </c>
       <c r="D119">
-        <v>0.0582562244173913</v>
+        <v>0.100778250023474</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>0.1823983674308301</v>
+        <v>0.311959296350197</v>
       </c>
       <c r="B120">
-        <v>0.3310192594115064</v>
+        <v>0.792277578032245</v>
       </c>
       <c r="C120">
-        <v>0.004703957896900354</v>
+        <v>0.0105636214291665</v>
       </c>
       <c r="D120">
-        <v>0.05958346669407115</v>
+        <v>0.0912957626065895</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>0.1795064978147939</v>
+        <v>0.261458603445025</v>
       </c>
       <c r="B121">
-        <v>0.3257710515898111</v>
+        <v>0.66402185001911</v>
       </c>
       <c r="C121">
-        <v>0.004629378101539421</v>
+        <v>0.00885355794331365</v>
       </c>
       <c r="D121">
-        <v>0.058638789286166</v>
+        <v>0.0765165932569983</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>0.1930578674957651</v>
+        <v>0.206940137784122</v>
       </c>
       <c r="B122">
-        <v>0.35036427804787</v>
+        <v>0.525562254689833</v>
       </c>
       <c r="C122">
-        <v>0.004978860793311837</v>
+        <v>0.00700744391857148</v>
       </c>
       <c r="D122">
-        <v>0.0630655700486166</v>
+        <v>0.0605616114472371</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>0.1896283953896103</v>
+        <v>0.182819354365534</v>
       </c>
       <c r="B123">
-        <v>0.3441404212626261</v>
+        <v>0.464303122198181</v>
       </c>
       <c r="C123">
-        <v>0.004890416512679424</v>
+        <v>0.00619066164091548</v>
       </c>
       <c r="D123">
-        <v>0.0619452758272727</v>
+        <v>0.0535025965608966</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>0.1889309986109543</v>
+        <v>0.172429015453086</v>
       </c>
       <c r="B124">
-        <v>0.342874775256917</v>
+        <v>0.437914959880854</v>
       </c>
       <c r="C124">
-        <v>0.004872431016808821</v>
+        <v>0.00583882212827399</v>
       </c>
       <c r="D124">
-        <v>0.06171745954624506</v>
+        <v>0.0504618347504584</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>0.5099630801400876</v>
+        <v>0.164107668735899</v>
       </c>
       <c r="B125">
-        <v>0.9254885528468255</v>
+        <v>0.41678138091657</v>
       </c>
       <c r="C125">
-        <v>0.01315167943519173</v>
+        <v>0.00555704319900458</v>
       </c>
       <c r="D125">
-        <v>0.1665879395124286</v>
+        <v>0.0480265693060635</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>0.5084861774466941</v>
+        <v>0.162351282038822</v>
       </c>
       <c r="B126">
-        <v>0.9228082479588151</v>
+        <v>0.412320716289071</v>
       </c>
       <c r="C126">
-        <v>0.01311359089204632</v>
+        <v>0.00549756811886358</v>
       </c>
       <c r="D126">
-        <v>0.1661054846325867</v>
+        <v>0.0475125578154048</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>0.5120126232739104</v>
+        <v>0.174991578875482</v>
       </c>
       <c r="B127">
-        <v>0.9292080940896892</v>
+        <v>0.44442305746154</v>
       </c>
       <c r="C127">
-        <v>0.01320453607390611</v>
+        <v>0.00592559610872311</v>
       </c>
       <c r="D127">
-        <v>0.167257456936144</v>
+        <v>0.0512117761197732</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>0.2881835812987014</v>
+        <v>0.195415615535526</v>
       </c>
       <c r="B128">
-        <v>0.5229998327272729</v>
+        <v>0.49629362675689</v>
       </c>
       <c r="C128">
-        <v>0.007432102886124404</v>
+        <v>0.00661719848716266</v>
       </c>
       <c r="D128">
-        <v>0.09413996989090911</v>
+        <v>0.0571889277039673</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>0.2931815585827217</v>
+        <v>0.256084146959425</v>
       </c>
       <c r="B129">
-        <v>0.5320702359464208</v>
+        <v>0.650372436722349</v>
       </c>
       <c r="C129">
-        <v>0.007560998089764927</v>
+        <v>0.00867156713757189</v>
       </c>
       <c r="D129">
-        <v>0.09577264247035575</v>
+        <v>0.0749437435000289</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>0.2905124703726709</v>
+        <v>0.36157122490263</v>
       </c>
       <c r="B130">
-        <v>0.527226335120773</v>
+        <v>0.918276126736838</v>
       </c>
       <c r="C130">
-        <v>0.007492163709610985</v>
+        <v>0.0122435894177161</v>
       </c>
       <c r="D130">
-        <v>0.09490074032173915</v>
+        <v>0.105814832576838</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>0.1868557963721062</v>
+        <v>0.44040445181886</v>
       </c>
       <c r="B131">
-        <v>0.3391086674901185</v>
+        <v>1.11848749668282</v>
       </c>
       <c r="C131">
-        <v>0.004818912643280633</v>
+        <v>0.0149130542322789</v>
       </c>
       <c r="D131">
-        <v>0.06103956014822134</v>
+        <v>0.128885597430648</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>0.1923245479700734</v>
+        <v>0.497827826670344</v>
       </c>
       <c r="B132">
-        <v>0.3490334389086516</v>
+        <v>1.26432463916278</v>
       </c>
       <c r="C132">
-        <v>0.004959948868701892</v>
+        <v>0.0168575348110377</v>
       </c>
       <c r="D132">
-        <v>0.06282601900355729</v>
+        <v>0.145690709058498</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>0.1922498711264821</v>
+        <v>0.525203202397901</v>
       </c>
       <c r="B133">
-        <v>0.3488979142665786</v>
+        <v>1.3338494029153</v>
       </c>
       <c r="C133">
-        <v>0.004958022992209275</v>
+        <v>0.0177845246749412</v>
       </c>
       <c r="D133">
-        <v>0.06280162456798415</v>
+        <v>0.153702189507805</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>0.1896637872586109</v>
+        <v>0.470751020417962</v>
       </c>
       <c r="B134">
-        <v>0.3442046509508123</v>
+        <v>1.19555814709324</v>
       </c>
       <c r="C134">
-        <v>0.004891329250353649</v>
+        <v>0.0159406551600464</v>
       </c>
       <c r="D134">
-        <v>0.06195683717114622</v>
+        <v>0.137766605803094</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>0.1910996353839638</v>
+        <v>0.384850285793037</v>
       </c>
       <c r="B135">
-        <v>0.3468104494005269</v>
+        <v>0.977397551220411</v>
       </c>
       <c r="C135">
-        <v>0.004928359017796962</v>
+        <v>0.0130318691367366</v>
       </c>
       <c r="D135">
-        <v>0.06242588089209485</v>
+        <v>0.112627515005667</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>0.5088446970796697</v>
+        <v>0.341255810881394</v>
       </c>
       <c r="B136">
-        <v>0.9234588947001413</v>
+        <v>0.866681424460683</v>
       </c>
       <c r="C136">
-        <v>0.01312283692468622</v>
+        <v>0.0115556652384789</v>
       </c>
       <c r="D136">
-        <v>0.1662226010460254</v>
+        <v>0.099869469712398</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>0.5107739078588905</v>
+        <v>0.323379318850167</v>
       </c>
       <c r="B137">
-        <v>0.9269600550031716</v>
+        <v>0.821280809778201</v>
       </c>
       <c r="C137">
-        <v>0.01317259025530823</v>
+        <v>0.010950328271417</v>
       </c>
       <c r="D137">
-        <v>0.1668528099005709</v>
+        <v>0.094637864205475</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>0.5122032084884783</v>
+        <v>0.345718722248132</v>
       </c>
       <c r="B138">
-        <v>0.9295539709605718</v>
+        <v>0.878015802534938</v>
       </c>
       <c r="C138">
-        <v>0.01320945116628181</v>
+        <v>0.0117067891405447</v>
       </c>
       <c r="D138">
-        <v>0.1673197147729029</v>
+        <v>0.101175553234957</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>0.2877605651891587</v>
+        <v>0.407425255300522</v>
       </c>
       <c r="B139">
-        <v>0.5222321368247694</v>
+        <v>1.03473080711244</v>
       </c>
       <c r="C139">
-        <v>0.007421193523299355</v>
+        <v>0.0137963067875523</v>
       </c>
       <c r="D139">
-        <v>0.0940017846284585</v>
+        <v>0.119234143117473</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>0.2846638599265953</v>
+        <v>0.463112852643911</v>
       </c>
       <c r="B140">
-        <v>0.5166121902371543</v>
+        <v>1.17615962576231</v>
       </c>
       <c r="C140">
-        <v>0.00734133112442272</v>
+        <v>0.0156820101582095</v>
       </c>
       <c r="D140">
-        <v>0.09299019424268778</v>
+        <v>0.135531274591594</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>0.2889527507058159</v>
+        <v>0.449259763144625</v>
       </c>
       <c r="B141">
-        <v>0.5243957327624067</v>
+        <v>1.14097717624032</v>
       </c>
       <c r="C141">
-        <v>0.007451939360307885</v>
+        <v>0.0152129143665247</v>
       </c>
       <c r="D141">
-        <v>0.09439123189723321</v>
+        <v>0.131477129114631</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>0.2926275509203839</v>
+        <v>0.390210817876743</v>
       </c>
       <c r="B142">
-        <v>0.5310648146332893</v>
+        <v>0.991011600956808</v>
       </c>
       <c r="C142">
-        <v>0.007546710523736217</v>
+        <v>0.0132133884318936</v>
       </c>
       <c r="D142">
-        <v>0.09559166663399207</v>
+        <v>0.114196289747388</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>0.1930690159345003</v>
+        <v>0.34471462738885</v>
       </c>
       <c r="B143">
-        <v>0.3503845103996486</v>
+        <v>0.875465720352635</v>
       </c>
       <c r="C143">
-        <v>0.004979148305679217</v>
+        <v>0.0116727883010232</v>
       </c>
       <c r="D143">
-        <v>0.06306921187193676</v>
+        <v>0.100881702059563</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>0.1911583858865048</v>
+        <v>0.281311986035747</v>
       </c>
       <c r="B144">
-        <v>0.3469170706829161</v>
+        <v>0.714443139138405</v>
       </c>
       <c r="C144">
-        <v>0.004929874162336177</v>
+        <v>0.00952583673170202</v>
       </c>
       <c r="D144">
-        <v>0.0624450727229249</v>
+        <v>0.082326741328065</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>0.1893686190711463</v>
+        <v>0.222247818723235</v>
       </c>
       <c r="B145">
-        <v>0.3436689753513395</v>
+        <v>0.56443890469393</v>
       </c>
       <c r="C145">
-        <v>0.004883717018150614</v>
+        <v>0.00752579534547603</v>
       </c>
       <c r="D145">
-        <v>0.06186041556324111</v>
+        <v>0.0650414471867878</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>0.1837662631677018</v>
+        <v>0.18211786362121</v>
       </c>
       <c r="B146">
-        <v>0.3335017368599032</v>
+        <v>0.462521558403074</v>
       </c>
       <c r="C146">
-        <v>0.004739235208009151</v>
+        <v>0.00616690763599947</v>
       </c>
       <c r="D146">
-        <v>0.06003031263478258</v>
+        <v>0.0532973033280493</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>0.1867627157566347</v>
+        <v>0.171907133567976</v>
       </c>
       <c r="B147">
-        <v>0.3389397434101888</v>
+        <v>0.436589545569462</v>
       </c>
       <c r="C147">
-        <v>0.00481651214319742</v>
+        <v>0.00582115007063844</v>
       </c>
       <c r="D147">
-        <v>0.06100915381383399</v>
+        <v>0.0503091045537656</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>0.1854792296273291</v>
+        <v>0.169614324414803</v>
       </c>
       <c r="B148">
-        <v>0.3366104537681158</v>
+        <v>0.430766538196326</v>
       </c>
       <c r="C148">
-        <v>0.004783411711441646</v>
+        <v>0.00574351055744935</v>
       </c>
       <c r="D148">
-        <v>0.06058988167826085</v>
+        <v>0.0496381075275534</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>0.5052357881976823</v>
+        <v>0.166384699171371</v>
       </c>
       <c r="B149">
-        <v>0.9169093933957939</v>
+        <v>0.422564315355863</v>
       </c>
       <c r="C149">
-        <v>0.01302976506404549</v>
+        <v>0.00563414841043579</v>
       </c>
       <c r="D149">
-        <v>0.1650436908112429</v>
+        <v>0.0486929486463074</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>0.5076875599226962</v>
+        <v>0.175608771530157</v>
       </c>
       <c r="B150">
-        <v>0.9213589050448932</v>
+        <v>0.445990530870239</v>
       </c>
       <c r="C150">
-        <v>0.01309299496642743</v>
+        <v>0.00594649559666634</v>
       </c>
       <c r="D150">
-        <v>0.1658446029080808</v>
+        <v>0.0513923992803682</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>0.5043363038470329</v>
+        <v>0.254375458816902</v>
       </c>
       <c r="B151">
-        <v>0.9152769958705411</v>
+        <v>0.64603291128102</v>
       </c>
       <c r="C151">
-        <v>0.01300656783605506</v>
+        <v>0.00861370723440729</v>
       </c>
       <c r="D151">
-        <v>0.1647498592566974</v>
+        <v>0.0744436911250763</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>0.2845093223715415</v>
+        <v>0.389585646583502</v>
       </c>
       <c r="B152">
-        <v>0.5163317331927976</v>
+        <v>0.989423864339053</v>
       </c>
       <c r="C152">
-        <v>0.007337345682213439</v>
+        <v>0.0131922187698658</v>
       </c>
       <c r="D152">
-        <v>0.09293971197470355</v>
+        <v>0.11401333161585</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>0.277633619068323</v>
+        <v>1.01373015279791</v>
       </c>
       <c r="B153">
-        <v>0.5038536049758454</v>
+        <v>2.57455276901056</v>
       </c>
       <c r="C153">
-        <v>0.007160024912814645</v>
+        <v>0.0343271115519732</v>
       </c>
       <c r="D153">
-        <v>0.09069364889565217</v>
+        <v>0.296670971052218</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>0.2873973613382269</v>
+        <v>1.77922445745582</v>
       </c>
       <c r="B154">
-        <v>0.5215729890953007</v>
+        <v>4.51866528877669</v>
       </c>
       <c r="C154">
-        <v>0.007411826687143747</v>
+        <v>0.0602484164632131</v>
       </c>
       <c r="D154">
-        <v>0.09388313803715412</v>
+        <v>0.520695025255408</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>0.1858883596329758</v>
+        <v>1.92053766235665</v>
       </c>
       <c r="B155">
-        <v>0.3373529489635486</v>
+        <v>4.87755596788991</v>
       </c>
       <c r="C155">
-        <v>0.004793962958955691</v>
+        <v>0.0650335894552654</v>
       </c>
       <c r="D155">
-        <v>0.06072353081343874</v>
+        <v>0.562050730819379</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>0.183273608351214</v>
+        <v>1.8978602027676</v>
       </c>
       <c r="B156">
-        <v>0.3326076596003513</v>
+        <v>4.81996241972723</v>
       </c>
       <c r="C156">
-        <v>0.00472652989958394</v>
+        <v>0.0642656812669962</v>
       </c>
       <c r="D156">
-        <v>0.05986937872806323</v>
+        <v>0.555414108697887</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>0.1816969005872388</v>
+        <v>1.87143353053658</v>
       </c>
       <c r="B157">
-        <v>0.3297462269916557</v>
+        <v>4.7528470616802</v>
       </c>
       <c r="C157">
-        <v>0.004685867436197212</v>
+        <v>0.0633708165703925</v>
       </c>
       <c r="D157">
-        <v>0.05935432085849802</v>
+        <v>0.547680268986386</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>0.186220689282891</v>
+        <v>1.67550236143146</v>
       </c>
       <c r="B158">
-        <v>0.3379560657356169</v>
+        <v>4.25524409252433</v>
       </c>
       <c r="C158">
-        <v>0.004802533565716661</v>
+        <v>0.0567361603161448</v>
       </c>
       <c r="D158">
-        <v>0.06083209183241105</v>
+        <v>0.490340463085001</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>0.1815631193224167</v>
+        <v>1.33083234380616</v>
       </c>
       <c r="B159">
-        <v>0.3295034387703117</v>
+        <v>3.37989166680929</v>
       </c>
       <c r="C159">
-        <v>0.00468241728778864</v>
+        <v>0.0450648825989052</v>
       </c>
       <c r="D159">
-        <v>0.05931061897865611</v>
+        <v>0.389471816197798</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>0.5068266527092578</v>
+        <v>1.32792971655284</v>
       </c>
       <c r="B160">
-        <v>0.9197965178797639</v>
+        <v>3.37251991505484</v>
       </c>
       <c r="C160">
-        <v>0.01307079262250191</v>
+        <v>0.044966593316256</v>
       </c>
       <c r="D160">
-        <v>0.1655633732183575</v>
+        <v>0.388622354195048</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>0.5085898756228657</v>
+        <v>1.37434997528431</v>
       </c>
       <c r="B161">
-        <v>0.9229964409452007</v>
+        <v>3.49041263564268</v>
       </c>
       <c r="C161">
-        <v>0.0131162652134318</v>
+        <v>0.0465384844110887</v>
       </c>
       <c r="D161">
-        <v>0.1661393593701361</v>
+        <v>0.402207373044836</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>0.5024911487566885</v>
+        <v>1.15960643443684</v>
       </c>
       <c r="B162">
-        <v>0.9119283810769533</v>
+        <v>2.94503221444276</v>
       </c>
       <c r="C162">
-        <v>0.01295898225740934</v>
+        <v>0.0392668002637923</v>
       </c>
       <c r="D162">
-        <v>0.1641471085938516</v>
+        <v>0.339362073815475</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>0.2841455772332016</v>
+        <v>0.864344957846146</v>
       </c>
       <c r="B163">
-        <v>0.5156716031269213</v>
+        <v>2.1951617977045</v>
       </c>
       <c r="C163">
-        <v>0.007327964886540461</v>
+        <v>0.0292686033906354</v>
       </c>
       <c r="D163">
-        <v>0.09282088856284583</v>
+        <v>0.252952974971264</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>0.2836113265612649</v>
+        <v>0.675703698353742</v>
       </c>
       <c r="B164">
-        <v>0.5147020370926659</v>
+        <v>1.71607288470792</v>
       </c>
       <c r="C164">
-        <v>0.00731418684289578</v>
+        <v>0.0228807993581441</v>
       </c>
       <c r="D164">
-        <v>0.09264636667667986</v>
+        <v>0.197746581554177</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>0.2840987558723884</v>
+        <v>0.540691124083803</v>
       </c>
       <c r="B165">
-        <v>0.5155866310276678</v>
+        <v>1.37318380719696</v>
       </c>
       <c r="C165">
-        <v>0.007326757388287912</v>
+        <v>0.0183089794462162</v>
       </c>
       <c r="D165">
-        <v>0.09280559358498021</v>
+        <v>0.15823477320718</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>0.2822832779051385</v>
+        <v>0.430724552089982</v>
       </c>
       <c r="B166">
-        <v>0.5122918747167327</v>
+        <v>1.09390362435551</v>
       </c>
       <c r="C166">
-        <v>0.007279937167027254</v>
+        <v>0.014585271738202</v>
       </c>
       <c r="D166">
-        <v>0.09221253744901188</v>
+        <v>0.126052747638889</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>0.1856800784839074</v>
+        <v>0.366461214772987</v>
       </c>
       <c r="B167">
-        <v>0.3369749572485727</v>
+        <v>0.930695148629809</v>
       </c>
       <c r="C167">
-        <v>0.004788591497742875</v>
+        <v>0.0124091751283754</v>
       </c>
       <c r="D167">
-        <v>0.06065549230474308</v>
+        <v>0.10724590182073</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>0.1821550483314512</v>
+        <v>0.290087853081707</v>
       </c>
       <c r="B168">
-        <v>0.3305776803052262</v>
+        <v>0.736731055445605</v>
       </c>
       <c r="C168">
-        <v>0.004697682825390057</v>
+        <v>0.00982300670955115</v>
       </c>
       <c r="D168">
-        <v>0.05950398245494071</v>
+        <v>0.084895023420853</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>0.1849727719819311</v>
+        <v>0.223608859710997</v>
       </c>
       <c r="B169">
-        <v>0.3356913269301712</v>
+        <v>0.567895516726342</v>
       </c>
       <c r="C169">
-        <v>0.004770350435323485</v>
+        <v>0.00757188315857379</v>
       </c>
       <c r="D169">
-        <v>0.06042443884743081</v>
+        <v>0.0654397596473246</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>0.3741420463509315</v>
+        <v>0.143976760478483</v>
       </c>
       <c r="B170">
-        <v>0.6789985285628016</v>
+        <v>0.36565526470726</v>
       </c>
       <c r="C170">
-        <v>0.009648926458524023</v>
+        <v>0.00487536678690655</v>
       </c>
       <c r="D170">
-        <v>0.1222197351413043</v>
+        <v>0.0421352025706387</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>0.3795664696329758</v>
+        <v>0.139933201931697</v>
       </c>
       <c r="B171">
-        <v>0.6888428522968819</v>
+        <v>0.355385909667803</v>
       </c>
       <c r="C171">
-        <v>0.009788819480008324</v>
+        <v>0.00473844308495356</v>
       </c>
       <c r="D171">
-        <v>0.1239917134134387</v>
+        <v>0.0409518438264298</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>0.3756274430928855</v>
+        <v>0.139905877117714</v>
       </c>
       <c r="B172">
-        <v>0.6816942485759775</v>
+        <v>0.355316513314829</v>
       </c>
       <c r="C172">
-        <v>0.009687234058711259</v>
+        <v>0.00473751780722047</v>
       </c>
       <c r="D172">
-        <v>0.1227049647436759</v>
+        <v>0.0409438471430167</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>0.6974988427953674</v>
+        <v>0.148568377581344</v>
       </c>
       <c r="B173">
-        <v>1.265831233221222</v>
+        <v>0.377316514492302</v>
       </c>
       <c r="C173">
-        <v>0.01798812805103842</v>
+        <v>0.00503084894560412</v>
       </c>
       <c r="D173">
-        <v>0.22784962197982</v>
+        <v>0.0434789521876801</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>0.6967448190263101</v>
+        <v>0.201470697816394</v>
       </c>
       <c r="B174">
-        <v>1.264462819714415</v>
+        <v>0.511671613501953</v>
       </c>
       <c r="C174">
-        <v>0.01796868217488905</v>
+        <v>0.00682223676518771</v>
       </c>
       <c r="D174">
-        <v>0.2276033075485946</v>
+        <v>0.0589609645079515</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>0.6923637480424024</v>
+        <v>0.311029213752461</v>
       </c>
       <c r="B175">
-        <v>1.256511987188063</v>
+        <v>0.789915463498313</v>
       </c>
       <c r="C175">
-        <v>0.0178556966600409</v>
+        <v>0.010532126806069</v>
       </c>
       <c r="D175">
-        <v>0.2261721576938514</v>
+        <v>0.0910235713270193</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>0.5775445980321853</v>
+        <v>0.725197081849067</v>
       </c>
       <c r="B176">
-        <v>1.048136492725077</v>
+        <v>1.8417703666008</v>
       </c>
       <c r="C176">
-        <v>0.01489457121240899</v>
+        <v>0.02455675315279</v>
       </c>
       <c r="D176">
-        <v>0.1886645686905138</v>
+        <v>0.21223095898114</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>0.5783335244297009</v>
+        <v>1.32162187043117</v>
       </c>
       <c r="B177">
-        <v>1.049568248039087</v>
+        <v>3.35649998839662</v>
       </c>
       <c r="C177">
-        <v>0.0149149172089765</v>
+        <v>0.0447529959038936</v>
       </c>
       <c r="D177">
-        <v>0.1889222846470356</v>
+        <v>0.386776345344468</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>0.5756199153303218</v>
+        <v>1.5593459538926</v>
       </c>
       <c r="B178">
-        <v>1.044643550043917</v>
+        <v>3.96024369242564</v>
       </c>
       <c r="C178">
-        <v>0.01484493465851882</v>
+        <v>0.0528028512909986</v>
       </c>
       <c r="D178">
-        <v>0.1880358390079051</v>
+        <v>0.456346964792206</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>0.3755020673969508</v>
+        <v>1.58097656568219</v>
       </c>
       <c r="B179">
-        <v>0.6814667149055774</v>
+        <v>4.01517857951033</v>
       </c>
       <c r="C179">
-        <v>0.009684000685500311</v>
+        <v>0.0535353109320475</v>
       </c>
       <c r="D179">
-        <v>0.1226640086830039</v>
+        <v>0.46267722397051</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>0.3760918728938455</v>
+        <v>1.58236899273709</v>
       </c>
       <c r="B180">
-        <v>0.6825371026592011</v>
+        <v>4.01871490218944</v>
       </c>
       <c r="C180">
-        <v>0.009699211458841278</v>
+        <v>0.0535824615457583</v>
       </c>
       <c r="D180">
-        <v>0.1228566784786562</v>
+        <v>0.46308472165158</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>0.3732574265852625</v>
+        <v>1.46777849331958</v>
       </c>
       <c r="B181">
-        <v>0.6773931075065874</v>
+        <v>3.72769141160528</v>
       </c>
       <c r="C181">
-        <v>0.009626112580356769</v>
+        <v>0.0497021775811898</v>
       </c>
       <c r="D181">
-        <v>0.1219307593511857</v>
+        <v>0.429549490760279</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>0.3778143951581031</v>
+        <v>1.20268791017904</v>
       </c>
       <c r="B182">
-        <v>0.685663161583224</v>
+        <v>3.05444548616898</v>
       </c>
       <c r="C182">
-        <v>0.009743634401445815</v>
+        <v>0.0407256328925195</v>
       </c>
       <c r="D182">
-        <v>0.1234193690849803</v>
+        <v>0.351969988463694</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>0.3761472611688312</v>
+        <v>1.16544520687167</v>
       </c>
       <c r="B183">
-        <v>0.682637622121212</v>
+        <v>2.95986084284868</v>
       </c>
       <c r="C183">
-        <v>0.009700639893301435</v>
+        <v>0.0394645138191639</v>
       </c>
       <c r="D183">
-        <v>0.1228747719818182</v>
+        <v>0.341070806936625</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>0.6971289977643113</v>
+        <v>1.16762435260821</v>
       </c>
       <c r="B184">
-        <v>1.265160032979676</v>
+        <v>2.96539518122721</v>
       </c>
       <c r="C184">
-        <v>0.01797858994234277</v>
+        <v>0.0395383044414315</v>
       </c>
       <c r="D184">
-        <v>0.2277288059363417</v>
+        <v>0.341708540045324</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>0.6972842795895514</v>
+        <v>0.986017821799713</v>
       </c>
       <c r="B185">
-        <v>1.265441840736593</v>
+        <v>2.50417224584054</v>
       </c>
       <c r="C185">
-        <v>0.01798259457888843</v>
+        <v>0.0333887116484932</v>
       </c>
       <c r="D185">
-        <v>0.2277795313325868</v>
+        <v>0.288560879698357</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>0.6983722256426285</v>
+        <v>0.711043611275619</v>
       </c>
       <c r="B186">
-        <v>1.267416261351437</v>
+        <v>1.80582504450951</v>
       </c>
       <c r="C186">
-        <v>0.0180106521349941</v>
+        <v>0.0240774858035045</v>
       </c>
       <c r="D186">
-        <v>0.2281349270432586</v>
+        <v>0.208088906140752</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>0.5749487189440996</v>
+        <v>0.514981054354532</v>
       </c>
       <c r="B187">
-        <v>1.043425452898551</v>
+        <v>1.30788839201151</v>
       </c>
       <c r="C187">
-        <v>0.01482762485697941</v>
+        <v>0.0174383804715582</v>
       </c>
       <c r="D187">
-        <v>0.1878165815217392</v>
+        <v>0.1507106492267</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>0.5710042222783738</v>
+        <v>0.431753429226596</v>
       </c>
       <c r="B188">
-        <v>1.036266921912604</v>
+        <v>1.09651664565485</v>
       </c>
       <c r="C188">
-        <v>0.01472589836402122</v>
+        <v>0.0146201117596262</v>
       </c>
       <c r="D188">
-        <v>0.1865280459442688</v>
+        <v>0.126353851417217</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>0.5696914649915303</v>
+        <v>0.372122071874086</v>
       </c>
       <c r="B189">
-        <v>1.033884510540185</v>
+        <v>0.945071928569107</v>
       </c>
       <c r="C189">
-        <v>0.01469204304451841</v>
+        <v>0.0126008640829288</v>
       </c>
       <c r="D189">
-        <v>0.1860992118972332</v>
+        <v>0.108902567520705</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>0.5797604933596839</v>
+        <v>0.324667256506608</v>
       </c>
       <c r="B190">
-        <v>1.0521579323935</v>
+        <v>0.824551762556464</v>
       </c>
       <c r="C190">
-        <v>0.01495171798664448</v>
+        <v>0.0109939406464485</v>
       </c>
       <c r="D190">
-        <v>0.1893884278308301</v>
+        <v>0.0950147827711668</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>0.3794022513608131</v>
+        <v>0.268365495152715</v>
       </c>
       <c r="B191">
-        <v>0.6885448265436978</v>
+        <v>0.681563162292609</v>
       </c>
       <c r="C191">
-        <v>0.009784584377199916</v>
+        <v>0.00908744034433813</v>
       </c>
       <c r="D191">
-        <v>0.1239380687778656</v>
+        <v>0.078537914477658</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>0.3761950401919819</v>
+        <v>0.209365526332931</v>
       </c>
       <c r="B192">
-        <v>0.6827243322002634</v>
+        <v>0.531721971639189</v>
       </c>
       <c r="C192">
-        <v>0.009701872089161638</v>
+        <v>0.0070895728589429</v>
       </c>
       <c r="D192">
-        <v>0.1228903797960474</v>
+        <v>0.0612714082052483</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>0.3756873438311686</v>
+        <v>0.1637506156268</v>
       </c>
       <c r="B193">
-        <v>0.6818029573232318</v>
+        <v>0.41587457936965</v>
       </c>
       <c r="C193">
-        <v>0.009688778867224874</v>
+        <v>0.0055449526028314</v>
       </c>
       <c r="D193">
-        <v>0.1227245323181817</v>
+        <v>0.0479220767127422</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>0.3784868406691135</v>
+        <v>0.145155754724882</v>
       </c>
       <c r="B194">
-        <v>0.6868835256587614</v>
+        <v>0.368649535809223</v>
       </c>
       <c r="C194">
-        <v>0.009760976417256085</v>
+        <v>0.0049152901007229</v>
       </c>
       <c r="D194">
-        <v>0.1236390346185771</v>
+        <v>0.0424802385419753</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>0.3822932361801241</v>
+        <v>0.140803841836266</v>
       </c>
       <c r="B195">
-        <v>0.6937914286231882</v>
+        <v>0.357597058631786</v>
       </c>
       <c r="C195">
-        <v>0.009859141354118991</v>
+        <v>0.00476792484895478</v>
       </c>
       <c r="D195">
-        <v>0.1248824571521739</v>
+        <v>0.0412066390352062</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>0.384826851602202</v>
+        <v>0.140680329250051</v>
       </c>
       <c r="B196">
-        <v>0.6983894714262183</v>
+        <v>0.357283375873146</v>
       </c>
       <c r="C196">
-        <v>0.009924481962372578</v>
+        <v>0.00476374244369304</v>
       </c>
       <c r="D196">
-        <v>0.1257101048567193</v>
+        <v>0.0411704927306022</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>0.7003838109969481</v>
+        <v>0.149130007516151</v>
       </c>
       <c r="B197">
-        <v>1.271066916253721</v>
+        <v>0.378742876231496</v>
       </c>
       <c r="C197">
-        <v>0.01806252986255287</v>
+        <v>0.0050498669588001</v>
       </c>
       <c r="D197">
-        <v>0.2287920449256697</v>
+        <v>0.0436433147625443</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>0.7051347270119115</v>
+        <v>0.19707758454738</v>
       </c>
       <c r="B198">
-        <v>1.279688949021617</v>
+        <v>0.500514500437791</v>
       </c>
       <c r="C198">
-        <v>0.01818505348609666</v>
+        <v>0.00667347637877751</v>
       </c>
       <c r="D198">
-        <v>0.2303440108238911</v>
+        <v>0.0576753075943601</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>0.7006839340460729</v>
+        <v>0.308356358328853</v>
       </c>
       <c r="B199">
-        <v>1.271611584009539</v>
+        <v>0.783127259247882</v>
       </c>
       <c r="C199">
-        <v>0.0180702698780303</v>
+        <v>0.0104416180981695</v>
       </c>
       <c r="D199">
-        <v>0.2288900851217171</v>
+        <v>0.0902413526943632</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>0.5793368006408806</v>
+        <v>0.696439444091603</v>
       </c>
       <c r="B200">
-        <v>1.051389008570487</v>
+        <v>1.76873509610566</v>
       </c>
       <c r="C200">
-        <v>0.01494079117442271</v>
+        <v>0.0235829568850682</v>
       </c>
       <c r="D200">
-        <v>0.1892500215426876</v>
+        <v>0.203814955673822</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>0.58148774147939</v>
+        <v>1.25587191199441</v>
       </c>
       <c r="B201">
-        <v>1.055292567870004</v>
+        <v>3.18951596696993</v>
       </c>
       <c r="C201">
-        <v>0.01499626280657374</v>
+        <v>0.0425265590641026</v>
       </c>
       <c r="D201">
-        <v>0.1899526622166007</v>
+        <v>0.367534435688097</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>0.5888840279474872</v>
+        <v>1.48934780612889</v>
       </c>
       <c r="B202">
-        <v>1.068715458126921</v>
+        <v>3.78247061874003</v>
       </c>
       <c r="C202">
-        <v>0.01518700914180362</v>
+        <v>0.0504325615052164</v>
       </c>
       <c r="D202">
-        <v>0.1923687824628458</v>
+        <v>0.435861810620161</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>0.3808987965415019</v>
+        <v>1.5112499618528</v>
       </c>
       <c r="B203">
-        <v>0.6912607789086517</v>
+        <v>3.83809514121346</v>
       </c>
       <c r="C203">
-        <v>0.009823179489754523</v>
+        <v>0.0511742162154845</v>
       </c>
       <c r="D203">
-        <v>0.1244269402035573</v>
+        <v>0.442271537892074</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>0.3781598197995483</v>
+        <v>1.51220631978961</v>
       </c>
       <c r="B204">
-        <v>0.6862900433399209</v>
+        <v>3.84052398676726</v>
       </c>
       <c r="C204">
-        <v>0.009752542721146245</v>
+        <v>0.0512066005788083</v>
       </c>
       <c r="D204">
-        <v>0.1235322078011858</v>
+        <v>0.442551418723283</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>0.3794564009203841</v>
+        <v>1.40056342945653</v>
       </c>
       <c r="B205">
-        <v>0.6886430979666229</v>
+        <v>3.55698648750864</v>
       </c>
       <c r="C205">
-        <v>0.009785980865841483</v>
+        <v>0.0474261290796908</v>
       </c>
       <c r="D205">
-        <v>0.1239557576339921</v>
+        <v>0.409878813893707</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>0.3807524511631846</v>
+        <v>1.15235088351526</v>
       </c>
       <c r="B206">
-        <v>0.6909951891480016</v>
+        <v>2.92660541845144</v>
       </c>
       <c r="C206">
-        <v>0.009819405319471603</v>
+        <v>0.039021111502174</v>
       </c>
       <c r="D206">
-        <v>0.1243791340466403</v>
+        <v>0.337238716498458</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>0.382779343500847</v>
+        <v>1.11515605975821</v>
       </c>
       <c r="B207">
-        <v>0.6946736233904259</v>
+        <v>2.8321423739891</v>
       </c>
       <c r="C207">
-        <v>0.009871677806074475</v>
+        <v>0.0377616137347058</v>
       </c>
       <c r="D207">
-        <v>0.1250412522102767</v>
+        <v>0.326353547056015</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>0.6981450098436454</v>
+        <v>1.10952565796801</v>
       </c>
       <c r="B208">
-        <v>1.267003906753282</v>
+        <v>2.81784294087114</v>
       </c>
       <c r="C208">
-        <v>0.01800479235912559</v>
+        <v>0.0375709560633314</v>
       </c>
       <c r="D208">
-        <v>0.2280607032155908</v>
+        <v>0.324705794188153</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>0.7020648362948029</v>
+        <v>0.937275596616384</v>
       </c>
       <c r="B209">
-        <v>1.274117665868346</v>
+        <v>2.38038246759716</v>
       </c>
       <c r="C209">
-        <v>0.01810588262023439</v>
+        <v>0.0317381937108137</v>
       </c>
       <c r="D209">
-        <v>0.2293411798563023</v>
+        <v>0.274296330857156</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>0.7000497117535827</v>
+        <v>0.684023118151757</v>
       </c>
       <c r="B210">
-        <v>1.270460587997242</v>
+        <v>1.73720156990923</v>
       </c>
       <c r="C210">
-        <v>0.01805391361890818</v>
+        <v>0.0231625130377323</v>
       </c>
       <c r="D210">
-        <v>0.2286829058395037</v>
+        <v>0.200181283080275</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>0.5806938081733485</v>
+        <v>0.504041546076957</v>
       </c>
       <c r="B211">
-        <v>1.053851725944225</v>
+        <v>1.28010551384624</v>
       </c>
       <c r="C211">
-        <v>0.01497578768447057</v>
+        <v>0.0170679448877576</v>
       </c>
       <c r="D211">
-        <v>0.1896933106699605</v>
+        <v>0.147509171462046</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>0.5759800067786561</v>
+        <v>0.425807256880676</v>
       </c>
       <c r="B212">
-        <v>1.045297049339043</v>
+        <v>1.08141525556997</v>
       </c>
       <c r="C212">
-        <v>0.01485422122744955</v>
+        <v>0.0144187614092767</v>
       </c>
       <c r="D212">
-        <v>0.1881534688810277</v>
+        <v>0.124613687411008</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>0.5836944349209489</v>
+        <v>0.368712583772269</v>
       </c>
       <c r="B213">
-        <v>1.0592973078195</v>
+        <v>0.936412911167667</v>
       </c>
       <c r="C213">
-        <v>0.01505317226901394</v>
+        <v>0.0124854113876695</v>
       </c>
       <c r="D213">
-        <v>0.1906735154075099</v>
+        <v>0.107904771269735</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>0.5842132589017506</v>
+        <v>0.323335423589791</v>
       </c>
       <c r="B214">
-        <v>1.06023887726614</v>
+        <v>0.82116932975185</v>
       </c>
       <c r="C214">
-        <v>0.01506655246641357</v>
+        <v>0.0109488418822676</v>
       </c>
       <c r="D214">
-        <v>0.1908429979079052</v>
+        <v>0.0946250181344725</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>0.383457628670243</v>
+        <v>0.268562751291785</v>
       </c>
       <c r="B215">
-        <v>0.695904585364515</v>
+        <v>0.682064130264851</v>
       </c>
       <c r="C215">
-        <v>0.009889170423601004</v>
+        <v>0.00909411986696206</v>
       </c>
       <c r="D215">
-        <v>0.1252628253656127</v>
+        <v>0.0785956420397341</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>0.3796627355166572</v>
+        <v>0.209597858497513</v>
       </c>
       <c r="B216">
-        <v>0.6890175570487483</v>
+        <v>0.532312021580985</v>
       </c>
       <c r="C216">
-        <v>0.009791302126482214</v>
+        <v>0.00709744013220957</v>
       </c>
       <c r="D216">
-        <v>0.1240231602687747</v>
+        <v>0.0613394008645206</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>0.3743719165400903</v>
+        <v>0.163466894561835</v>
       </c>
       <c r="B217">
-        <v>0.6794157003875713</v>
+        <v>0.41515401793482</v>
       </c>
       <c r="C217">
-        <v>0.009654854689718119</v>
+        <v>0.0055353451894386</v>
       </c>
       <c r="D217">
-        <v>0.1222948260697628</v>
+        <v>0.0478390449477122</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>0.389705797703275</v>
+        <v>0.144248951146178</v>
       </c>
       <c r="B218">
-        <v>0.7072438550911287</v>
+        <v>0.366346542593468</v>
       </c>
       <c r="C218">
-        <v>0.01005030741445288</v>
+        <v>0.00488458375592693</v>
       </c>
       <c r="D218">
-        <v>0.1273038939164032</v>
+        <v>0.042214859932584</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>0.3948994659994354</v>
+        <v>0.139748512058567</v>
       </c>
       <c r="B219">
-        <v>0.7166694012582346</v>
+        <v>0.354916856021756</v>
       </c>
       <c r="C219">
-        <v>0.01018424938630123</v>
+        <v>0.00473218908347202</v>
       </c>
       <c r="D219">
-        <v>0.1290004922264822</v>
+        <v>0.0408977938173086</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>0.3893247157538114</v>
+        <v>0.139527290974161</v>
       </c>
       <c r="B220">
-        <v>0.7065522619235836</v>
+        <v>0.354355024696282</v>
       </c>
       <c r="C220">
-        <v>0.01004047951154566</v>
+        <v>0.00472469805558745</v>
       </c>
       <c r="D220">
-        <v>0.127179407146245</v>
+        <v>0.0408330528467982</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>0.7135403843792183</v>
+        <v>0.147894976151239</v>
       </c>
       <c r="B221">
-        <v>1.294943660540063</v>
+        <v>0.375606288638067</v>
       </c>
       <c r="C221">
-        <v>0.01840183096556931</v>
+        <v>0.00500804610606476</v>
       </c>
       <c r="D221">
-        <v>0.2330898588972113</v>
+        <v>0.043281879371383</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>0.7113324626316178</v>
+        <v>0.197730150187492</v>
       </c>
       <c r="B222">
-        <v>1.290936691442566</v>
+        <v>0.502171809999979</v>
       </c>
       <c r="C222">
-        <v>0.01834488982576277</v>
+        <v>0.00669557367307349</v>
       </c>
       <c r="D222">
-        <v>0.2323686044596618</v>
+        <v>0.0578662827583056</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>0.7146735435449434</v>
+        <v>0.303060702646383</v>
       </c>
       <c r="B223">
-        <v>1.297000134581564</v>
+        <v>0.76967797497494</v>
       </c>
       <c r="C223">
-        <v>0.0184310545440538</v>
+        <v>0.0102622956593022</v>
       </c>
       <c r="D223">
-        <v>0.2334600242246815</v>
+        <v>0.0886915642133353</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>0.6076239393083006</v>
+        <v>0.68784079604619</v>
       </c>
       <c r="B224">
-        <v>1.102724926892842</v>
+        <v>1.74689725979985</v>
       </c>
       <c r="C224">
-        <v>0.01567030159268775</v>
+        <v>0.0232917879286784</v>
       </c>
       <c r="D224">
-        <v>0.1984904868407115</v>
+        <v>0.201298537218351</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>0.6028652110587238</v>
+        <v>1.24118203855242</v>
       </c>
       <c r="B225">
-        <v>1.094088716365832</v>
+        <v>3.15220835187917</v>
       </c>
       <c r="C225">
-        <v>0.01554757649572498</v>
+        <v>0.0420291279450462</v>
       </c>
       <c r="D225">
-        <v>0.1969359689458497</v>
+        <v>0.363235403044508</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>0.6044689103274984</v>
+        <v>1.46444599429513</v>
       </c>
       <c r="B226">
-        <v>1.096999133557312</v>
+        <v>3.71922792201938</v>
       </c>
       <c r="C226">
-        <v>0.01558893505581443</v>
+        <v>0.0495893319038236</v>
       </c>
       <c r="D226">
-        <v>0.1974598440403161</v>
+        <v>0.428574225578628</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>0.3946345578599663</v>
+        <v>1.48705365993414</v>
       </c>
       <c r="B227">
-        <v>0.716188642042161</v>
+        <v>3.77664421570576</v>
       </c>
       <c r="C227">
-        <v>0.01017741754480966</v>
+        <v>0.0503548767168867</v>
       </c>
       <c r="D227">
-        <v>0.128913955567589</v>
+        <v>0.435190422304984</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>0.3947038374435347</v>
+        <v>1.4908957760724</v>
       </c>
       <c r="B228">
-        <v>0.716314371656785</v>
+        <v>3.78640197097751</v>
       </c>
       <c r="C228">
-        <v>0.01017920422880695</v>
+        <v>0.0504849791400112</v>
       </c>
       <c r="D228">
-        <v>0.1289365868982213</v>
+        <v>0.436314828363623</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>0.3939176070736873</v>
+        <v>1.38548460737634</v>
       </c>
       <c r="B229">
-        <v>0.7148875091337287</v>
+        <v>3.51869106635261</v>
       </c>
       <c r="C229">
-        <v>0.01015892776137404</v>
+        <v>0.0469155273123563</v>
       </c>
       <c r="D229">
-        <v>0.1286797516440712</v>
+        <v>0.405465954340792</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>0.3896419153797289</v>
+        <v>1.13971419699627</v>
       </c>
       <c r="B230">
-        <v>0.7071279205039525</v>
+        <v>2.89451224633974</v>
       </c>
       <c r="C230">
-        <v>0.0100486599229509</v>
+        <v>0.0385932057655367</v>
       </c>
       <c r="D230">
-        <v>0.1272830256907114</v>
+        <v>0.333540554763679</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>0.3955159038777527</v>
+        <v>1.10181871010153</v>
       </c>
       <c r="B231">
-        <v>0.7177881218522179</v>
+        <v>2.79826973994041</v>
       </c>
       <c r="C231">
-        <v>0.01020014699474204</v>
+        <v>0.0373099820177161</v>
       </c>
       <c r="D231">
-        <v>0.1292018619333992</v>
+        <v>0.32245033428979</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>0.7192650191900595</v>
+        <v>1.10169850971986</v>
       </c>
       <c r="B232">
-        <v>1.305332812604182</v>
+        <v>2.7979644691298</v>
       </c>
       <c r="C232">
-        <v>0.01854946628437522</v>
+        <v>0.0373059117709162</v>
       </c>
       <c r="D232">
-        <v>0.2349599062687527</v>
+        <v>0.322415157311129</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>0.7151258516307714</v>
+        <v>0.932845051509893</v>
       </c>
       <c r="B233">
-        <v>1.297820989996585</v>
+        <v>2.36913028954894</v>
       </c>
       <c r="C233">
-        <v>0.01844271933153042</v>
+        <v>0.0315881658008352</v>
       </c>
       <c r="D233">
-        <v>0.2336077781993853</v>
+        <v>0.272999719411392</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>0.7068637082922616</v>
+        <v>0.678868736610515</v>
       </c>
       <c r="B234">
-        <v>1.282826729863734</v>
+        <v>1.72411107710607</v>
       </c>
       <c r="C234">
-        <v>0.01822964300332675</v>
+        <v>0.022987974449076</v>
       </c>
       <c r="D234">
-        <v>0.2309088113754721</v>
+        <v>0.198672838872717</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>0.6027652082100508</v>
+        <v>0.496812877002934</v>
       </c>
       <c r="B235">
-        <v>1.093907229714536</v>
+        <v>1.2617469892138</v>
       </c>
       <c r="C235">
-        <v>0.01554499747489078</v>
+        <v>0.016823166404064</v>
       </c>
       <c r="D235">
-        <v>0.1969033013486166</v>
+        <v>0.145393681193076</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>0.6104501361885942</v>
+        <v>0.419615202085334</v>
       </c>
       <c r="B236">
-        <v>1.107853950860782</v>
+        <v>1.06568940212148</v>
       </c>
       <c r="C236">
-        <v>0.01574318772275848</v>
+        <v>0.0142090849434944</v>
       </c>
       <c r="D236">
-        <v>0.1994137111549408</v>
+        <v>0.122801565216682</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>0.6017635558610955</v>
+        <v>0.366086163745133</v>
       </c>
       <c r="B237">
-        <v>1.092089416192358</v>
+        <v>0.929742638082878</v>
       </c>
       <c r="C237">
-        <v>0.01551916538799667</v>
+        <v>0.0123964750834617</v>
       </c>
       <c r="D237">
-        <v>0.1965760949146245</v>
+        <v>0.10713614208603</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>0.5972262141614907</v>
+        <v>0.323143239719303</v>
       </c>
       <c r="B238">
-        <v>1.083854981256039</v>
+        <v>0.820681243731563</v>
       </c>
       <c r="C238">
-        <v>0.01540214973363844</v>
+        <v>0.0109423341177086</v>
       </c>
       <c r="D238">
-        <v>0.1950938966260869</v>
+        <v>0.0945687749860164</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>0.3954160103274988</v>
+        <v>0.268728904953919</v>
       </c>
       <c r="B239">
-        <v>0.7176068335573127</v>
+        <v>0.682486107819476</v>
       </c>
       <c r="C239">
-        <v>0.01019757079265655</v>
+        <v>0.00909974619195505</v>
       </c>
       <c r="D239">
-        <v>0.1291692300403163</v>
+        <v>0.0786442673747436</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>0.3910273300917558</v>
+        <v>0.208298266960275</v>
       </c>
       <c r="B240">
-        <v>0.7096421916480012</v>
+        <v>0.529011471645143</v>
       </c>
       <c r="C240">
-        <v>0.01008438903920844</v>
+        <v>0.00705343313138432</v>
       </c>
       <c r="D240">
-        <v>0.1277355944966402</v>
+        <v>0.0609590717579438</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>0.3971816221922642</v>
+        <v>0.161726418161849</v>
       </c>
       <c r="B241">
-        <v>0.7208110921267016</v>
+        <v>0.410733760411045</v>
       </c>
       <c r="C241">
-        <v>0.01024310499337944</v>
+        <v>0.00547640886662034</v>
       </c>
       <c r="D241">
-        <v>0.1297459965828063</v>
+        <v>0.0473296896500995</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>0.3665497826129306</v>
+        <v>0.143700811208962</v>
       </c>
       <c r="B242">
-        <v>0.6652199758530962</v>
+        <v>0.364954441165617</v>
       </c>
       <c r="C242">
-        <v>0.009453125972649263</v>
+        <v>0.00486602254343958</v>
       </c>
       <c r="D242">
-        <v>0.1197395956535573</v>
+        <v>0.042054445243332</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>0.3682255876101073</v>
+        <v>0.139363553299481</v>
       </c>
       <c r="B243">
-        <v>0.6682612515887133</v>
+        <v>0.35393918298281</v>
       </c>
       <c r="C243">
-        <v>0.009496344101523821</v>
+        <v>0.00471915354119329</v>
       </c>
       <c r="D243">
-        <v>0.1202870252859684</v>
+        <v>0.0407851345572899</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>0.3594824687718801</v>
+        <v>0.139200898605452</v>
       </c>
       <c r="B244">
-        <v>0.6523941099934121</v>
+        <v>0.353526091696387</v>
       </c>
       <c r="C244">
-        <v>0.009270863668327436</v>
+        <v>0.0047136456988834</v>
       </c>
       <c r="D244">
-        <v>0.1174309397988142</v>
+        <v>0.040737533205105</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>0.6866546856539217</v>
+        <v>0.148569422157344</v>
       </c>
       <c r="B245">
-        <v>1.246151096186747</v>
+        <v>0.37731916738373</v>
       </c>
       <c r="C245">
-        <v>0.01770846294581166</v>
+        <v>0.00503088431722326</v>
       </c>
       <c r="D245">
-        <v>0.2243071973136144</v>
+        <v>0.0434792578857748</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>0.6841277062072817</v>
+        <v>0.200192383763889</v>
       </c>
       <c r="B246">
-        <v>1.241565096450252</v>
+        <v>0.508425101622576</v>
       </c>
       <c r="C246">
-        <v>0.017643293475872</v>
+        <v>0.00677895026635202</v>
       </c>
       <c r="D246">
-        <v>0.2234817173610453</v>
+        <v>0.05858686231693</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>0.6893060675200992</v>
+        <v>0.314661522740843</v>
       </c>
       <c r="B247">
-        <v>1.250962863277217</v>
+        <v>0.799140375214839</v>
       </c>
       <c r="C247">
-        <v>0.01777684068867624</v>
+        <v>0.0106551247019994</v>
       </c>
       <c r="D247">
-        <v>0.225173315389899</v>
+        <v>0.0920865767350865</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>0.5612473814229249</v>
+        <v>0.723280724659351</v>
       </c>
       <c r="B248">
-        <v>1.018560062582345</v>
+        <v>1.83690342770629</v>
       </c>
       <c r="C248">
-        <v>0.01447427457353859</v>
+        <v>0.0244918611232462</v>
       </c>
       <c r="D248">
-        <v>0.1833408112648221</v>
+        <v>0.211670131677358</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>0.5541287753952567</v>
+        <v>1.3045069636865</v>
       </c>
       <c r="B249">
-        <v>1.005641110902503</v>
+        <v>3.31303355856888</v>
       </c>
       <c r="C249">
-        <v>0.01429068947071978</v>
+        <v>0.0441734478738735</v>
       </c>
       <c r="D249">
-        <v>0.1810153999624505</v>
+        <v>0.381767619906642</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>0.5535110311405986</v>
+        <v>1.53487722131736</v>
       </c>
       <c r="B250">
-        <v>1.004520019477383</v>
+        <v>3.89810087953615</v>
       </c>
       <c r="C250">
-        <v>0.0142747581715207</v>
+        <v>0.0519742866968338</v>
       </c>
       <c r="D250">
-        <v>0.1808136035059289</v>
+        <v>0.44918612160975</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>0.3660070483018069</v>
+        <v>1.55518464631804</v>
       </c>
       <c r="B251">
-        <v>0.6642350135847607</v>
+        <v>3.94967529223629</v>
       </c>
       <c r="C251">
-        <v>0.009439129140415021</v>
+        <v>0.0526619403504295</v>
       </c>
       <c r="D251">
-        <v>0.1195623024452569</v>
+        <v>0.455129146464928</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>0.3634803342941842</v>
+        <v>1.55725699506909</v>
       </c>
       <c r="B252">
-        <v>0.6596494955709269</v>
+        <v>3.95493840017547</v>
       </c>
       <c r="C252">
-        <v>0.009373966516007909</v>
+        <v>0.0527321145940936</v>
       </c>
       <c r="D252">
-        <v>0.1187369092027668</v>
+        <v>0.455735625136434</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>0.3645566895101635</v>
+        <v>1.44388038785792</v>
       </c>
       <c r="B253">
-        <v>0.6616028809628892</v>
+        <v>3.66699781043282</v>
       </c>
       <c r="C253">
-        <v>0.009401725150525267</v>
+        <v>0.0488929356642962</v>
       </c>
       <c r="D253">
-        <v>0.1190885185733201</v>
+        <v>0.422555643202278</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>0.3626236741050254</v>
+        <v>1.18720577494484</v>
       </c>
       <c r="B254">
-        <v>0.6580948159683794</v>
+        <v>3.01512577763768</v>
       </c>
       <c r="C254">
-        <v>0.009351873700603286</v>
+        <v>0.0402013740631059</v>
       </c>
       <c r="D254">
-        <v>0.1184570668743083</v>
+        <v>0.34743909818563</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>0.3620704107128739</v>
+        <v>1.15353970458884</v>
       </c>
       <c r="B255">
-        <v>0.6570907453678081</v>
+        <v>2.92962464657482</v>
       </c>
       <c r="C255">
-        <v>0.009337605328910958</v>
+        <v>0.0390613675737681</v>
       </c>
       <c r="D255">
-        <v>0.1182763341662054</v>
+        <v>0.337586628318318</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>0.6848271380184051</v>
+        <v>1.15104935419585</v>
       </c>
       <c r="B256">
-        <v>1.242834435663031</v>
+        <v>2.92329994716406</v>
       </c>
       <c r="C256">
-        <v>0.01766133145415887</v>
+        <v>0.0389770388838226</v>
       </c>
       <c r="D256">
-        <v>0.2237101984193456</v>
+        <v>0.336857820294497</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>0.6894774526457341</v>
+        <v>0.967518590451953</v>
       </c>
       <c r="B257">
-        <v>1.251273895542258</v>
+        <v>2.45719007098909</v>
       </c>
       <c r="C257">
-        <v>0.01778126062086367</v>
+        <v>0.0327622873714333</v>
       </c>
       <c r="D257">
-        <v>0.2252293011976065</v>
+        <v>0.283147027784697</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>0.6811086913018606</v>
+        <v>0.697324532466487</v>
       </c>
       <c r="B258">
-        <v>1.236086143473747</v>
+        <v>1.77098293959743</v>
       </c>
       <c r="C258">
-        <v>0.0175654346704164</v>
+        <v>0.0236129279057527</v>
       </c>
       <c r="D258">
-        <v>0.2224955058252744</v>
+        <v>0.204073979267941</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>0.563049868492377</v>
+        <v>0.504793869550883</v>
       </c>
       <c r="B259">
-        <v>1.021831242819499</v>
+        <v>1.28201617663716</v>
       </c>
       <c r="C259">
-        <v>0.01452075976638235</v>
+        <v>0.0170934201996454</v>
       </c>
       <c r="D259">
-        <v>0.1839296237075098</v>
+        <v>0.147729341035713</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>0.5529298237859966</v>
+        <v>0.423117979235904</v>
       </c>
       <c r="B260">
-        <v>1.003465235759772</v>
+        <v>1.07458534409118</v>
       </c>
       <c r="C260">
-        <v>0.01425976913974412</v>
+        <v>0.0143276966091901</v>
       </c>
       <c r="D260">
-        <v>0.1806237424367589</v>
+        <v>0.123826662769291</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>0.5616567300254092</v>
+        <v>0.36796119571397</v>
       </c>
       <c r="B261">
-        <v>1.019302954490557</v>
+        <v>0.93450462403548</v>
       </c>
       <c r="C261">
-        <v>0.01448483145855003</v>
+        <v>0.0124599677509928</v>
       </c>
       <c r="D261">
-        <v>0.1834745318083003</v>
+        <v>0.107684875448073</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>0.5592332509768491</v>
+        <v>0.324040946773426</v>
       </c>
       <c r="B262">
-        <v>1.014904788809837</v>
+        <v>0.822961134662669</v>
       </c>
       <c r="C262">
-        <v>0.01442233120940295</v>
+        <v>0.010972732434364</v>
       </c>
       <c r="D262">
-        <v>0.1826828619857707</v>
+        <v>0.0948314914719885</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>0.3671966574985883</v>
+        <v>0.26927461536243</v>
       </c>
       <c r="B263">
-        <v>0.6663939339789193</v>
+        <v>0.683872039015695</v>
       </c>
       <c r="C263">
-        <v>0.009469808535489907</v>
+        <v>0.00911822513530731</v>
       </c>
       <c r="D263">
-        <v>0.1199509081162055</v>
+        <v>0.0788039710556092</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>0.3643552212958778</v>
+        <v>0.214598511917498</v>
       </c>
       <c r="B264">
-        <v>0.6612372534628893</v>
+        <v>0.545012093758726</v>
       </c>
       <c r="C264">
-        <v>0.009396529391314743</v>
+        <v>0.00726677315175804</v>
       </c>
       <c r="D264">
-        <v>0.1190227056233201</v>
+        <v>0.0628028561064388</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>0.3695218148122528</v>
+        <v>0.177016830015396</v>
       </c>
       <c r="B265">
-        <v>0.6706136639185328</v>
+        <v>0.449566552420054</v>
       </c>
       <c r="C265">
-        <v>0.009529773118842309</v>
+        <v>0.00599417552466406</v>
       </c>
       <c r="D265">
-        <v>0.1207104595053359</v>
+        <v>0.051804471543348</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>0.3527637648404854</v>
+        <v>0.151690666728375</v>
       </c>
       <c r="B266">
-        <v>0.6402009065623623</v>
+        <v>0.385246137722858</v>
       </c>
       <c r="C266">
-        <v>0.009097591830096728</v>
+        <v>0.00513657645854418</v>
       </c>
       <c r="D266">
-        <v>0.1152361631812252</v>
+        <v>0.0443926988594142</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>0.3499292300522303</v>
+        <v>0.141852920909244</v>
       </c>
       <c r="B267">
-        <v>0.635056750835529</v>
+        <v>0.360261386436175</v>
       </c>
       <c r="C267">
-        <v>0.009024490669768044</v>
+        <v>0.00480344895195752</v>
       </c>
       <c r="D267">
-        <v>0.1143102151503952</v>
+        <v>0.0415136549668445</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>0.3480562038650482</v>
+        <v>0.142080837484432</v>
       </c>
       <c r="B268">
-        <v>0.6316575551624948</v>
+        <v>0.360840222182685</v>
       </c>
       <c r="C268">
-        <v>0.008976186310203874</v>
+        <v>0.00481116670374722</v>
       </c>
       <c r="D268">
-        <v>0.1136983599292491</v>
+        <v>0.0415803553915023</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>0.667938049651663</v>
+        <v>0.14187499553996</v>
       </c>
       <c r="B269">
-        <v>1.212183867886351</v>
+        <v>0.360317448990375</v>
       </c>
       <c r="C269">
-        <v>0.01722577075417447</v>
+        <v>0.00480419644704679</v>
       </c>
       <c r="D269">
-        <v>0.2181930962195432</v>
+        <v>0.0415201151694064</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>0.6700918218396926</v>
+        <v>0.157208898422147</v>
       </c>
       <c r="B270">
-        <v>1.216092565560924</v>
+        <v>0.399260694405452</v>
       </c>
       <c r="C270">
-        <v>0.01728131540533944</v>
+        <v>0.00532343580607262</v>
       </c>
       <c r="D270">
-        <v>0.2188966618009663</v>
+        <v>0.0460076248341067</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>0.6731692333289641</v>
+        <v>0.201035301817192</v>
       </c>
       <c r="B271">
-        <v>1.221677497522935</v>
+        <v>0.510565845884932</v>
       </c>
       <c r="C271">
-        <v>0.01736068022795749</v>
+        <v>0.00680749330807277</v>
       </c>
       <c r="D271">
-        <v>0.2199019495541283</v>
+        <v>0.0588335446482195</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>0.5359932114257481</v>
+        <v>0.268042128263327</v>
       </c>
       <c r="B272">
-        <v>0.9727284207356169</v>
+        <v>0.680741913049719</v>
       </c>
       <c r="C272">
-        <v>0.01382298282097982</v>
+        <v>0.00907649043695538</v>
       </c>
       <c r="D272">
-        <v>0.175091115732411</v>
+        <v>0.0784432802509695</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>0.5331622782806325</v>
+        <v>0.358078299195131</v>
       </c>
       <c r="B273">
-        <v>0.9675908013241107</v>
+        <v>0.909405204305095</v>
       </c>
       <c r="C273">
-        <v>0.0137499745451321</v>
+        <v>0.0121253113433458</v>
       </c>
       <c r="D273">
-        <v>0.1741663442383399</v>
+        <v>0.104792618076661</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>0.5369408703557312</v>
+        <v>0.427546301252033</v>
       </c>
       <c r="B274">
-        <v>0.9744482462011418</v>
+        <v>1.08583187619564</v>
       </c>
       <c r="C274">
-        <v>0.01384742244601623</v>
+        <v>0.0144776492404857</v>
       </c>
       <c r="D274">
-        <v>0.1754006843162055</v>
+        <v>0.125122623621428</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>0.3486569808413327</v>
+        <v>0.456209581358187</v>
       </c>
       <c r="B275">
-        <v>0.6327478541194557</v>
+        <v>1.15862750821127</v>
       </c>
       <c r="C275">
-        <v>0.008991680032223844</v>
+        <v>0.0154482503525605</v>
       </c>
       <c r="D275">
-        <v>0.113894613741502</v>
+        <v>0.133511012897572</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>0.346215915156691</v>
+        <v>0.469809863865626</v>
       </c>
       <c r="B276">
-        <v>0.6283177719510318</v>
+        <v>1.19316790823016</v>
       </c>
       <c r="C276">
-        <v>0.008928726232988347</v>
+        <v>0.0159087855487196</v>
       </c>
       <c r="D276">
-        <v>0.1130971989511857</v>
+        <v>0.137491173699666</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>0.3457332585431959</v>
+        <v>0.445330864651715</v>
       </c>
       <c r="B277">
-        <v>0.6274418395783924</v>
+        <v>1.13099902133769</v>
       </c>
       <c r="C277">
-        <v>0.008916278772956103</v>
+        <v>0.0150798733038018</v>
       </c>
       <c r="D277">
-        <v>0.1129395311241106</v>
+        <v>0.130327325956621</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>0.3483042123870694</v>
+        <v>0.385267353898196</v>
       </c>
       <c r="B278">
-        <v>0.6321076447024593</v>
+        <v>0.978456771804943</v>
       </c>
       <c r="C278">
-        <v>0.008982582319456001</v>
+        <v>0.0130459919714289</v>
       </c>
       <c r="D278">
-        <v>0.1137793760464427</v>
+        <v>0.112749571155828</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>0.3477307756295879</v>
+        <v>0.341753012455834</v>
       </c>
       <c r="B279">
-        <v>0.6310669631796223</v>
+        <v>0.86794415861799</v>
       </c>
       <c r="C279">
-        <v>0.008967793687289371</v>
+        <v>0.011572501567025</v>
       </c>
       <c r="D279">
-        <v>0.113592053372332</v>
+        <v>0.100014977146986</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>0.6708477036818719</v>
+        <v>0.322314467065645</v>
       </c>
       <c r="B280">
-        <v>1.21746435112636</v>
+        <v>0.818576424293703</v>
       </c>
       <c r="C280">
-        <v>0.0173008092002167</v>
+        <v>0.0109142700700379</v>
       </c>
       <c r="D280">
-        <v>0.2191435832027448</v>
+        <v>0.0943262323455874</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>0.6680747507456777</v>
+        <v>0.324079905574929</v>
       </c>
       <c r="B281">
-        <v>1.212431955056971</v>
+        <v>0.823060077650613</v>
       </c>
       <c r="C281">
-        <v>0.01722929620344116</v>
+        <v>0.0109740516642611</v>
       </c>
       <c r="D281">
-        <v>0.2182377519102547</v>
+        <v>0.0948428928744634</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>0.6687627686790483</v>
+        <v>0.346516370244341</v>
       </c>
       <c r="B282">
-        <v>1.21368058019531</v>
+        <v>0.880041575223722</v>
       </c>
       <c r="C282">
-        <v>0.01724703982382809</v>
+        <v>0.011733799239504</v>
       </c>
       <c r="D282">
-        <v>0.2184625044351558</v>
+        <v>0.10140898715713</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>0.5411748204630153</v>
+        <v>0.376063159352395</v>
       </c>
       <c r="B283">
-        <v>0.9821320815810278</v>
+        <v>0.95508103962513</v>
       </c>
       <c r="C283">
-        <v>0.01395661379088829</v>
+        <v>0.0127343178912531</v>
       </c>
       <c r="D283">
-        <v>0.176783774684585</v>
+        <v>0.110055937819462</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>0.5313212244833428</v>
+        <v>0.372330414745928</v>
       </c>
       <c r="B284">
-        <v>0.9642496296179184</v>
+        <v>0.945601053322992</v>
       </c>
       <c r="C284">
-        <v>0.01370249473667568</v>
+        <v>0.0126079190264787</v>
       </c>
       <c r="D284">
-        <v>0.1735649333312253</v>
+        <v>0.108963539646206</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>0.5384012637831733</v>
+        <v>0.33066933031854</v>
       </c>
       <c r="B285">
-        <v>0.977098589828722</v>
+        <v>0.839795124618515</v>
       </c>
       <c r="C285">
-        <v>0.01388508522388184</v>
+        <v>0.0111971839422277</v>
       </c>
       <c r="D285">
-        <v>0.17587774616917</v>
+        <v>0.0967713064981157</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>0.5355194496216825</v>
+        <v>0.310780411680187</v>
       </c>
       <c r="B286">
-        <v>0.9718686307949053</v>
+        <v>0.789283585219523</v>
       </c>
       <c r="C286">
-        <v>0.01381076475340129</v>
+        <v>0.0105237018258455</v>
       </c>
       <c r="D286">
-        <v>0.174936353543083</v>
+        <v>0.0909507587030902</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>0.349005590750988</v>
+        <v>0.28722611446589</v>
       </c>
       <c r="B287">
-        <v>0.6333805165480894</v>
+        <v>0.729463147849879</v>
       </c>
       <c r="C287">
-        <v>0.009000670498314954</v>
+        <v>0.00972610200525029</v>
       </c>
       <c r="D287">
-        <v>0.1140084929786561</v>
+        <v>0.0840575275924918</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>0.3447497185036702</v>
+        <v>0.232434666812238</v>
       </c>
       <c r="B288">
-        <v>0.6256568965436977</v>
+        <v>0.590310264919969</v>
       </c>
       <c r="C288">
-        <v>0.00889091379298939</v>
+        <v>0.00787074421549737</v>
       </c>
       <c r="D288">
-        <v>0.1126182413778656</v>
+        <v>0.0680226568372897</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>0.354376837749859</v>
+        <v>0.188511350589991</v>
       </c>
       <c r="B289">
-        <v>0.6431283351756699</v>
+        <v>0.478758985625375</v>
       </c>
       <c r="C289">
-        <v>0.00913919213144373</v>
+        <v>0.00638340503402762</v>
       </c>
       <c r="D289">
-        <v>0.1157631003316206</v>
+        <v>0.0551683752126163</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>0.3565949346597967</v>
+        <v>0.15644489740789</v>
       </c>
       <c r="B290">
-        <v>0.6471537703085198</v>
+        <v>0.397320374369245</v>
       </c>
       <c r="C290">
-        <v>0.009196395683331599</v>
+        <v>0.00529756506722776</v>
       </c>
       <c r="D290">
-        <v>0.1164876786555336</v>
+        <v>0.0457840377955258</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>0.3606579212210614</v>
+        <v>0.145420202657931</v>
       </c>
       <c r="B291">
-        <v>0.6545273385122966</v>
+        <v>0.369321149607443</v>
       </c>
       <c r="C291">
-        <v>0.009301177968332637</v>
+        <v>0.00492424488387936</v>
       </c>
       <c r="D291">
-        <v>0.1178149209322134</v>
+        <v>0.0425576299709211</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>0.3628346096442687</v>
+        <v>0.144139471043912</v>
       </c>
       <c r="B292">
-        <v>0.6584776249099691</v>
+        <v>0.366068497889301</v>
       </c>
       <c r="C292">
-        <v>0.009357313617141667</v>
+        <v>0.00488087652114376</v>
       </c>
       <c r="D292">
-        <v>0.1185259724837944</v>
+        <v>0.0421828202737454</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>0.6757143511084671</v>
+        <v>0.140283779001523</v>
       </c>
       <c r="B293">
-        <v>1.226296414974625</v>
+        <v>0.356276264130853</v>
       </c>
       <c r="C293">
-        <v>0.0174263174759552</v>
+        <v>0.0047503143883278</v>
       </c>
       <c r="D293">
-        <v>0.2207333546954326</v>
+        <v>0.0410544411887031</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>0.6767529255042888</v>
+        <v>0.143515932148428</v>
       </c>
       <c r="B294">
-        <v>1.22818123517445</v>
+        <v>0.364484907043626</v>
       </c>
       <c r="C294">
-        <v>0.01745310176300534</v>
+        <v>0.00485976213566039</v>
       </c>
       <c r="D294">
-        <v>0.221072622331401</v>
+        <v>0.0420003398679868</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>0.6766722320429676</v>
+        <v>0.165872376676758</v>
       </c>
       <c r="B295">
-        <v>1.228034791485386</v>
+        <v>0.421263178861606</v>
       </c>
       <c r="C295">
-        <v>0.01745102072110811</v>
+        <v>0.00561680005458916</v>
       </c>
       <c r="D295">
-        <v>0.2210462624673694</v>
+        <v>0.0485430160320418</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>0.5423255974929418</v>
+        <v>0.213535647738568</v>
       </c>
       <c r="B296">
-        <v>0.9842205287834871</v>
+        <v>0.542312756161443</v>
       </c>
       <c r="C296">
-        <v>0.01398629172481797</v>
+        <v>0.00723078225503465</v>
       </c>
       <c r="D296">
-        <v>0.1771596951810277</v>
+        <v>0.0624918059248993</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>0.5419051524985885</v>
+        <v>0.282950064614004</v>
       </c>
       <c r="B297">
-        <v>0.9834574989789198</v>
+        <v>0.718603338702232</v>
       </c>
       <c r="C297">
-        <v>0.01397544866970044</v>
+        <v>0.00958130564118598</v>
       </c>
       <c r="D297">
-        <v>0.1770223498162056</v>
+        <v>0.0828061296160921</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>0.549129986180124</v>
+        <v>0.336924297437672</v>
       </c>
       <c r="B298">
-        <v>0.9965692341787434</v>
+        <v>0.855680755397263</v>
       </c>
       <c r="C298">
-        <v>0.0141617733278032</v>
+        <v>0.0114089907563584</v>
       </c>
       <c r="D298">
-        <v>0.1793824621521738</v>
+        <v>0.098601840160364</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>0.3528122517010163</v>
+        <v>0.369744835360966</v>
       </c>
       <c r="B299">
-        <v>0.6402889012351777</v>
+        <v>0.93903450250404</v>
       </c>
       <c r="C299">
-        <v>0.009098842280710421</v>
+        <v>0.012520365675393</v>
       </c>
       <c r="D299">
-        <v>0.115252002222332</v>
+        <v>0.108206862590925</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>0.3561663391261998</v>
+        <v>0.392728961509756</v>
       </c>
       <c r="B300">
-        <v>0.6463759487845848</v>
+        <v>0.997406886373984</v>
       </c>
       <c r="C300">
-        <v>0.009185342430096733</v>
+        <v>0.0132986582614984</v>
       </c>
       <c r="D300">
-        <v>0.1163476707812253</v>
+        <v>0.114933231540816</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>0.3569384127484473</v>
+        <v>0.362218008506653</v>
       </c>
       <c r="B301">
-        <v>0.6477771194323674</v>
+        <v>0.919918751762929</v>
       </c>
       <c r="C301">
-        <v>0.009205253802459958</v>
+        <v>0.012265490919673</v>
       </c>
       <c r="D301">
-        <v>0.1165998814978261</v>
+        <v>0.106004115611714</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>0.3582771101933938</v>
+        <v>0.302090332746488</v>
       </c>
       <c r="B302">
-        <v>0.6502066073880108</v>
+        <v>0.767213543483144</v>
       </c>
       <c r="C302">
-        <v>0.009239778104987523</v>
+        <v>0.010229436820381</v>
       </c>
       <c r="D302">
-        <v>0.117037189329842</v>
+        <v>0.088407582741849</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>0.3606064260516657</v>
+        <v>0.270634969131938</v>
       </c>
       <c r="B303">
-        <v>0.6544338843159858</v>
+        <v>0.687326905731907</v>
       </c>
       <c r="C303">
-        <v>0.009299849935016641</v>
+        <v>0.00916428967769778</v>
       </c>
       <c r="D303">
-        <v>0.1177980991768774</v>
+        <v>0.0792020823997975</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>0.6792524762524534</v>
+        <v>0.247769862287672</v>
       </c>
       <c r="B304">
-        <v>1.2327174569026</v>
+        <v>0.629256793111549</v>
       </c>
       <c r="C304">
-        <v>0.01751756386124748</v>
+        <v>0.00839002734454671</v>
       </c>
       <c r="D304">
-        <v>0.2218891422424681</v>
+        <v>0.0725105447830276</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>0.6750969399537525</v>
+        <v>0.240098846444218</v>
       </c>
       <c r="B305">
-        <v>1.225175928064217</v>
+        <v>0.609774848112299</v>
       </c>
       <c r="C305">
-        <v>0.01741039476722835</v>
+        <v>0.00813027003551487</v>
       </c>
       <c r="D305">
-        <v>0.2205316670515591</v>
+        <v>0.0702656004919326</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>0.6724966108586077</v>
+        <v>0.266345883808015</v>
       </c>
       <c r="B306">
-        <v>1.220456812298955</v>
+        <v>0.676433990623529</v>
       </c>
       <c r="C306">
-        <v>0.01734333364845883</v>
+        <v>0.00901905190415036</v>
       </c>
       <c r="D306">
-        <v>0.2196822262138118</v>
+        <v>0.0779468695559631</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>0.5469751210079049</v>
+        <v>0.310043237377342</v>
       </c>
       <c r="B307">
-        <v>0.9926585529402718</v>
+        <v>0.787411396513883</v>
       </c>
       <c r="C307">
-        <v>0.01410620048915123</v>
+        <v>0.0104987394978954</v>
       </c>
       <c r="D307">
-        <v>0.1786785395292489</v>
+        <v>0.0907350225768081</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>0.5422889252710332</v>
+        <v>0.326833094843306</v>
       </c>
       <c r="B308">
-        <v>0.984153975491875</v>
+        <v>0.830052304363952</v>
       </c>
       <c r="C308">
-        <v>0.01398534596751612</v>
+        <v>0.011067280651165</v>
       </c>
       <c r="D308">
-        <v>0.1771477155885375</v>
+        <v>0.0956486214319948</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>0.5485452604573686</v>
+        <v>0.310587571168693</v>
       </c>
       <c r="B309">
-        <v>0.9955080652744838</v>
+        <v>0.788793831539539</v>
       </c>
       <c r="C309">
-        <v>0.01414669355916372</v>
+        <v>0.0105171718259914</v>
       </c>
       <c r="D309">
-        <v>0.1791914517494071</v>
+        <v>0.0908943233868029</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>0.547937665341615</v>
+        <v>0.290377345612573</v>
       </c>
       <c r="B310">
-        <v>0.9944053926570049</v>
+        <v>0.737466274571613</v>
       </c>
       <c r="C310">
-        <v>0.01413102400091533</v>
+        <v>0.00983280955735345</v>
       </c>
       <c r="D310">
-        <v>0.1789929706782609</v>
+        <v>0.0849797442215583</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>0.3591138624562393</v>
+        <v>0.246466200185539</v>
       </c>
       <c r="B311">
-        <v>0.6517251577909527</v>
+        <v>0.625945905233114</v>
       </c>
       <c r="C311">
-        <v>0.009261357505450381</v>
+        <v>0.00834588250552569</v>
       </c>
       <c r="D311">
-        <v>0.1173105284023715</v>
+        <v>0.0721290244142229</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>0.3536094535502541</v>
+        <v>0.198493330417076</v>
       </c>
       <c r="B312">
-        <v>0.6417356749615724</v>
+        <v>0.504110045503684</v>
       </c>
       <c r="C312">
-        <v>0.009119401696822344</v>
+        <v>0.00672141661836113</v>
       </c>
       <c r="D312">
-        <v>0.115512421493083</v>
+        <v>0.0580896295919513</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>0.3539557629884247</v>
+        <v>0.161190186654855</v>
       </c>
       <c r="B313">
-        <v>0.6423641624604745</v>
+        <v>0.409371902615505</v>
       </c>
       <c r="C313">
-        <v>0.009128332834964639</v>
+        <v>0.00545825089952479</v>
       </c>
       <c r="D313">
-        <v>0.1156255492428854</v>
+        <v>0.0471727599963354</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>0.3459111026849239</v>
+        <v>0.143591129138381</v>
       </c>
       <c r="B314">
-        <v>0.6277645937615285</v>
+        <v>0.364675883526048</v>
       </c>
       <c r="C314">
-        <v>0.00892086527976909</v>
+        <v>0.00486230846956926</v>
       </c>
       <c r="D314">
-        <v>0.1129976268770751</v>
+        <v>0.0420223464778999</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>0.3491645887224733</v>
+        <v>0.139433642196314</v>
       </c>
       <c r="B315">
-        <v>0.6336690684222663</v>
+        <v>0.354117186530322</v>
       </c>
       <c r="C315">
-        <v>0.009004770972316417</v>
+        <v>0.00472152690394026</v>
       </c>
       <c r="D315">
-        <v>0.1140604323160079</v>
+        <v>0.0408056462694314</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>0.3466684886815358</v>
+        <v>0.139405128049415</v>
       </c>
       <c r="B316">
-        <v>0.629139109088713</v>
+        <v>0.354044769649307</v>
       </c>
       <c r="C316">
-        <v>0.0089403978659975</v>
+        <v>0.00472056135280347</v>
       </c>
       <c r="D316">
-        <v>0.1132450396359683</v>
+        <v>0.0407973015244062</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>0.6689263675935038</v>
+        <v>0.147550867437628</v>
       </c>
       <c r="B317">
-        <v>1.213977481928951</v>
+        <v>0.374732361746356</v>
       </c>
       <c r="C317">
-        <v>0.0172512589537272</v>
+        <v>0.00499639383532433</v>
       </c>
       <c r="D317">
-        <v>0.2185159467472112</v>
+        <v>0.0431811749916891</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>0.6722125911098786</v>
+        <v>0.197060149333787</v>
       </c>
       <c r="B318">
-        <v>1.219941369051261</v>
+        <v>0.500470220530253</v>
       </c>
       <c r="C318">
-        <v>0.01733600892862319</v>
+        <v>0.00667288598445975</v>
       </c>
       <c r="D318">
-        <v>0.219589446429227</v>
+        <v>0.057670205130225</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>0.6657208375384501</v>
+        <v>0.301469404622901</v>
       </c>
       <c r="B319">
-        <v>1.208160038495706</v>
+        <v>0.765636583169271</v>
       </c>
       <c r="C319">
-        <v>0.01716859002072845</v>
+        <v>0.0102084108413221</v>
       </c>
       <c r="D319">
-        <v>0.217468806929227</v>
+        <v>0.0882258663858051</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>0.529600471812535</v>
+        <v>0.690885225901156</v>
       </c>
       <c r="B320">
-        <v>0.9611267821783043</v>
+        <v>1.75462914514579</v>
       </c>
       <c r="C320">
-        <v>0.01365811743095485</v>
+        <v>0.0233948789563598</v>
       </c>
       <c r="D320">
-        <v>0.1730028207920948</v>
+        <v>0.202189498149995</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>0.5316077008441558</v>
+        <v>1.23138312784207</v>
       </c>
       <c r="B321">
-        <v>0.9647695311616159</v>
+        <v>3.12732222944019</v>
       </c>
       <c r="C321">
-        <v>0.01370988281124402</v>
+        <v>0.0416973154798516</v>
       </c>
       <c r="D321">
-        <v>0.1736585156090909</v>
+        <v>0.360367724355392</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>0.5290777234980237</v>
+        <v>1.42747501802429</v>
       </c>
       <c r="B322">
-        <v>0.9601780907927097</v>
+        <v>3.62533337910931</v>
       </c>
       <c r="C322">
-        <v>0.0136446360270543</v>
+        <v>0.048337414099927</v>
       </c>
       <c r="D322">
-        <v>0.1728320563426877</v>
+        <v>0.417754565730545</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>0.3499436522388482</v>
+        <v>1.44442457959432</v>
       </c>
       <c r="B323">
-        <v>0.6350829244334651</v>
+        <v>3.668379884684</v>
       </c>
       <c r="C323">
-        <v>0.009024862610370294</v>
+        <v>0.0489113631821021</v>
       </c>
       <c r="D323">
-        <v>0.1143149263980237</v>
+        <v>0.422714902439493</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>0.3518498583032184</v>
+        <v>1.44861217496776</v>
       </c>
       <c r="B324">
-        <v>0.6385423354391742</v>
+        <v>3.67901504753717</v>
       </c>
       <c r="C324">
-        <v>0.009074022661504054</v>
+        <v>0.0490531642848135</v>
       </c>
       <c r="D324">
-        <v>0.1149376203790513</v>
+        <v>0.423940413964807</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>0.3467713020609826</v>
+        <v>1.33755794938924</v>
       </c>
       <c r="B325">
-        <v>0.6293256963328944</v>
+        <v>3.39697256987744</v>
       </c>
       <c r="C325">
-        <v>0.008943049368941131</v>
+        <v>0.0452926262567888</v>
       </c>
       <c r="D325">
-        <v>0.113278625339921</v>
+        <v>0.391440083525884</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>0.3509691316431395</v>
+        <v>1.09125176605844</v>
       </c>
       <c r="B326">
-        <v>0.6369439796486605</v>
+        <v>2.77143305665635</v>
       </c>
       <c r="C326">
-        <v>0.009051309184480966</v>
+        <v>0.0369521622705875</v>
       </c>
       <c r="D326">
-        <v>0.1146499163367589</v>
+        <v>0.319357888492782</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>0.3525762764144553</v>
+        <v>1.06888136078019</v>
       </c>
       <c r="B327">
-        <v>0.6398606497891965</v>
+        <v>2.71461932896556</v>
       </c>
       <c r="C327">
-        <v>0.00909275660226753</v>
+        <v>0.0361946516102506</v>
       </c>
       <c r="D327">
-        <v>0.1151749169620554</v>
+        <v>0.312811126676126</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>0.6669279657103869</v>
+        <v>1.06693152806329</v>
       </c>
       <c r="B328">
-        <v>1.210350752585517</v>
+        <v>2.70966737285915</v>
       </c>
       <c r="C328">
-        <v>0.01719972122095208</v>
+        <v>0.0361286260264245</v>
       </c>
       <c r="D328">
-        <v>0.217863135465393</v>
+        <v>0.312240502665471</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>0.6649623013060956</v>
+        <v>0.892116473740763</v>
       </c>
       <c r="B329">
-        <v>1.206783435703655</v>
+        <v>2.26569263172257</v>
       </c>
       <c r="C329">
-        <v>0.01714902777052562</v>
+        <v>0.0302090074236522</v>
       </c>
       <c r="D329">
-        <v>0.2172210184266579</v>
+        <v>0.261080386950979</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>0.6650925433840175</v>
+        <v>0.646032753283659</v>
       </c>
       <c r="B330">
-        <v>1.20701980095618</v>
+        <v>1.64071810357755</v>
       </c>
       <c r="C330">
-        <v>0.01715238664516677</v>
+        <v>0.0218760765150265</v>
       </c>
       <c r="D330">
-        <v>0.2172635641721124</v>
+        <v>0.189063296301506</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>0.5376174796160359</v>
+        <v>0.479200959941898</v>
       </c>
       <c r="B331">
-        <v>0.9756761667105835</v>
+        <v>1.21701831096355</v>
       </c>
       <c r="C331">
-        <v>0.01386487184272935</v>
+        <v>0.016226788521913</v>
       </c>
       <c r="D331">
-        <v>0.1756217100079051</v>
+        <v>0.140239504292874</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>0.5321464171372107</v>
+        <v>0.410694023229914</v>
       </c>
       <c r="B332">
-        <v>0.9657472014712342</v>
+        <v>1.04303243994899</v>
       </c>
       <c r="C332">
-        <v>0.01372377602090701</v>
+        <v>0.0139069943911912</v>
       </c>
       <c r="D332">
-        <v>0.1738344962648221</v>
+        <v>0.120190757215496</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>0.5288390157509879</v>
+        <v>0.359045139619039</v>
       </c>
       <c r="B333">
-        <v>0.9597448804369779</v>
+        <v>0.911860672048353</v>
       </c>
       <c r="C333">
-        <v>0.0136384798798939</v>
+        <v>0.0121580506665205</v>
       </c>
       <c r="D333">
-        <v>0.172754078478656</v>
+        <v>0.105075566637105</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>0.5290219708949745</v>
+        <v>0.317652880023981</v>
       </c>
       <c r="B334">
-        <v>0.9600769101427314</v>
+        <v>0.806737473076777</v>
       </c>
       <c r="C334">
-        <v>0.01364319819676513</v>
+        <v>0.0107564185767714</v>
       </c>
       <c r="D334">
-        <v>0.1728138438256916</v>
+        <v>0.092962005829805</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>0.3436609761335404</v>
+        <v>0.26296767744163</v>
       </c>
       <c r="B335">
-        <v>0.6236810307608694</v>
+        <v>0.667854418899377</v>
       </c>
       <c r="C335">
-        <v>0.00886283570028604</v>
+        <v>0.00890465847660515</v>
       </c>
       <c r="D335">
-        <v>0.1122625855369565</v>
+        <v>0.0769582279925607</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>0.3469322465852627</v>
+        <v>0.203824722931079</v>
       </c>
       <c r="B336">
-        <v>0.629617780839921</v>
+        <v>0.517650089983694</v>
       </c>
       <c r="C336">
-        <v>0.008947200043514668</v>
+        <v>0.00690194918420269</v>
       </c>
       <c r="D336">
-        <v>0.1133312005511858</v>
+        <v>0.0596498765569099</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>0.3422917532015809</v>
+        <v>0.158703820009072</v>
       </c>
       <c r="B337">
-        <v>0.6211961446991653</v>
+        <v>0.40305732065796</v>
       </c>
       <c r="C337">
-        <v>0.008827524161514454</v>
+        <v>0.005374057107939</v>
       </c>
       <c r="D337">
-        <v>0.1118153060458497</v>
+        <v>0.0464451178273021</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>0.7326099373455376</v>
+        <v>0.148118144105077</v>
       </c>
       <c r="B338">
-        <v>1.329551367775235</v>
+        <v>0.376173064393847</v>
       </c>
       <c r="C338">
-        <v>0.01889362469996386</v>
+        <v>0.00501560305918989</v>
       </c>
       <c r="D338">
-        <v>0.2393192461995423</v>
+        <v>0.0433471900986907</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>0.7324562621248778</v>
+        <v>0.143925014253074</v>
       </c>
       <c r="B339">
-        <v>1.329272475708111</v>
+        <v>0.365523845722094</v>
       </c>
       <c r="C339">
-        <v>0.01888966149690474</v>
+        <v>0.00487361454697652</v>
       </c>
       <c r="D339">
-        <v>0.23926904562746</v>
+        <v>0.0421200588927101</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>0.7277074929061788</v>
+        <v>0.143334667675317</v>
       </c>
       <c r="B340">
-        <v>1.32065433897788</v>
+        <v>0.364024552826203</v>
       </c>
       <c r="C340">
-        <v>0.01876719323810672</v>
+        <v>0.00485362412568634</v>
       </c>
       <c r="D340">
-        <v>0.2377177810160184</v>
+        <v>0.0419472923117841</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>1.050818287920111</v>
+        <v>0.160429586121859</v>
       </c>
       <c r="B341">
-        <v>1.907040596595757</v>
+        <v>0.407440218722182</v>
       </c>
       <c r="C341">
-        <v>0.02710005058320286</v>
+        <v>0.00543249530838392</v>
       </c>
       <c r="D341">
-        <v>0.3432673073872362</v>
+        <v>0.046950168118128</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>1.043316478348355</v>
+        <v>0.207161913571039</v>
       </c>
       <c r="B342">
-        <v>1.893426201447015</v>
+        <v>0.52612549478359</v>
       </c>
       <c r="C342">
-        <v>0.02690658286266811</v>
+        <v>0.00701495372989161</v>
       </c>
       <c r="D342">
-        <v>0.3408167162604627</v>
+        <v>0.0606265147529926</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>1.043514412032566</v>
+        <v>0.378688485407909</v>
       </c>
       <c r="B343">
-        <v>1.893785414429472</v>
+        <v>0.961748534369294</v>
       </c>
       <c r="C343">
-        <v>0.02691168746820828</v>
+        <v>0.0128232171511984</v>
       </c>
       <c r="D343">
-        <v>0.3408813745973049</v>
+        <v>0.110824246849304</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>1.116208478796993</v>
+        <v>0.764605871695535</v>
       </c>
       <c r="B344">
-        <v>2.02571168374269</v>
+        <v>1.9418561820839</v>
       </c>
       <c r="C344">
-        <v>0.0287864291900277</v>
+        <v>0.0258912206355361</v>
       </c>
       <c r="D344">
-        <v>0.3646281030736842</v>
+        <v>0.223764051806165</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>1.105530473605754</v>
+        <v>1.22178006041589</v>
       </c>
       <c r="B345">
-        <v>2.00633308172896</v>
+        <v>3.10293348677052</v>
       </c>
       <c r="C345">
-        <v>0.02851104905614838</v>
+        <v>0.0413721346949357</v>
       </c>
       <c r="D345">
-        <v>0.3611399547112128</v>
+        <v>0.357557359752403</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>1.108311380398823</v>
+        <v>1.36222077526764</v>
       </c>
       <c r="B346">
-        <v>2.011379912575642</v>
+        <v>3.45960831814003</v>
       </c>
       <c r="C346">
-        <v>0.02858276717870649</v>
+        <v>0.0461277632730627</v>
       </c>
       <c r="D346">
-        <v>0.3620483842636155</v>
+        <v>0.39865772865762</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>0.7288733755802551</v>
+        <v>1.35110555842197</v>
       </c>
       <c r="B347">
-        <v>1.32277020012713</v>
+        <v>3.4313791959923</v>
       </c>
       <c r="C347">
-        <v>0.01879726073864868</v>
+        <v>0.0457513778143362</v>
       </c>
       <c r="D347">
-        <v>0.2380986360228833</v>
+        <v>0.39540482928794</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>0.7270972998300098</v>
+        <v>1.34700331321553</v>
       </c>
       <c r="B348">
-        <v>1.319546951543351</v>
+        <v>3.42096079546802</v>
       </c>
       <c r="C348">
-        <v>0.01875145667982657</v>
+        <v>0.045612466854229</v>
       </c>
       <c r="D348">
-        <v>0.2375184512778032</v>
+        <v>0.394204295728267</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>0.731541587211507</v>
+        <v>1.21324732638704</v>
       </c>
       <c r="B349">
-        <v>1.327612510124587</v>
+        <v>3.08126305114169</v>
       </c>
       <c r="C349">
-        <v>0.01886607251229676</v>
+        <v>0.0410831977307513</v>
       </c>
       <c r="D349">
-        <v>0.2389702518224256</v>
+        <v>0.355060231218659</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>0.7404215561621449</v>
+        <v>1.00233857144782</v>
       </c>
       <c r="B350">
-        <v>1.3437280093313</v>
+        <v>2.54562176875638</v>
       </c>
       <c r="C350">
-        <v>0.01909508223786584</v>
+        <v>0.0339413677890216</v>
       </c>
       <c r="D350">
-        <v>0.241871041679634</v>
+        <v>0.293337192835577</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>0.7376656472049686</v>
+        <v>1.03210688038208</v>
       </c>
       <c r="B351">
-        <v>1.338726544927536</v>
+        <v>2.6212238231926</v>
       </c>
       <c r="C351">
-        <v>0.01902400879633866</v>
+        <v>0.0349493875847036</v>
       </c>
       <c r="D351">
-        <v>0.2409707780869564</v>
+        <v>0.302048971896045</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>1.044487688430082</v>
+        <v>0.974814041388417</v>
       </c>
       <c r="B352">
-        <v>1.895551730854592</v>
+        <v>2.47571820035153</v>
       </c>
       <c r="C352">
-        <v>0.02693678775424947</v>
+        <v>0.0330093272344844</v>
       </c>
       <c r="D352">
-        <v>0.3411993115538267</v>
+        <v>0.285282061952923</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>1.055446165965224</v>
+        <v>0.758495038794013</v>
       </c>
       <c r="B353">
-        <v>1.915439338233184</v>
+        <v>1.92633660646099</v>
       </c>
       <c r="C353">
-        <v>0.02721940112226104</v>
+        <v>0.0256842945200338</v>
       </c>
       <c r="D353">
-        <v>0.3447790808819731</v>
+        <v>0.221975699426758</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>1.053694268449696</v>
+        <v>0.550533007914023</v>
       </c>
       <c r="B354">
-        <v>1.912259968667966</v>
+        <v>1.39817906771815</v>
       </c>
       <c r="C354">
-        <v>0.02717422060738689</v>
+        <v>0.0186422470748736</v>
       </c>
       <c r="D354">
-        <v>0.3442067943602339</v>
+        <v>0.161115028100295</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>1.103064197240929</v>
+        <v>0.433964053788052</v>
       </c>
       <c r="B355">
-        <v>2.001857246844649</v>
+        <v>1.10213093025537</v>
       </c>
       <c r="C355">
-        <v>0.02844744508673975</v>
+        <v>0.0146949683234871</v>
       </c>
       <c r="D355">
-        <v>0.3603343044320368</v>
+        <v>0.127000796892272</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>1.118536242562929</v>
+        <v>0.390057626787142</v>
       </c>
       <c r="B356">
-        <v>2.029936143910501</v>
+        <v>0.990622544221312</v>
       </c>
       <c r="C356">
-        <v>0.02884646099241238</v>
+        <v>0.0132082010478477</v>
       </c>
       <c r="D356">
-        <v>0.3653885059038901</v>
+        <v>0.114151457945568</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>1.125832910781301</v>
+        <v>0.351936833951839</v>
       </c>
       <c r="B357">
-        <v>2.04317824549199</v>
+        <v>0.89380783225864</v>
       </c>
       <c r="C357">
-        <v>0.02903463822541249</v>
+        <v>0.0119173479500135</v>
       </c>
       <c r="D357">
-        <v>0.3677720841885582</v>
+        <v>0.102995301056562</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>1.108768283949003</v>
+        <v>0.324228953398585</v>
       </c>
       <c r="B358">
-        <v>2.012209107907449</v>
+        <v>0.82343861180593</v>
       </c>
       <c r="C358">
-        <v>0.02859455048079007</v>
+        <v>0.0109790987482953</v>
       </c>
       <c r="D358">
-        <v>0.3621976394233408</v>
+        <v>0.0948865121378889</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>0.7286692948872179</v>
+        <v>0.276983341313912</v>
       </c>
       <c r="B359">
-        <v>1.322399831461988</v>
+        <v>0.703449755717873</v>
       </c>
       <c r="C359">
-        <v>0.01879199760498614</v>
+        <v>0.00937925939075466</v>
       </c>
       <c r="D359">
-        <v>0.2380319696631578</v>
+        <v>0.0810599513155332</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>0.7256584899640407</v>
+        <v>0.213267387490691</v>
       </c>
       <c r="B360">
-        <v>1.316935778082889</v>
+        <v>0.54163146029382</v>
       </c>
       <c r="C360">
-        <v>0.01871435053065158</v>
+        <v>0.00722169837859238</v>
       </c>
       <c r="D360">
-        <v>0.2370484400549199</v>
+        <v>0.0624132988113321</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>0.7342495494998363</v>
+        <v>0.163255057314233</v>
       </c>
       <c r="B361">
-        <v>1.332526960203406</v>
+        <v>0.414616018575831</v>
       </c>
       <c r="C361">
-        <v>0.01893590943446946</v>
+        <v>0.00552817191871244</v>
       </c>
       <c r="D361">
-        <v>0.2398548528366132</v>
+        <v>0.0477770501833485</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>0.7019613611376265</v>
+        <v>0.14816741274179</v>
       </c>
       <c r="B362">
-        <v>1.273929877620137</v>
+        <v>0.376298191090262</v>
       </c>
       <c r="C362">
-        <v>0.01810321405039142</v>
+        <v>0.00501727140256885</v>
       </c>
       <c r="D362">
-        <v>0.2293073779716246</v>
+        <v>0.0433616087033418</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>0.695800009290618</v>
+        <v>0.143974282889788</v>
       </c>
       <c r="B363">
-        <v>1.262748165008899</v>
+        <v>0.365648972418508</v>
       </c>
       <c r="C363">
-        <v>0.01794431602907383</v>
+        <v>0.00487528289035548</v>
       </c>
       <c r="D363">
-        <v>0.2272946697016019</v>
+        <v>0.0421344774973613</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>0.7026567927361883</v>
+        <v>0.143388704244616</v>
       </c>
       <c r="B364">
-        <v>1.275191957187897</v>
+        <v>0.364161788557754</v>
       </c>
       <c r="C364">
-        <v>0.0181211488653017</v>
+        <v>0.00485545392165036</v>
       </c>
       <c r="D364">
-        <v>0.2295345522938215</v>
+        <v>0.0419631062652725</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>1.0191427514376</v>
+        <v>0.160483622691158</v>
       </c>
       <c r="B365">
-        <v>1.849555363720089</v>
+        <v>0.407577454453733</v>
       </c>
       <c r="C365">
-        <v>0.0262831551686539</v>
+        <v>0.00543432510434794</v>
       </c>
       <c r="D365">
-        <v>0.3329199654696161</v>
+        <v>0.0469659820716164</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>1.029938538139136</v>
+        <v>0.207241379114125</v>
       </c>
       <c r="B366">
-        <v>1.869147717363618</v>
+        <v>0.526327312035872</v>
       </c>
       <c r="C366">
-        <v>0.02656157282569352</v>
+        <v>0.00701764460630928</v>
       </c>
       <c r="D366">
-        <v>0.3364465891254512</v>
+        <v>0.060649770566946</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>1.018686233582091</v>
+        <v>0.378814040965985</v>
       </c>
       <c r="B367">
-        <v>1.848726868352685</v>
+        <v>0.962067405627899</v>
       </c>
       <c r="C367">
-        <v>0.02627138181343289</v>
+        <v>0.0128274687359383</v>
       </c>
       <c r="D367">
-        <v>0.3327708363034832</v>
+        <v>0.110860991035351</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>1.079046363295195</v>
+        <v>0.764740963118781</v>
       </c>
       <c r="B368">
-        <v>1.958269325980168</v>
+        <v>1.94219927141278</v>
       </c>
       <c r="C368">
-        <v>0.02782803779024449</v>
+        <v>0.0258957951254461</v>
       </c>
       <c r="D368">
-        <v>0.3524884786764302</v>
+        <v>0.223803586689885</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>1.090004527453416</v>
+        <v>1.22193263425862</v>
       </c>
       <c r="B369">
-        <v>1.978156364637681</v>
+        <v>3.1033209758949</v>
       </c>
       <c r="C369">
-        <v>0.02811064307643021</v>
+        <v>0.0413773011776577</v>
       </c>
       <c r="D369">
-        <v>0.3560681456347827</v>
+        <v>0.357602010915194</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1.071479564171297</v>
+        <v>1.36236540255606</v>
       </c>
       <c r="B370">
-        <v>1.944536986829391</v>
+        <v>3.45997562553919</v>
       </c>
       <c r="C370">
-        <v>0.02763289402336504</v>
+        <v>0.0461326606681429</v>
       </c>
       <c r="D370">
-        <v>0.3500166576292905</v>
+        <v>0.398700054239015</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>0.696159404406669</v>
+        <v>1.35124064984521</v>
       </c>
       <c r="B371">
-        <v>1.263400400589881</v>
+        <v>3.43172228532118</v>
       </c>
       <c r="C371">
-        <v>0.01795358463996146</v>
+        <v>0.0457559523042463</v>
       </c>
       <c r="D371">
-        <v>0.2274120721061785</v>
+        <v>0.395444364171661</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>0.7000086613337693</v>
+        <v>1.34716224430171</v>
       </c>
       <c r="B372">
-        <v>1.270386089087211</v>
+        <v>3.42136442997259</v>
       </c>
       <c r="C372">
-        <v>0.01805285495018668</v>
+        <v>0.0456178486070644</v>
       </c>
       <c r="D372">
-        <v>0.2286694960356979</v>
+        <v>0.394250807356174</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>0.6989849794638772</v>
+        <v>1.21340625747321</v>
       </c>
       <c r="B373">
-        <v>1.268528296064073</v>
+        <v>3.08166668564626</v>
       </c>
       <c r="C373">
-        <v>0.01802645473354209</v>
+        <v>0.0410885794835867</v>
       </c>
       <c r="D373">
-        <v>0.2283350932915332</v>
+        <v>0.355106742846566</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>0.6966511651127821</v>
+        <v>1.00247048424935</v>
       </c>
       <c r="B374">
-        <v>1.264292855204679</v>
+        <v>2.54595678539517</v>
       </c>
       <c r="C374">
-        <v>0.0179662668897507</v>
+        <v>0.033945834643875</v>
       </c>
       <c r="D374">
-        <v>0.2275727139368422</v>
+        <v>0.29337579748674</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>0.7017076945733898</v>
+        <v>1.03222766800757</v>
       </c>
       <c r="B375">
-        <v>1.273469519781337</v>
+        <v>2.62153058541606</v>
       </c>
       <c r="C375">
-        <v>0.01809667212320847</v>
+        <v>0.0349534777168584</v>
       </c>
       <c r="D375">
-        <v>0.2292245135606406</v>
+        <v>0.302084320733254</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>1.025836844049565</v>
+        <v>0.974925293148737</v>
       </c>
       <c r="B376">
-        <v>1.861703902164025</v>
+        <v>2.47600074450473</v>
       </c>
       <c r="C376">
-        <v>0.02645579229390983</v>
+        <v>0.0330130944614691</v>
       </c>
       <c r="D376">
-        <v>0.3351067023895244</v>
+        <v>0.285314620092458</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>1.016967120113638</v>
+        <v>0.758611058486919</v>
       </c>
       <c r="B377">
-        <v>1.845606995761788</v>
+        <v>1.92663125964932</v>
       </c>
       <c r="C377">
-        <v>0.02622704678187803</v>
+        <v>0.0256882231996036</v>
       </c>
       <c r="D377">
-        <v>0.3322092592371217</v>
+        <v>0.22200965291513</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>1.029685691176077</v>
+        <v>0.550672867269854</v>
       </c>
       <c r="B378">
-        <v>1.868688846949176</v>
+        <v>1.39853426608217</v>
       </c>
       <c r="C378">
-        <v>0.02655505203559355</v>
+        <v>0.0186469830173687</v>
       </c>
       <c r="D378">
-        <v>0.3363639924508516</v>
+        <v>0.161155958332853</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>1.080692845635828</v>
+        <v>0.434124574185086</v>
       </c>
       <c r="B379">
-        <v>1.961257386524281</v>
+        <v>1.10253860110498</v>
       </c>
       <c r="C379">
-        <v>0.02787049970323979</v>
+        <v>0.0147004038938508</v>
       </c>
       <c r="D379">
-        <v>0.3530263295743706</v>
+        <v>0.127047773636458</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>1.07167573812357</v>
+        <v>0.390226093738484</v>
       </c>
       <c r="B380">
-        <v>1.944893006224257</v>
+        <v>0.99105039679615</v>
       </c>
       <c r="C380">
-        <v>0.0276379532463447</v>
+        <v>0.0132139057058532</v>
       </c>
       <c r="D380">
-        <v>0.3500807411203662</v>
+        <v>0.11420076027115</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>1.077089011049362</v>
+        <v>0.352092586416288</v>
       </c>
       <c r="B381">
-        <v>1.954717094126621</v>
+        <v>0.894203394073112</v>
       </c>
       <c r="C381">
-        <v>0.02777755870600987</v>
+        <v>0.0119226220677922</v>
       </c>
       <c r="D381">
-        <v>0.3518490769427917</v>
+        <v>0.103040882451911</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>1.076888449820202</v>
+        <v>0.324370402065278</v>
       </c>
       <c r="B382">
-        <v>1.954353112636664</v>
+        <v>0.823797846514992</v>
       </c>
       <c r="C382">
-        <v>0.02777238633746838</v>
+        <v>0.0109838885083188</v>
       </c>
       <c r="D382">
-        <v>0.3517835602745994</v>
+        <v>0.0949279074867261</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>0.6982973340764955</v>
+        <v>0.27711048618285</v>
       </c>
       <c r="B383">
-        <v>1.267280347027714</v>
+        <v>0.703772663321524</v>
       </c>
       <c r="C383">
-        <v>0.01800872072092015</v>
+        <v>0.00938356479302294</v>
       </c>
       <c r="D383">
-        <v>0.2281104624649885</v>
+        <v>0.0810971606178588</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>0.6975760850408631</v>
+        <v>0.216342704008119</v>
       </c>
       <c r="B384">
-        <v>1.265971413592677</v>
+        <v>0.549441787957127</v>
       </c>
       <c r="C384">
-        <v>0.01799012008789594</v>
+        <v>0.00732583529595642</v>
       </c>
       <c r="D384">
-        <v>0.2278748544466819</v>
+        <v>0.0633132988113321</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>0.7030415954887219</v>
+        <v>0.166690464047729</v>
       </c>
       <c r="B385">
-        <v>1.275890302923977</v>
+        <v>0.423340861073599</v>
       </c>
       <c r="C385">
-        <v>0.01813107272576178</v>
+        <v>0.00564450227530846</v>
       </c>
       <c r="D385">
-        <v>0.2296602545263158</v>
+        <v>0.0487824315945383</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>0.6218506735076822</v>
+        <v>0.149684185839359</v>
       </c>
       <c r="B386">
-        <v>1.128543814884312</v>
+        <v>0.380150313242816</v>
       </c>
       <c r="C386">
-        <v>0.01603720157993496</v>
+        <v>0.00506863264419272</v>
       </c>
       <c r="D386">
-        <v>0.2031378866791761</v>
+        <v>0.0438054966023843</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>0.6203491641516837</v>
+        <v>0.144976291593803</v>
       </c>
       <c r="B387">
-        <v>1.125818853460463</v>
+        <v>0.368193756428706</v>
       </c>
       <c r="C387">
-        <v>0.01599847844391184</v>
+        <v>0.00490921308811456</v>
       </c>
       <c r="D387">
-        <v>0.2026473936228833</v>
+        <v>0.042427718153568</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>0.6235058580843411</v>
+        <v>0.144138512013695</v>
       </c>
       <c r="B388">
-        <v>1.131547668375286</v>
+        <v>0.366066062257004</v>
       </c>
       <c r="C388">
-        <v>0.01607988791901722</v>
+        <v>0.00488084404629121</v>
       </c>
       <c r="D388">
-        <v>0.2036785803075514</v>
+        <v>0.0421825396108638</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>0.9340058595905912</v>
+        <v>0.158168342757227</v>
       </c>
       <c r="B389">
-        <v>1.69504767110885</v>
+        <v>0.401697378431052</v>
       </c>
       <c r="C389">
-        <v>0.02408751953680998</v>
+        <v>0.00535592468156606</v>
       </c>
       <c r="D389">
-        <v>0.3051085807995931</v>
+        <v>0.0462884089084219</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>0.9478247452329581</v>
+        <v>0.197960173959066</v>
       </c>
       <c r="B390">
-        <v>1.72012638949685</v>
+        <v>0.502755997356359</v>
       </c>
       <c r="C390">
-        <v>0.02444390132442892</v>
+        <v>0.0067033627791237</v>
       </c>
       <c r="D390">
-        <v>0.309622750109433</v>
+        <v>0.057933599859893</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>0.9514371374199467</v>
+        <v>0.345586254199778</v>
       </c>
       <c r="B391">
-        <v>1.726682212354718</v>
+        <v>0.877679375745469</v>
       </c>
       <c r="C391">
-        <v>0.02453706301767231</v>
+        <v>0.011702303483824</v>
       </c>
       <c r="D391">
-        <v>0.3108027982238493</v>
+        <v>0.101136786089252</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>0.9522797581431842</v>
+        <v>0.677182732063671</v>
       </c>
       <c r="B392">
-        <v>1.728211412926519</v>
+        <v>1.71982916079663</v>
       </c>
       <c r="C392">
-        <v>0.02455879376264001</v>
+        <v>0.0229308826618811</v>
       </c>
       <c r="D392">
-        <v>0.3110780543267735</v>
+        <v>0.19817942491563</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>0.9538873817456681</v>
+        <v>1.07248902116919</v>
       </c>
       <c r="B393">
-        <v>1.731128952056953</v>
+        <v>2.72378164106461</v>
       </c>
       <c r="C393">
-        <v>0.02460025352923039</v>
+        <v>0.0363168148509051</v>
       </c>
       <c r="D393">
-        <v>0.3116032113702515</v>
+        <v>0.313866918602486</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>0.9502929484668188</v>
+        <v>1.19938142020125</v>
       </c>
       <c r="B394">
-        <v>1.724605721291634</v>
+        <v>3.04604805130476</v>
       </c>
       <c r="C394">
-        <v>0.02450755498677585</v>
+        <v>0.0406136679381382</v>
       </c>
       <c r="D394">
-        <v>0.3104290298324941</v>
+        <v>0.351002334902461</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>0.6299274333050018</v>
+        <v>1.19532583099446</v>
       </c>
       <c r="B395">
-        <v>1.143201638220188</v>
+        <v>3.03574814220815</v>
       </c>
       <c r="C395">
-        <v>0.01624549696418163</v>
+        <v>0.0404763368518267</v>
       </c>
       <c r="D395">
-        <v>0.2057762948796339</v>
+        <v>0.349815455351875</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>0.6258466390454397</v>
+        <v>1.19515883982638</v>
       </c>
       <c r="B396">
-        <v>1.135795752341724</v>
+        <v>3.03532403765429</v>
       </c>
       <c r="C396">
-        <v>0.01614025542801397</v>
+        <v>0.0404706821670576</v>
       </c>
       <c r="D396">
-        <v>0.2044432354215103</v>
+        <v>0.349766584918401</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>0.62388410402746</v>
+        <v>1.07761464937493</v>
       </c>
       <c r="B397">
-        <v>1.132234114716501</v>
+        <v>2.73679910952364</v>
       </c>
       <c r="C397">
-        <v>0.01608964268281344</v>
+        <v>0.0364903797889774</v>
       </c>
       <c r="D397">
-        <v>0.2038021406489703</v>
+        <v>0.315366948065804</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>0.6249602403726708</v>
+        <v>0.89104274547908</v>
       </c>
       <c r="B398">
-        <v>1.134187102898551</v>
+        <v>2.26296570280401</v>
       </c>
       <c r="C398">
-        <v>0.01611739567276888</v>
+        <v>0.0301726486454176</v>
       </c>
       <c r="D398">
-        <v>0.2041536785217391</v>
+        <v>0.260766157365166</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>0.619904940313828</v>
+        <v>0.910502323425442</v>
       </c>
       <c r="B399">
-        <v>1.125012669458429</v>
+        <v>2.31238685314398</v>
       </c>
       <c r="C399">
-        <v>0.01598702214493556</v>
+        <v>0.0308315923505796</v>
       </c>
       <c r="D399">
-        <v>0.2025022805025171</v>
+        <v>0.26646105740309</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>0.948643117008048</v>
+        <v>0.857820821494355</v>
       </c>
       <c r="B400">
-        <v>1.721611582718309</v>
+        <v>2.17859256252535</v>
       </c>
       <c r="C400">
-        <v>0.0244650067017865</v>
+        <v>0.0290476819198573</v>
       </c>
       <c r="D400">
-        <v>0.3098900848892956</v>
+        <v>0.251043668178504</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>0.9452106272793788</v>
+        <v>0.67533572376894</v>
       </c>
       <c r="B401">
-        <v>1.715382249507021</v>
+        <v>1.71513834607985</v>
       </c>
       <c r="C401">
-        <v>0.02437648459825766</v>
+        <v>0.0228683389370095</v>
       </c>
       <c r="D401">
-        <v>0.3087688049112637</v>
+        <v>0.197638892760375</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>0.947719426481732</v>
+        <v>0.505195845422579</v>
       </c>
       <c r="B402">
-        <v>1.719935255466847</v>
+        <v>1.28303706773988</v>
       </c>
       <c r="C402">
-        <v>0.02444118520926572</v>
+        <v>0.0171070319784317</v>
       </c>
       <c r="D402">
-        <v>0.3095883459840325</v>
+        <v>0.147846980401442</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>0.9504101514351095</v>
+        <v>0.413247050823788</v>
       </c>
       <c r="B403">
-        <v>1.724818422974828</v>
+        <v>1.04951631955248</v>
       </c>
       <c r="C403">
-        <v>0.0245105775896423</v>
+        <v>0.0139934454677112</v>
       </c>
       <c r="D403">
-        <v>0.3104673161354691</v>
+        <v>0.120937907897862</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>0.9619248730042501</v>
+        <v>0.380323556701671</v>
       </c>
       <c r="B404">
-        <v>1.745715510266972</v>
+        <v>0.965901096385195</v>
       </c>
       <c r="C404">
-        <v>0.02480753619853066</v>
+        <v>0.0128785842274774</v>
       </c>
       <c r="D404">
-        <v>0.314228791848055</v>
+        <v>0.111302755047093</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>0.9442848861457992</v>
+        <v>0.346232183267196</v>
       </c>
       <c r="B405">
-        <v>1.713702200783117</v>
+        <v>0.879319830519863</v>
       </c>
       <c r="C405">
-        <v>0.02435261022165482</v>
+        <v>0.0117241760493097</v>
       </c>
       <c r="D405">
-        <v>0.3084663961409611</v>
+        <v>0.101325819041594</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>0.9473791698594315</v>
+        <v>0.320965694529003</v>
       </c>
       <c r="B406">
-        <v>1.719317752707857</v>
+        <v>0.815150970232388</v>
       </c>
       <c r="C406">
-        <v>0.02443241017005902</v>
+        <v>0.0108685976934239</v>
       </c>
       <c r="D406">
-        <v>0.3094771954874143</v>
+        <v>0.0939315102816634</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>0.6211581105132397</v>
+        <v>0.274848583872623</v>
       </c>
       <c r="B407">
-        <v>1.127286941301805</v>
+        <v>0.698028149517772</v>
       </c>
       <c r="C407">
-        <v>0.01601934074481513</v>
+        <v>0.00930697185287162</v>
       </c>
       <c r="D407">
-        <v>0.2029116494343249</v>
+        <v>0.0804352085658769</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>0.6232788285583524</v>
+        <v>0.211548829237068</v>
       </c>
       <c r="B408">
-        <v>1.131135651828121</v>
+        <v>0.537266867903666</v>
       </c>
       <c r="C408">
-        <v>0.01607403294703119</v>
+        <v>0.00716350425196226</v>
       </c>
       <c r="D408">
-        <v>0.2036044173290618</v>
+        <v>0.0619103579206966</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>0.6215474210722459</v>
+        <v>0.163393327359203</v>
       </c>
       <c r="B409">
-        <v>1.127993467871854</v>
+        <v>0.414967180594802</v>
       </c>
       <c r="C409">
-        <v>0.01602938085923161</v>
+        <v>0.0055328540436792</v>
       </c>
       <c r="D409">
-        <v>0.2030388242169337</v>
+        <v>0.0478175152996276</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>0.6731724599999998</v>
+        <v>0.148288200367281</v>
       </c>
       <c r="B410">
-        <v>1.221683353333333</v>
+        <v>0.37660495331373</v>
       </c>
       <c r="C410">
-        <v>0.01736076344210526</v>
+        <v>0.00502136153472372</v>
       </c>
       <c r="D410">
-        <v>0.2199030035999999</v>
+        <v>0.0433969575405511</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>0.6777482933703821</v>
+        <v>0.144080766717523</v>
       </c>
       <c r="B411">
-        <v>1.229987643524027</v>
+        <v>0.365919407536566</v>
       </c>
       <c r="C411">
-        <v>0.01747877177639406</v>
+        <v>0.00487888866475517</v>
       </c>
       <c r="D411">
-        <v>0.2213977758343248</v>
+        <v>0.042165640288059</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>0.6725585787185352</v>
+        <v>0.14350313462666</v>
       </c>
       <c r="B412">
-        <v>1.220569272489193</v>
+        <v>0.36445240540104</v>
       </c>
       <c r="C412">
-        <v>0.0173449317669517</v>
+        <v>0.00485932878369181</v>
       </c>
       <c r="D412">
-        <v>0.2197024690480548</v>
+        <v>0.0419965946373655</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>1.000877119610206</v>
+        <v>0.160609178249233</v>
       </c>
       <c r="B413">
-        <v>1.816406624477781</v>
+        <v>0.407896325712339</v>
       </c>
       <c r="C413">
-        <v>0.02581209413731584</v>
+        <v>0.00543857668908786</v>
       </c>
       <c r="D413">
-        <v>0.3269531924060006</v>
+        <v>0.0470027262576629</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>0.9896473540855243</v>
+        <v>0.207436864350116</v>
       </c>
       <c r="B414">
-        <v>1.796026679636692</v>
+        <v>0.526823782476486</v>
       </c>
       <c r="C414">
-        <v>0.0255224843948372</v>
+        <v>0.00702426416229676</v>
       </c>
       <c r="D414">
-        <v>0.3232848023346045</v>
+        <v>0.0607069798692716</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>0.992532760028643</v>
+        <v>0.379100116921095</v>
       </c>
       <c r="B415">
-        <v>1.801263157089019</v>
+        <v>0.962793947736114</v>
       </c>
       <c r="C415">
-        <v>0.02559689749547553</v>
+        <v>0.0128371558910419</v>
       </c>
       <c r="D415">
-        <v>0.3242273682760234</v>
+        <v>0.110944711965583</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>1.029683230768225</v>
+        <v>0.765065182534572</v>
       </c>
       <c r="B416">
-        <v>1.868684381764556</v>
+        <v>1.94302268580209</v>
       </c>
       <c r="C416">
-        <v>0.02655498858297001</v>
+        <v>0.0259067739012302</v>
       </c>
       <c r="D416">
-        <v>0.3363631887176201</v>
+        <v>0.223898470410816</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>1.022677376332134</v>
+        <v>1.22226321091785</v>
       </c>
       <c r="B417">
-        <v>1.855970053343502</v>
+        <v>3.10416053566439</v>
       </c>
       <c r="C417">
-        <v>0.02637431128435503</v>
+        <v>0.0413884952235552</v>
       </c>
       <c r="D417">
-        <v>0.3340746096018304</v>
+        <v>0.357698755101241</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>1.032788796050997</v>
+        <v>1.36268485403926</v>
       </c>
       <c r="B418">
-        <v>1.874320407648106</v>
+        <v>3.46078693089336</v>
       </c>
       <c r="C418">
-        <v>0.02663507947710467</v>
+        <v>0.046143477991342</v>
       </c>
       <c r="D418">
-        <v>0.3373776733766591</v>
+        <v>0.398793542611108</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>0.673771588460281</v>
+        <v>1.35156645857187</v>
       </c>
       <c r="B419">
-        <v>1.222770660539028</v>
+        <v>3.43254973605553</v>
       </c>
       <c r="C419">
-        <v>0.01737621464976514</v>
+        <v>0.0457669848975587</v>
       </c>
       <c r="D419">
-        <v>0.2200987188970251</v>
+        <v>0.395539713008871</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>0.6684224613795358</v>
+        <v>1.34751586596844</v>
       </c>
       <c r="B420">
-        <v>1.213062985466565</v>
+        <v>3.42226251674524</v>
       </c>
       <c r="C420">
-        <v>0.01723826347768276</v>
+        <v>0.045629823007123</v>
       </c>
       <c r="D420">
-        <v>0.2183513373839817</v>
+        <v>0.394354295728267</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>0.6808013077541678</v>
+        <v>1.21376305776167</v>
       </c>
       <c r="B421">
-        <v>1.235528299257564</v>
+        <v>3.082572845109</v>
       </c>
       <c r="C421">
-        <v>0.01755750741050222</v>
+        <v>0.041100661518702</v>
       </c>
       <c r="D421">
-        <v>0.2223950938663615</v>
+        <v>0.355211161451217</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>0.6673061645766588</v>
+        <v>1.00278516779997</v>
       </c>
       <c r="B422">
-        <v>1.211037113490973</v>
+        <v>2.5467559817142</v>
       </c>
       <c r="C422">
-        <v>0.0172094747706612</v>
+        <v>0.033956490514489</v>
       </c>
       <c r="D422">
-        <v>0.2179866804283752</v>
+        <v>0.293467890509996</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>0.6672873137495909</v>
+        <v>1.03250579740838</v>
       </c>
       <c r="B423">
-        <v>1.211002902730739</v>
+        <v>2.62223694579905</v>
       </c>
       <c r="C423">
-        <v>0.01720898861775261</v>
+        <v>0.0349628957843203</v>
       </c>
       <c r="D423">
-        <v>0.217980522491533</v>
+        <v>0.302165716082091</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>0.9966737949747038</v>
+        <v>0.975185940130059</v>
       </c>
       <c r="B424">
-        <v>1.808778368657796</v>
+        <v>2.47666270509221</v>
       </c>
       <c r="C424">
-        <v>0.02570369260724236</v>
+        <v>0.0330219205361191</v>
       </c>
       <c r="D424">
-        <v>0.3255801063584032</v>
+        <v>0.285390899162225</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>0.9962480121633274</v>
+        <v>0.758881241333411</v>
       </c>
       <c r="B425">
-        <v>1.808005651703816</v>
+        <v>1.92731743830708</v>
       </c>
       <c r="C425">
-        <v>0.02569271189263318</v>
+        <v>0.0256973721794237</v>
       </c>
       <c r="D425">
-        <v>0.3254410173066869</v>
+        <v>0.222088722682572</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>0.9878831625523434</v>
+        <v>0.550981193577027</v>
       </c>
       <c r="B426">
-        <v>1.792824998706105</v>
+        <v>1.39931731702102</v>
       </c>
       <c r="C426">
-        <v>0.02547698682371833</v>
+        <v>0.0186574236178693</v>
       </c>
       <c r="D426">
-        <v>0.3227084997670988</v>
+        <v>0.161246190890993</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>1.034510488852567</v>
+        <v>0.434491704994143</v>
       </c>
       <c r="B427">
-        <v>1.877444961250954</v>
+        <v>1.10347099681052</v>
       </c>
       <c r="C427">
-        <v>0.02667948102830304</v>
+        <v>0.0147128357429004</v>
       </c>
       <c r="D427">
-        <v>0.3379400930251718</v>
+        <v>0.127155215496923</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>1.033581639660019</v>
+        <v>0.390607528345297</v>
       </c>
       <c r="B428">
-        <v>1.875759271975591</v>
+        <v>0.992019119607103</v>
       </c>
       <c r="C428">
-        <v>0.02665552649649524</v>
+        <v>0.013226821912658</v>
       </c>
       <c r="D428">
-        <v>0.3376366689556063</v>
+        <v>0.114312388178127</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>1.015593804419745</v>
+        <v>0.352455743948191</v>
       </c>
       <c r="B429">
-        <v>1.843114682095093</v>
+        <v>0.895125698916041</v>
       </c>
       <c r="C429">
-        <v>0.02619162969293027</v>
+        <v>0.011934919373021</v>
       </c>
       <c r="D429">
-        <v>0.3317606427771168</v>
+        <v>0.103147161521679</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>1.030457898515855</v>
+        <v>0.324710514589686</v>
       </c>
       <c r="B430">
-        <v>1.870090260269514</v>
+        <v>0.824661624354758</v>
       </c>
       <c r="C430">
-        <v>0.02657496685646152</v>
+        <v>0.0109954054593864</v>
       </c>
       <c r="D430">
-        <v>0.3366162468485125</v>
+        <v>0.095027442370447</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>0.6734294049689442</v>
+        <v>0.277393383516236</v>
       </c>
       <c r="B431">
-        <v>1.222149660869565</v>
+        <v>0.704491132739647</v>
       </c>
       <c r="C431">
-        <v>0.01736738991762014</v>
+        <v>0.00939314431306987</v>
       </c>
       <c r="D431">
-        <v>0.2199869389565217</v>
+        <v>0.0811799513155332</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>0.6680671642693691</v>
+        <v>0.222601410181571</v>
       </c>
       <c r="B432">
-        <v>1.212418187007373</v>
+        <v>0.565336914746846</v>
       </c>
       <c r="C432">
-        <v>0.01722910055221004</v>
+        <v>0.00753776872261255</v>
       </c>
       <c r="D432">
-        <v>0.2182352736613272</v>
+        <v>0.0651449267183088</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>0.6712955733050017</v>
+        <v>0.181706956418798</v>
       </c>
       <c r="B433">
-        <v>1.218277151553521</v>
+        <v>0.461477984555677</v>
       </c>
       <c r="C433">
-        <v>0.01731235952207636</v>
+        <v>0.00615299342289671</v>
       </c>
       <c r="D433">
-        <v>0.2192898872796339</v>
+        <v>0.0531770501833485</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>0.7443757220398822</v>
+        <v>0.153333913089225</v>
       </c>
       <c r="B434">
-        <v>1.350904088146453</v>
+        <v>0.389419461813904</v>
       </c>
       <c r="C434">
-        <v>0.01919705809471275</v>
+        <v>0.0051922203604056</v>
       </c>
       <c r="D434">
-        <v>0.2431627358663615</v>
+        <v>0.0448735995135042</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>0.7388757883425958</v>
+        <v>0.148529946347508</v>
       </c>
       <c r="B435">
-        <v>1.340922726992118</v>
+        <v>0.377218911358752</v>
       </c>
       <c r="C435">
-        <v>0.01905521769936168</v>
+        <v>0.00502954758029768</v>
       </c>
       <c r="D435">
-        <v>0.2413660908585813</v>
+        <v>0.0434677051793622</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>0.7446859410853222</v>
+        <v>0.148048651273162</v>
       </c>
       <c r="B436">
-        <v>1.351467078265955</v>
+        <v>0.375996574661998</v>
       </c>
       <c r="C436">
-        <v>0.01920505848062147</v>
+        <v>0.00501324988049964</v>
       </c>
       <c r="D436">
-        <v>0.2432640740878719</v>
+        <v>0.0433268528266182</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>1.060937493850153</v>
+        <v>0.149041079778907</v>
       </c>
       <c r="B437">
-        <v>1.92540508143176</v>
+        <v>0.378517028009923</v>
       </c>
       <c r="C437">
-        <v>0.0273610195782408</v>
+        <v>0.00504685567187327</v>
       </c>
       <c r="D437">
-        <v>0.3465729146577167</v>
+        <v>0.0436172898109446</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>1.057010374811252</v>
+        <v>0.165165330041461</v>
       </c>
       <c r="B438">
-        <v>1.91827808762042</v>
+        <v>0.419467504867202</v>
       </c>
       <c r="C438">
-        <v>0.02725974124513228</v>
+        <v>0.00559285791510037</v>
       </c>
       <c r="D438">
-        <v>0.3452900557716756</v>
+        <v>0.0483360968521261</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>1.052646408345086</v>
+        <v>0.211839236455229</v>
       </c>
       <c r="B439">
-        <v>1.910358296626268</v>
+        <v>0.538004410045026</v>
       </c>
       <c r="C439">
-        <v>0.02714719684679433</v>
+        <v>0.00717333807306918</v>
       </c>
       <c r="D439">
-        <v>0.3438644933927281</v>
+        <v>0.0619953464072031</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>1.142053926943445</v>
+        <v>0.271925519984521</v>
       </c>
       <c r="B440">
-        <v>2.0726163859344</v>
+        <v>0.690604495198784</v>
       </c>
       <c r="C440">
-        <v>0.02945296969485727</v>
+        <v>0.009207990541244</v>
       </c>
       <c r="D440">
-        <v>0.3730709494681921</v>
+        <v>0.0795797657246659</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>1.132998587446878</v>
+        <v>0.336287150838629</v>
       </c>
       <c r="B441">
-        <v>2.056182621662853</v>
+        <v>0.854062605304454</v>
       </c>
       <c r="C441">
-        <v>0.02921943725520897</v>
+        <v>0.0113874155843859</v>
       </c>
       <c r="D441">
-        <v>0.3701128718993136</v>
+        <v>0.0984153774220118</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>1.128143752193527</v>
+        <v>0.393669326979764</v>
       </c>
       <c r="B442">
-        <v>2.047371994721586</v>
+        <v>0.999795116139082</v>
       </c>
       <c r="C442">
-        <v>0.02909423360920149</v>
+        <v>0.0133305010850541</v>
       </c>
       <c r="D442">
-        <v>0.3685269590498855</v>
+        <v>0.115208432131783</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>0.7392290364498202</v>
+        <v>0.424659973561571</v>
       </c>
       <c r="B443">
-        <v>1.341563806890414</v>
+        <v>1.07850152015637</v>
       </c>
       <c r="C443">
-        <v>0.01906432778212694</v>
+        <v>0.014379911896546</v>
       </c>
       <c r="D443">
-        <v>0.2414814852402746</v>
+        <v>0.12427793173144</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>0.7451018886825761</v>
+        <v>0.43917200458971</v>
       </c>
       <c r="B444">
-        <v>1.352221946127638</v>
+        <v>1.11535747197387</v>
       </c>
       <c r="C444">
-        <v>0.01921578555023486</v>
+        <v>0.0148713208840105</v>
       </c>
       <c r="D444">
-        <v>0.2433999503029748</v>
+        <v>0.128524918294062</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>0.7328951585550834</v>
+        <v>0.407884433321941</v>
       </c>
       <c r="B445">
-        <v>1.330068991451818</v>
+        <v>1.03589697351604</v>
       </c>
       <c r="C445">
-        <v>0.01890098040484162</v>
+        <v>0.0138118555557525</v>
       </c>
       <c r="D445">
-        <v>0.2394124184613272</v>
+        <v>0.119368522852676</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>0.7537179460542662</v>
+        <v>0.351047546880484</v>
       </c>
       <c r="B446">
-        <v>1.367858494691076</v>
+        <v>0.891549325410752</v>
       </c>
       <c r="C446">
-        <v>0.01943798913508371</v>
+        <v>0.011887234752319</v>
       </c>
       <c r="D446">
-        <v>0.2462145290443936</v>
+        <v>0.102735048702151</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>0.7483081684864333</v>
+        <v>0.322983932617451</v>
       </c>
       <c r="B447">
-        <v>1.35804075021612</v>
+        <v>0.820276654266543</v>
       </c>
       <c r="C447">
-        <v>0.01929847381886065</v>
+        <v>0.0109369396321631</v>
       </c>
       <c r="D447">
-        <v>0.2444473350389015</v>
+        <v>0.0945221533160666</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>1.058699982637338</v>
+        <v>0.310563190287353</v>
       </c>
       <c r="B448">
-        <v>1.921344412934429</v>
+        <v>0.788731911840897</v>
       </c>
       <c r="C448">
-        <v>0.02730331534169978</v>
+        <v>0.0105163462362315</v>
       </c>
       <c r="D448">
-        <v>0.3458419943281972</v>
+        <v>0.0908871882535307</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>1.066217364631455</v>
+        <v>0.309923592271722</v>
       </c>
       <c r="B449">
-        <v>1.934987069145973</v>
+        <v>0.787107535928182</v>
       </c>
       <c r="C449">
-        <v>0.0274971846668112</v>
+        <v>0.0104946880539525</v>
       </c>
       <c r="D449">
-        <v>0.3482976724462752</v>
+        <v>0.0907000081012418</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>1.072546734719719</v>
+        <v>0.328648571419931</v>
       </c>
       <c r="B450">
-        <v>1.9464737037506</v>
+        <v>0.834663038526808</v>
       </c>
       <c r="C450">
-        <v>0.02766041579014011</v>
+        <v>0.0111287566433645</v>
       </c>
       <c r="D450">
-        <v>0.350365266675108</v>
+        <v>0.0961799257415522</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>1.132797399463877</v>
+        <v>0.356854421394784</v>
       </c>
       <c r="B451">
-        <v>2.055817502730739</v>
+        <v>0.906296943224849</v>
       </c>
       <c r="C451">
-        <v>0.02921424872301577</v>
+        <v>0.0120838681746065</v>
       </c>
       <c r="D451">
-        <v>0.370047150491533</v>
+        <v>0.104434446807437</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>1.147019697626675</v>
+        <v>0.353474034188352</v>
       </c>
       <c r="B452">
-        <v>2.081628340137299</v>
+        <v>0.897711832859305</v>
       </c>
       <c r="C452">
-        <v>0.02958103430721425</v>
+        <v>0.0119694008990659</v>
       </c>
       <c r="D452">
-        <v>0.3746931012247138</v>
+        <v>0.103445167015081</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>1.127613518443936</v>
+        <v>0.320068977257516</v>
       </c>
       <c r="B453">
-        <v>2.046409718657514</v>
+        <v>0.812873593034962</v>
       </c>
       <c r="C453">
-        <v>0.02908055915986993</v>
+        <v>0.010838232892965</v>
       </c>
       <c r="D453">
-        <v>0.3683537493583525</v>
+        <v>0.0936690834583546</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>1.148771474612619</v>
+        <v>0.312075645495011</v>
       </c>
       <c r="B454">
-        <v>2.084807490963641</v>
+        <v>0.792573067923837</v>
       </c>
       <c r="C454">
-        <v>0.02962621171369385</v>
+        <v>0.0105675612646958</v>
       </c>
       <c r="D454">
-        <v>0.3752653483734554</v>
+        <v>0.0913298125099863</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>0.7352019260673422</v>
+        <v>0.286730250682443</v>
       </c>
       <c r="B455">
-        <v>1.334255347307399</v>
+        <v>0.728203811256998</v>
       </c>
       <c r="C455">
-        <v>0.01896047072489462</v>
+        <v>0.0097093109772218</v>
       </c>
       <c r="D455">
-        <v>0.2401659625153318</v>
+        <v>0.0839124116661886</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>0.7431299282510627</v>
+        <v>0.226201979103609</v>
       </c>
       <c r="B456">
-        <v>1.348643203122299</v>
+        <v>0.57448121677107</v>
       </c>
       <c r="C456">
-        <v>0.01916492972858004</v>
+        <v>0.00765969183074567</v>
       </c>
       <c r="D456">
-        <v>0.2427557765620138</v>
+        <v>0.0661986433069822</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>0.740864960398823</v>
+        <v>0.183450952812075</v>
       </c>
       <c r="B457">
-        <v>1.344532705908975</v>
+        <v>0.465907181744953</v>
       </c>
       <c r="C457">
-        <v>0.01910651739975912</v>
+        <v>0.0062120489403567</v>
       </c>
       <c r="D457">
-        <v>0.2420158870636155</v>
+        <v>0.0536874356168657</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>0.728645116652501</v>
+        <v>0.156540526633379</v>
       </c>
       <c r="B458">
-        <v>1.322355952443428</v>
+        <v>0.397563242243501</v>
       </c>
       <c r="C458">
-        <v>0.01879137406103818</v>
+        <v>0.00530080328114682</v>
       </c>
       <c r="D458">
-        <v>0.238024071439817</v>
+        <v>0.0458120239564467</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>0.728304982164106</v>
+        <v>0.149227026095126</v>
       </c>
       <c r="B459">
-        <v>1.321738671334859</v>
+        <v>0.378989272622541</v>
       </c>
       <c r="C459">
-        <v>0.01878260217160063</v>
+        <v>0.00505315221925513</v>
       </c>
       <c r="D459">
-        <v>0.2379129608402746</v>
+        <v>0.0436717075216577</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>0.7434844057600523</v>
+        <v>0.146984867036797</v>
       </c>
       <c r="B460">
-        <v>1.349286514157132</v>
+        <v>0.373294900410913</v>
       </c>
       <c r="C460">
-        <v>0.01917407151696977</v>
+        <v>0.00497722782862703</v>
       </c>
       <c r="D460">
-        <v>0.2428715725482837</v>
+        <v>0.0430155333876912</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>1.060051095177385</v>
+        <v>0.145046139878825</v>
       </c>
       <c r="B461">
-        <v>1.923796431988587</v>
+        <v>0.368371148898603</v>
       </c>
       <c r="C461">
-        <v>0.02733815982299571</v>
+        <v>0.00491157830322141</v>
       </c>
       <c r="D461">
-        <v>0.3462833577579457</v>
+        <v>0.0424481594499885</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>1.054864658930245</v>
+        <v>0.1497322726601</v>
       </c>
       <c r="B462">
-        <v>1.914384010651185</v>
+        <v>0.38027243850184</v>
       </c>
       <c r="C462">
-        <v>0.02720440436188526</v>
+        <v>0.00507026096870807</v>
       </c>
       <c r="D462">
-        <v>0.3445891219172133</v>
+        <v>0.043819569345278</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>1.054471250365355</v>
+        <v>0.173982251613655</v>
       </c>
       <c r="B463">
-        <v>1.913670046959348</v>
+        <v>0.441859686637853</v>
       </c>
       <c r="C463">
-        <v>0.02719425856205389</v>
+        <v>0.00589141808865184</v>
       </c>
       <c r="D463">
-        <v>0.3444606084526826</v>
+        <v>0.0509163936671065</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>1.121841115567179</v>
+        <v>0.222843401971568</v>
       </c>
       <c r="B464">
-        <v>2.035933876399695</v>
+        <v>0.565951497070648</v>
       </c>
       <c r="C464">
-        <v>0.02893169192778514</v>
+        <v>0.00754596309184085</v>
       </c>
       <c r="D464">
-        <v>0.3664680977519451</v>
+        <v>0.065215746294038</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>1.121094651742399</v>
+        <v>0.294833139312824</v>
       </c>
       <c r="B465">
-        <v>2.034579182791762</v>
+        <v>0.748782576032569</v>
       </c>
       <c r="C465">
-        <v>0.02891244101861977</v>
+        <v>0.00998369243972502</v>
       </c>
       <c r="D465">
-        <v>0.3662242529025171</v>
+        <v>0.0862837447390664</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>1.123372275201046</v>
+        <v>0.34920295934474</v>
       </c>
       <c r="B466">
-        <v>2.038712647587083</v>
+        <v>0.886864658653309</v>
       </c>
       <c r="C466">
-        <v>0.02897117972886908</v>
+        <v>0.0118247729996207</v>
       </c>
       <c r="D466">
-        <v>0.3669682765656749</v>
+        <v>0.1021952249888</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>0.7363870693690747</v>
+        <v>0.380835271066622</v>
       </c>
       <c r="B467">
-        <v>1.336406162929062</v>
+        <v>0.967200688423167</v>
       </c>
       <c r="C467">
-        <v>0.01899103494688666</v>
+        <v>0.0128959119907288</v>
       </c>
       <c r="D467">
-        <v>0.2405531093272311</v>
+        <v>0.111452509690509</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>0.728325881994116</v>
+        <v>0.401195752266786</v>
       </c>
       <c r="B468">
-        <v>1.321776600655988</v>
+        <v>1.01890984702676</v>
       </c>
       <c r="C468">
-        <v>0.01878314116721667</v>
+        <v>0.0135853622428308</v>
       </c>
       <c r="D468">
-        <v>0.2379197881180779</v>
+        <v>0.117411061591201</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>0.7343630642628307</v>
+        <v>0.368138817693388</v>
       </c>
       <c r="B469">
-        <v>1.332732968476989</v>
+        <v>0.934955727475271</v>
       </c>
       <c r="C469">
-        <v>0.01893883692046247</v>
+        <v>0.0124659824181946</v>
       </c>
       <c r="D469">
-        <v>0.239891934325858</v>
+        <v>0.107736857018286</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>0.7374668939195815</v>
+        <v>0.3083435519353</v>
       </c>
       <c r="B470">
-        <v>1.338365844520722</v>
+        <v>0.783094735073779</v>
       </c>
       <c r="C470">
-        <v>0.01901888305371553</v>
+        <v>0.010441184445783</v>
       </c>
       <c r="D470">
-        <v>0.24090585201373</v>
+        <v>0.0902376048673892</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>0.7300552404772802</v>
+        <v>0.275456832070732</v>
       </c>
       <c r="B471">
-        <v>1.32491506605136</v>
+        <v>0.699572906846303</v>
       </c>
       <c r="C471">
-        <v>0.01882774041230881</v>
+        <v>0.00932756846202856</v>
       </c>
       <c r="D471">
-        <v>0.2384847118892449</v>
+        <v>0.0806132141061835</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>1.060548593091736</v>
+        <v>0.248129811254504</v>
       </c>
       <c r="B472">
-        <v>1.924699298573891</v>
+        <v>0.630170949217788</v>
       </c>
       <c r="C472">
-        <v>0.02735099003236582</v>
+        <v>0.00840221600077179</v>
       </c>
       <c r="D472">
-        <v>0.3464458737433004</v>
+        <v>0.0726158848572322</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>1.047759946128676</v>
+        <v>0.241785503684148</v>
       </c>
       <c r="B473">
-        <v>1.901490272603893</v>
+        <v>0.61405842205498</v>
       </c>
       <c r="C473">
-        <v>0.02702117755805533</v>
+        <v>0.00818738392431974</v>
       </c>
       <c r="D473">
-        <v>0.3422682490687008</v>
+        <v>0.0707592054614813</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>1.058493033340183</v>
+        <v>0.268581863707029</v>
       </c>
       <c r="B474">
-        <v>1.920968838284036</v>
+        <v>0.682112669732138</v>
       </c>
       <c r="C474">
-        <v>0.02729797822824683</v>
+        <v>0.00909476705498177</v>
       </c>
       <c r="D474">
-        <v>0.3457743908911265</v>
+        <v>0.0786012353416339</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>1.123572209676365</v>
+        <v>0.305923744145134</v>
       </c>
       <c r="B475">
-        <v>2.039075491634884</v>
+        <v>0.776949191479705</v>
       </c>
       <c r="C475">
-        <v>0.02897633593375889</v>
+        <v>0.0103592444820578</v>
       </c>
       <c r="D475">
-        <v>0.3670335884942792</v>
+        <v>0.0895294413340395</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>1.1260554083949</v>
+        <v>0.328340602399857</v>
       </c>
       <c r="B476">
-        <v>2.043582037457411</v>
+        <v>0.833880894983763</v>
       </c>
       <c r="C476">
-        <v>0.02904037632176321</v>
+        <v>0.0111183281413835</v>
       </c>
       <c r="D476">
-        <v>0.367844766742334</v>
+        <v>0.096089797744484</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>1.117108497312847</v>
+        <v>0.314508054396133</v>
       </c>
       <c r="B477">
-        <v>2.027345050678871</v>
+        <v>0.798750614339385</v>
       </c>
       <c r="C477">
-        <v>0.02880964019385764</v>
+        <v>0.0106499279294915</v>
       </c>
       <c r="D477">
-        <v>0.3649221091221968</v>
+        <v>0.0920416637937824</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>1.108745094056881</v>
+        <v>0.301075534172508</v>
       </c>
       <c r="B478">
-        <v>2.012167022547674</v>
+        <v>0.764636277263512</v>
       </c>
       <c r="C478">
-        <v>0.02859395242567747</v>
+        <v>0.0101950735297601</v>
       </c>
       <c r="D478">
-        <v>0.3621900640585812</v>
+        <v>0.0881105990943427</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>0.7354641984439362</v>
+        <v>0.259923991081628</v>
       </c>
       <c r="B479">
-        <v>1.334731323101958</v>
+        <v>0.66012442179461</v>
       </c>
       <c r="C479">
-        <v>0.01896723459144888</v>
+        <v>0.00880159262528304</v>
       </c>
       <c r="D479">
-        <v>0.2402516381583525</v>
+        <v>0.0760674846468015</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>0.7398101336842101</v>
+        <v>0.200289697094947</v>
       </c>
       <c r="B480">
-        <v>1.342618390760233</v>
+        <v>0.508672246590343</v>
       </c>
       <c r="C480">
-        <v>0.01907931397396121</v>
+        <v>0.00678224550775478</v>
       </c>
       <c r="D480">
-        <v>0.241671310336842</v>
+        <v>0.058615341336067</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>0.7219420084275908</v>
+        <v>0.161985408601616</v>
       </c>
       <c r="B481">
-        <v>1.310191052331554</v>
+        <v>0.411391513908866</v>
       </c>
       <c r="C481">
-        <v>0.01861850442786945</v>
+        <v>0.00548517884716421</v>
       </c>
       <c r="D481">
-        <v>0.2358343894196797</v>
+        <v>0.0474054839283369</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>0.727160409120628</v>
+        <v>0.147124853675207</v>
       </c>
       <c r="B482">
-        <v>1.319661483218917</v>
+        <v>0.373650422032272</v>
       </c>
       <c r="C482">
-        <v>0.01875308423521619</v>
+        <v>0.00498196808118755</v>
       </c>
       <c r="D482">
-        <v>0.2375390669794051</v>
+        <v>0.0430565008698528</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>0.7152393100032689</v>
+        <v>0.143043992052535</v>
       </c>
       <c r="B483">
-        <v>1.298026895931858</v>
+        <v>0.36328632902231</v>
       </c>
       <c r="C483">
-        <v>0.0184456453632422</v>
+        <v>0.00484378121581415</v>
       </c>
       <c r="D483">
-        <v>0.2336448412677345</v>
+        <v>0.0418622252759125</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>0.7162978249231776</v>
+        <v>0.14262637789011</v>
       </c>
       <c r="B484">
-        <v>1.299947904490211</v>
+        <v>0.362225721625676</v>
       </c>
       <c r="C484">
-        <v>0.01847294390591353</v>
+        <v>0.00482963989043317</v>
       </c>
       <c r="D484">
-        <v>0.233990622808238</v>
+        <v>0.0417400093205622</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>1.039588932196018</v>
+        <v>0.158879461998263</v>
       </c>
       <c r="B485">
-        <v>1.886661395466847</v>
+        <v>0.403503395551144</v>
       </c>
       <c r="C485">
-        <v>0.02681045140926572</v>
+        <v>0.00538000472835803</v>
       </c>
       <c r="D485">
-        <v>0.3395990511840325</v>
+        <v>0.046496519947824</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>1.034568465187192</v>
+        <v>0.208305834143845</v>
       </c>
       <c r="B486">
-        <v>1.877550177561941</v>
+        <v>0.52903068988913</v>
       </c>
       <c r="C486">
-        <v>0.02668097620745916</v>
+        <v>0.00705368937270635</v>
       </c>
       <c r="D486">
-        <v>0.3379590319611493</v>
+        <v>0.0609612863154289</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>1.039374606488271</v>
+        <v>0.371251240127149</v>
       </c>
       <c r="B487">
-        <v>1.886272433997232</v>
+        <v>0.942860292386409</v>
       </c>
       <c r="C487">
-        <v>0.02680492406206593</v>
+        <v>0.012571375822727</v>
       </c>
       <c r="D487">
-        <v>0.3395290381195017</v>
+        <v>0.108647716168721</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>1.089164677306309</v>
+        <v>0.765888178616065</v>
       </c>
       <c r="B488">
-        <v>1.976632192148487</v>
+        <v>1.94511283458048</v>
       </c>
       <c r="C488">
-        <v>0.02808898378316271</v>
+        <v>0.0259346423415822</v>
       </c>
       <c r="D488">
-        <v>0.3557937945867276</v>
+        <v>0.224139322521207</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>1.100653075214122</v>
+        <v>1.23957889561882</v>
       </c>
       <c r="B489">
-        <v>1.997481506870074</v>
+        <v>3.1481368777621</v>
       </c>
       <c r="C489">
-        <v>0.02838526351868</v>
+        <v>0.0419748420326034</v>
       </c>
       <c r="D489">
-        <v>0.3595466712366132</v>
+        <v>0.362766238770827</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>1.10099152228833</v>
+        <v>1.37959875017153</v>
       </c>
       <c r="B490">
-        <v>1.998095725634376</v>
+        <v>3.50374285757848</v>
       </c>
       <c r="C490">
-        <v>0.02839399189059376</v>
+        <v>0.0467162193640912</v>
       </c>
       <c r="D490">
-        <v>0.3596572306141876</v>
+        <v>0.403743441729712</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>0.7102712974697611</v>
+        <v>1.37020587535219</v>
       </c>
       <c r="B491">
-        <v>1.289010873185863</v>
+        <v>3.47988793740238</v>
       </c>
       <c r="C491">
-        <v>0.01831752293474647</v>
+        <v>0.0463981561587823</v>
       </c>
       <c r="D491">
-        <v>0.2320219571734553</v>
+        <v>0.400994590582357</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>0.7115502851062437</v>
+        <v>1.36783871484753</v>
       </c>
       <c r="B492">
-        <v>1.291331998896516</v>
+        <v>3.47387610120007</v>
       </c>
       <c r="C492">
-        <v>0.01835050735273997</v>
+        <v>0.0463179989468452</v>
       </c>
       <c r="D492">
-        <v>0.2324397598013729</v>
+        <v>0.400301834424701</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>0.7153663481856813</v>
+        <v>1.23563042317309</v>
       </c>
       <c r="B493">
-        <v>1.298257446707348</v>
+        <v>3.13810901123324</v>
       </c>
       <c r="C493">
-        <v>0.01844892161110441</v>
+        <v>0.0418411381531927</v>
       </c>
       <c r="D493">
-        <v>0.2336863404073226</v>
+        <v>0.36161070724065</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>0.7133546370970905</v>
+        <v>1.01567390488872</v>
       </c>
       <c r="B494">
-        <v>1.294606563620646</v>
+        <v>2.57948928225707</v>
       </c>
       <c r="C494">
-        <v>0.01839704064092497</v>
+        <v>0.0343929312325525</v>
       </c>
       <c r="D494">
-        <v>0.2330291814517162</v>
+        <v>0.297239815550604</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>0.719550821994116</v>
+        <v>1.04275044732596</v>
       </c>
       <c r="B495">
-        <v>1.305851491767099</v>
+        <v>2.64825510431989</v>
       </c>
       <c r="C495">
-        <v>0.01855683698826931</v>
+        <v>0.0353098019501881</v>
       </c>
       <c r="D495">
-        <v>0.2350532685180779</v>
+        <v>0.305163841599765</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>1.037201433967839</v>
+        <v>0.994614484220638</v>
       </c>
       <c r="B496">
-        <v>1.882328528312003</v>
+        <v>2.52600503929051</v>
       </c>
       <c r="C496">
-        <v>0.026748879086539</v>
+        <v>0.0336798133673119</v>
       </c>
       <c r="D496">
-        <v>0.3388191350961606</v>
+        <v>0.291076717055256</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>1.039425421761235</v>
+        <v>0.779646814313633</v>
       </c>
       <c r="B497">
-        <v>1.886364654307427</v>
+        <v>1.98005540143145</v>
       </c>
       <c r="C497">
-        <v>0.0268062345612108</v>
+        <v>0.0264005397217576</v>
       </c>
       <c r="D497">
-        <v>0.3395456377753368</v>
+        <v>0.22816582582831</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>1.033297673562477</v>
+        <v>0.562753514829717</v>
       </c>
       <c r="B498">
-        <v>1.875243926094867</v>
+        <v>1.42921527575801</v>
       </c>
       <c r="C498">
-        <v>0.02664820316029547</v>
+        <v>0.0190560600634277</v>
       </c>
       <c r="D498">
-        <v>0.337543906697076</v>
+        <v>0.164691393707477</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>1.10182761191239</v>
+        <v>0.439191301254484</v>
       </c>
       <c r="B499">
-        <v>1.999613073470633</v>
+        <v>1.11540647937647</v>
       </c>
       <c r="C499">
-        <v>0.02841555420195111</v>
+        <v>0.0148719743111207</v>
       </c>
       <c r="D499">
-        <v>0.359930353224714</v>
+        <v>0.128530565517104</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>1.102678743628637</v>
+        <v>0.393142296180211</v>
       </c>
       <c r="B500">
-        <v>2.001157719918637</v>
+        <v>0.998456625219584</v>
       </c>
       <c r="C500">
-        <v>0.02843750444094906</v>
+        <v>0.0133126546739578</v>
       </c>
       <c r="D500">
-        <v>0.3602083895853547</v>
+        <v>0.115054195090845</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>1.094470148571428</v>
+        <v>0.353432723938535</v>
       </c>
       <c r="B501">
-        <v>1.98626064</v>
+        <v>0.897606917939136</v>
       </c>
       <c r="C501">
-        <v>0.02822580909473684</v>
+        <v>0.0119680020440059</v>
       </c>
       <c r="D501">
-        <v>0.3575269151999999</v>
+        <v>0.103433077454665</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>1.097353216240601</v>
+        <v>0.32405149805392</v>
       </c>
       <c r="B502">
-        <v>1.991492873918128</v>
+        <v>0.822987931565511</v>
       </c>
       <c r="C502">
-        <v>0.02830016189252077</v>
+        <v>0.0109730897237093</v>
       </c>
       <c r="D502">
-        <v>0.3584687173052631</v>
+        <v>0.094834579333804</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>0.7206884284275906</v>
+        <v>0.275132231380258</v>
       </c>
       <c r="B503">
-        <v>1.307916036775998</v>
+        <v>0.698748524140339</v>
       </c>
       <c r="C503">
-        <v>0.01858617525944839</v>
+        <v>0.00931657677545301</v>
       </c>
       <c r="D503">
-        <v>0.2354248866196796</v>
+        <v>0.0805182188041485</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>0.7183611708859103</v>
+        <v>0.211481149549942</v>
       </c>
       <c r="B504">
-        <v>1.303692495311467</v>
+        <v>0.537094982983979</v>
       </c>
       <c r="C504">
-        <v>0.01852615651232084</v>
+        <v>0.0071612124703048</v>
       </c>
       <c r="D504">
-        <v>0.234664649156064</v>
+        <v>0.0618905512705295</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>0.7165076428244522</v>
+        <v>0.162083945875042</v>
       </c>
       <c r="B505">
-        <v>1.300328685125858</v>
+        <v>0.411641767301695</v>
       </c>
       <c r="C505">
-        <v>0.01847835499915693</v>
+        <v>0.00548851553392212</v>
       </c>
       <c r="D505">
-        <v>0.2340591633226544</v>
+        <v>0.0474343211376392</v>
       </c>
     </row>
   </sheetData>
